--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.919980947055849</v>
+        <v>0.9199809470558495</v>
       </c>
       <c r="D2">
-        <v>0.9337138901131482</v>
+        <v>0.9337138901131489</v>
       </c>
       <c r="E2">
-        <v>0.9373735145641936</v>
+        <v>0.937373514564194</v>
       </c>
       <c r="F2">
-        <v>0.9173202775758716</v>
+        <v>0.9173202775758723</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.031501888485127</v>
       </c>
       <c r="J2">
-        <v>0.9448501422114545</v>
+        <v>0.9448501422114552</v>
       </c>
       <c r="K2">
-        <v>0.9461810429561225</v>
+        <v>0.946181042956123</v>
       </c>
       <c r="L2">
-        <v>0.9497802468603209</v>
+        <v>0.9497802468603214</v>
       </c>
       <c r="M2">
-        <v>0.9300657472759084</v>
+        <v>0.9300657472759088</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>0.9471396271883193</v>
       </c>
       <c r="E3">
-        <v>0.9499112995641432</v>
+        <v>0.9499112995641431</v>
       </c>
       <c r="F3">
         <v>0.9333941245525383</v>
@@ -477,16 +477,16 @@
         <v>1.034730751421667</v>
       </c>
       <c r="J3">
-        <v>0.9573991337289455</v>
+        <v>0.9573991337289454</v>
       </c>
       <c r="K3">
-        <v>0.9584967381613351</v>
+        <v>0.9584967381613352</v>
       </c>
       <c r="L3">
-        <v>0.961227897670472</v>
+        <v>0.9612278976704718</v>
       </c>
       <c r="M3">
-        <v>0.9449566819118758</v>
+        <v>0.9449566819118757</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9440026012549037</v>
+        <v>0.944002601254903</v>
       </c>
       <c r="D4">
-        <v>0.9552485768027051</v>
+        <v>0.9552485768027045</v>
       </c>
       <c r="E4">
-        <v>0.9574889325183572</v>
+        <v>0.957488932518357</v>
       </c>
       <c r="F4">
-        <v>0.9431050732292809</v>
+        <v>0.9431050732292805</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036637082435553</v>
       </c>
       <c r="J4">
-        <v>0.9649559310939322</v>
+        <v>0.9649559310939315</v>
       </c>
       <c r="K4">
-        <v>0.9659189043480464</v>
+        <v>0.9659189043480458</v>
       </c>
       <c r="L4">
-        <v>0.9681290323244219</v>
+        <v>0.9681290323244216</v>
       </c>
       <c r="M4">
-        <v>0.9539423993780172</v>
+        <v>0.9539423993780165</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.94766464499027</v>
+        <v>0.9476646449902735</v>
       </c>
       <c r="D5">
-        <v>0.9585357055798878</v>
+        <v>0.958535705579891</v>
       </c>
       <c r="E5">
-        <v>0.9605617515920286</v>
+        <v>0.9605617515920315</v>
       </c>
       <c r="F5">
-        <v>0.9470426618888576</v>
+        <v>0.947042661888861</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.037398847264476</v>
       </c>
       <c r="J5">
-        <v>0.9680139331295918</v>
+        <v>0.9680139331295953</v>
       </c>
       <c r="K5">
-        <v>0.9689238176626606</v>
+        <v>0.9689238176626641</v>
       </c>
       <c r="L5">
-        <v>0.9709234430971114</v>
+        <v>0.9709234430971143</v>
       </c>
       <c r="M5">
-        <v>0.9575833375219357</v>
+        <v>0.9575833375219392</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9482719063249028</v>
+        <v>0.9482719063249053</v>
       </c>
       <c r="D6">
-        <v>0.9590809009931859</v>
+        <v>0.9590809009931881</v>
       </c>
       <c r="E6">
-        <v>0.9610714618917036</v>
+        <v>0.9610714618917059</v>
       </c>
       <c r="F6">
-        <v>0.9476958144621507</v>
+        <v>0.947695814462153</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037524530388247</v>
       </c>
       <c r="J6">
-        <v>0.9685208169859364</v>
+        <v>0.9685208169859388</v>
       </c>
       <c r="K6">
-        <v>0.9694219834711632</v>
+        <v>0.9694219834711655</v>
       </c>
       <c r="L6">
-        <v>0.971386735319975</v>
+        <v>0.9713867353199773</v>
       </c>
       <c r="M6">
-        <v>0.9581871294278969</v>
+        <v>0.9581871294278991</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9440520536544017</v>
+        <v>0.9440520536544015</v>
       </c>
       <c r="D7">
         <v>0.9552929590912024</v>
       </c>
       <c r="E7">
-        <v>0.9575304171158222</v>
+        <v>0.957530417115822</v>
       </c>
       <c r="F7">
         <v>0.9431582331901767</v>
@@ -629,16 +629,16 @@
         <v>1.036647412145124</v>
       </c>
       <c r="J7">
-        <v>0.9649972407377077</v>
+        <v>0.9649972407377075</v>
       </c>
       <c r="K7">
         <v>0.9659594912902677</v>
       </c>
       <c r="L7">
-        <v>0.968166774357356</v>
+        <v>0.9681667743573559</v>
       </c>
       <c r="M7">
-        <v>0.9539915647235186</v>
+        <v>0.9539915647235184</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9251929887472949</v>
+        <v>0.9251929887472946</v>
       </c>
       <c r="D8">
-        <v>0.9383821497733261</v>
+        <v>0.9383821497733258</v>
       </c>
       <c r="E8">
-        <v>0.9417318527730707</v>
+        <v>0.9417318527730704</v>
       </c>
       <c r="F8">
-        <v>0.9229090617799777</v>
+        <v>0.9229090617799773</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032633770511551</v>
       </c>
       <c r="J8">
-        <v>0.9492185367407415</v>
+        <v>0.9492185367407411</v>
       </c>
       <c r="K8">
-        <v>0.9504669443192897</v>
+        <v>0.9504669443192894</v>
       </c>
       <c r="L8">
-        <v>0.9537635643179345</v>
+        <v>0.9537635643179343</v>
       </c>
       <c r="M8">
-        <v>0.9352454985174151</v>
+        <v>0.9352454985174147</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8857769057127711</v>
+        <v>0.8857769057127709</v>
       </c>
       <c r="D9">
-        <v>0.9031398240376435</v>
+        <v>0.9031398240376431</v>
       </c>
       <c r="E9">
-        <v>0.9088606447908066</v>
+        <v>0.9088606447908067</v>
       </c>
       <c r="F9">
-        <v>0.8807018391708583</v>
+        <v>0.8807018391708582</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.023909412183011</v>
       </c>
       <c r="J9">
-        <v>0.9161257043118866</v>
+        <v>0.9161257043118864</v>
       </c>
       <c r="K9">
-        <v>0.9180276606443019</v>
+        <v>0.9180276606443015</v>
       </c>
       <c r="L9">
         <v>0.9236284273429829</v>
       </c>
       <c r="M9">
-        <v>0.8960806402705448</v>
+        <v>0.8960806402705447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8528653299685713</v>
+        <v>0.8528653299685739</v>
       </c>
       <c r="D10">
-        <v>0.8738309737498388</v>
+        <v>0.8738309737498411</v>
       </c>
       <c r="E10">
-        <v>0.8815810622839285</v>
+        <v>0.8815810622839308</v>
       </c>
       <c r="F10">
-        <v>0.8455247181082237</v>
+        <v>0.8455247181082264</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016458227607323</v>
+        <v>1.016458227607324</v>
       </c>
       <c r="J10">
-        <v>0.8884356863174152</v>
+        <v>0.8884356863174178</v>
       </c>
       <c r="K10">
-        <v>0.8909248887677246</v>
+        <v>0.890924888767727</v>
       </c>
       <c r="L10">
-        <v>0.8984772152099813</v>
+        <v>0.8984772152099837</v>
       </c>
       <c r="M10">
-        <v>0.8633831086272499</v>
+        <v>0.8633831086272524</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8360081510694067</v>
+        <v>0.8360081510694055</v>
       </c>
       <c r="D11">
-        <v>0.8588655728625147</v>
+        <v>0.8588655728625136</v>
       </c>
       <c r="E11">
-        <v>0.8676733397132689</v>
+        <v>0.8676733397132681</v>
       </c>
       <c r="F11">
-        <v>0.8275142021147782</v>
+        <v>0.8275142021147772</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.012630667353118</v>
       </c>
       <c r="J11">
-        <v>0.8742495936093696</v>
+        <v>0.8742495936093687</v>
       </c>
       <c r="K11">
-        <v>0.8770500188449527</v>
+        <v>0.8770500188449515</v>
       </c>
       <c r="L11">
-        <v>0.8856117580871256</v>
+        <v>0.8856117580871249</v>
       </c>
       <c r="M11">
-        <v>0.8466332776397375</v>
+        <v>0.8466332776397366</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8291921915105511</v>
+        <v>0.8291921915105518</v>
       </c>
       <c r="D12">
-        <v>0.8528241704451334</v>
+        <v>0.8528241704451335</v>
       </c>
       <c r="E12">
-        <v>0.8620632601228265</v>
+        <v>0.8620632601228271</v>
       </c>
       <c r="F12">
-        <v>0.8202314383059824</v>
+        <v>0.8202314383059831</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.011085669026194</v>
       </c>
       <c r="J12">
-        <v>0.8685148619314469</v>
+        <v>0.8685148619314474</v>
       </c>
       <c r="K12">
-        <v>0.8714427055606722</v>
+        <v>0.8714427055606724</v>
       </c>
       <c r="L12">
-        <v>0.8804145178407683</v>
+        <v>0.8804145178407691</v>
       </c>
       <c r="M12">
-        <v>0.8398597918106006</v>
+        <v>0.839859791810601</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8306831986956585</v>
+        <v>0.8306831986956578</v>
       </c>
       <c r="D13">
-        <v>0.8541452521058754</v>
+        <v>0.8541452521058744</v>
       </c>
       <c r="E13">
-        <v>0.8632898052705251</v>
+        <v>0.8632898052705242</v>
       </c>
       <c r="F13">
-        <v>0.8218246184108507</v>
+        <v>0.8218246184108502</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011423428627777</v>
       </c>
       <c r="J13">
-        <v>0.8697692538200866</v>
+        <v>0.8697692538200859</v>
       </c>
       <c r="K13">
-        <v>0.8726691542708415</v>
+        <v>0.8726691542708407</v>
       </c>
       <c r="L13">
-        <v>0.8815511659973809</v>
+        <v>0.88155116599738</v>
       </c>
       <c r="M13">
-        <v>0.8413415637140637</v>
+        <v>0.841341563714063</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8354573954815849</v>
+        <v>0.8354573954815844</v>
       </c>
       <c r="D14">
-        <v>0.8583771932092014</v>
+        <v>0.8583771932092008</v>
       </c>
       <c r="E14">
-        <v>0.8672197331030039</v>
+        <v>0.8672197331030034</v>
       </c>
       <c r="F14">
-        <v>0.8269257490139471</v>
+        <v>0.8269257490139463</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.012505740865368</v>
       </c>
       <c r="J14">
-        <v>0.8737861676470522</v>
+        <v>0.8737861676470516</v>
       </c>
       <c r="K14">
-        <v>0.8765968576075169</v>
+        <v>0.8765968576075164</v>
       </c>
       <c r="L14">
-        <v>0.8851916906569195</v>
+        <v>0.8851916906569188</v>
       </c>
       <c r="M14">
-        <v>0.8460859774326249</v>
+        <v>0.8460859774326244</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8383187488806891</v>
+        <v>0.8383187488806877</v>
       </c>
       <c r="D15">
-        <v>0.8609148830543875</v>
+        <v>0.860914883054386</v>
       </c>
       <c r="E15">
-        <v>0.8695769169073632</v>
+        <v>0.8695769169073617</v>
       </c>
       <c r="F15">
-        <v>0.8299829230600668</v>
+        <v>0.8299829230600652</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.013154908537476</v>
       </c>
       <c r="J15">
-        <v>0.876193875913381</v>
+        <v>0.8761938759133797</v>
       </c>
       <c r="K15">
-        <v>0.8789512996130423</v>
+        <v>0.8789512996130411</v>
       </c>
       <c r="L15">
-        <v>0.8873742790695018</v>
+        <v>0.8873742790695007</v>
       </c>
       <c r="M15">
-        <v>0.8489293378136339</v>
+        <v>0.8489293378136324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8539174788528923</v>
+        <v>0.8539174788528915</v>
       </c>
       <c r="D16">
-        <v>0.8747661348448619</v>
+        <v>0.8747661348448612</v>
       </c>
       <c r="E16">
-        <v>0.8824506278159575</v>
+        <v>0.8824506278159568</v>
       </c>
       <c r="F16">
-        <v>0.8466488912809464</v>
+        <v>0.8466488912809456</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016697203717404</v>
       </c>
       <c r="J16">
-        <v>0.8893211671687916</v>
+        <v>0.8893211671687908</v>
       </c>
       <c r="K16">
-        <v>0.8917911497829026</v>
+        <v>0.891791149782902</v>
       </c>
       <c r="L16">
-        <v>0.8992806962662535</v>
+        <v>0.8992806962662531</v>
       </c>
       <c r="M16">
-        <v>0.8644284745950308</v>
+        <v>0.8644284745950299</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8629173593920273</v>
+        <v>0.8629173593920288</v>
       </c>
       <c r="D17">
-        <v>0.8827703626584434</v>
+        <v>0.8827703626584447</v>
       </c>
       <c r="E17">
-        <v>0.8898957408055563</v>
+        <v>0.8898957408055577</v>
       </c>
       <c r="F17">
-        <v>0.8562655223776292</v>
+        <v>0.8562655223776307</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.018740464007565</v>
       </c>
       <c r="J17">
-        <v>0.8968951418588753</v>
+        <v>0.896895141858877</v>
       </c>
       <c r="K17">
-        <v>0.8992018209503121</v>
+        <v>0.8992018209503134</v>
       </c>
       <c r="L17">
-        <v>0.9061554196967513</v>
+        <v>0.9061554196967525</v>
       </c>
       <c r="M17">
-        <v>0.8733700681718579</v>
+        <v>0.8733700681718592</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.867929634186154</v>
+        <v>0.867929634186155</v>
       </c>
       <c r="D18">
-        <v>0.8872319659398845</v>
+        <v>0.8872319659398854</v>
       </c>
       <c r="E18">
-        <v>0.8940474774536886</v>
+        <v>0.8940474774536891</v>
       </c>
       <c r="F18">
-        <v>0.8616220133200614</v>
+        <v>0.8616220133200619</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.019877132424336</v>
       </c>
       <c r="J18">
-        <v>0.9011128687712798</v>
+        <v>0.9011128687712804</v>
       </c>
       <c r="K18">
-        <v>0.9033295050973092</v>
+        <v>0.9033295050973099</v>
       </c>
       <c r="L18">
-        <v>0.9099854395242395</v>
+        <v>0.90998543952424</v>
       </c>
       <c r="M18">
-        <v>0.8783497286874244</v>
+        <v>0.8783497286874252</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8696019435232563</v>
+        <v>0.8696019435232558</v>
       </c>
       <c r="D19">
-        <v>0.8887211454837251</v>
+        <v>0.8887211454837249</v>
       </c>
       <c r="E19">
-        <v>0.8954335116337355</v>
+        <v>0.8954335116337353</v>
       </c>
       <c r="F19">
-        <v>0.8634093196874407</v>
+        <v>0.8634093196874406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020256070508643</v>
+        <v>1.020256070508644</v>
       </c>
       <c r="J19">
-        <v>0.9025199783264591</v>
+        <v>0.902519978326459</v>
       </c>
       <c r="K19">
-        <v>0.9047067254910126</v>
+        <v>0.9047067254910125</v>
       </c>
       <c r="L19">
         <v>0.9112634762751225</v>
       </c>
       <c r="M19">
-        <v>0.8800111411477251</v>
+        <v>0.8800111411477247</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8619771647137334</v>
+        <v>0.8619771647137302</v>
       </c>
       <c r="D20">
-        <v>0.8819337643576929</v>
+        <v>0.8819337643576902</v>
       </c>
       <c r="E20">
-        <v>0.8891173872355987</v>
+        <v>0.8891173872355961</v>
       </c>
       <c r="F20">
-        <v>0.8552608275159258</v>
+        <v>0.8552608275159229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018527122410385</v>
+        <v>1.018527122410384</v>
       </c>
       <c r="J20">
-        <v>0.8961039440259251</v>
+        <v>0.8961039440259226</v>
       </c>
       <c r="K20">
-        <v>0.898427587588941</v>
+        <v>0.8984275875889386</v>
       </c>
       <c r="L20">
-        <v>0.9054370868926911</v>
+        <v>0.9054370868926885</v>
       </c>
       <c r="M20">
-        <v>0.8724359813755491</v>
+        <v>0.8724359813755462</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8340686868205615</v>
+        <v>0.8340686868205583</v>
       </c>
       <c r="D21">
-        <v>0.8571459267829563</v>
+        <v>0.8571459267829534</v>
       </c>
       <c r="E21">
-        <v>0.8660762073388625</v>
+        <v>0.8660762073388598</v>
       </c>
       <c r="F21">
-        <v>0.8254419729796735</v>
+        <v>0.8254419729796699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012190803650927</v>
+        <v>1.012190803650926</v>
       </c>
       <c r="J21">
-        <v>0.8726176841070535</v>
+        <v>0.8726176841070508</v>
       </c>
       <c r="K21">
-        <v>0.8754542810581213</v>
+        <v>0.8754542810581187</v>
       </c>
       <c r="L21">
-        <v>0.8841325912805025</v>
+        <v>0.8841325912804998</v>
       </c>
       <c r="M21">
-        <v>0.8447059639323569</v>
+        <v>0.8447059639323536</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8131258796982912</v>
+        <v>0.8131258796982884</v>
       </c>
       <c r="D22">
-        <v>0.8386068497789195</v>
+        <v>0.838606849778917</v>
       </c>
       <c r="E22">
-        <v>0.8488712700140638</v>
+        <v>0.8488712700140615</v>
       </c>
       <c r="F22">
-        <v>0.8030607720322729</v>
+        <v>0.8030607720322701</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007456583649473</v>
+        <v>1.007456583649472</v>
       </c>
       <c r="J22">
-        <v>0.8550027824258646</v>
+        <v>0.855002782425862</v>
       </c>
       <c r="K22">
-        <v>0.8582339492680776</v>
+        <v>0.8582339492680752</v>
       </c>
       <c r="L22">
-        <v>0.8681768670732823</v>
+        <v>0.86817686707328</v>
       </c>
       <c r="M22">
-        <v>0.8238906102302902</v>
+        <v>0.8238906102302873</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8246403306108829</v>
+        <v>0.8246403306108808</v>
       </c>
       <c r="D23">
-        <v>0.8487927939294635</v>
+        <v>0.8487927939294614</v>
       </c>
       <c r="E23">
-        <v>0.8583211342592066</v>
+        <v>0.8583211342592051</v>
       </c>
       <c r="F23">
-        <v>0.8153673903918625</v>
+        <v>0.8153673903918606</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010055408645087</v>
+        <v>1.010055408645086</v>
       </c>
       <c r="J23">
-        <v>0.8646857450144551</v>
+        <v>0.8646857450144532</v>
       </c>
       <c r="K23">
-        <v>0.8676991254505884</v>
+        <v>0.8676991254505865</v>
       </c>
       <c r="L23">
-        <v>0.8769454228883984</v>
+        <v>0.8769454228883965</v>
       </c>
       <c r="M23">
-        <v>0.8353359124391809</v>
+        <v>0.8353359124391788</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8624027205865027</v>
+        <v>0.8624027205865039</v>
       </c>
       <c r="D24">
-        <v>0.8823124179767714</v>
+        <v>0.8823124179767722</v>
       </c>
       <c r="E24">
-        <v>0.8894696730878905</v>
+        <v>0.8894696730878915</v>
       </c>
       <c r="F24">
-        <v>0.8557155754108671</v>
+        <v>0.8557155754108678</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.018623690493965</v>
       </c>
       <c r="J24">
-        <v>0.8964620615937907</v>
+        <v>0.896462061593792</v>
       </c>
       <c r="K24">
-        <v>0.8987780237583222</v>
+        <v>0.8987780237583233</v>
       </c>
       <c r="L24">
-        <v>0.9057622185041516</v>
+        <v>0.9057622185041528</v>
       </c>
       <c r="M24">
-        <v>0.8728587731138678</v>
+        <v>0.8728587731138689</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8968981011609085</v>
+        <v>0.8968981011609066</v>
       </c>
       <c r="D25">
-        <v>0.9130686736719894</v>
+        <v>0.9130686736719875</v>
       </c>
       <c r="E25">
-        <v>0.9181140713130879</v>
+        <v>0.9181140713130862</v>
       </c>
       <c r="F25">
-        <v>0.892598838630367</v>
+        <v>0.8925988386303649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026403085318716</v>
+        <v>1.026403085318715</v>
       </c>
       <c r="J25">
-        <v>0.9254739821281146</v>
+        <v>0.9254739821281127</v>
       </c>
       <c r="K25">
-        <v>0.9271851616876742</v>
+        <v>0.9271851616876723</v>
       </c>
       <c r="L25">
-        <v>0.9321321460809865</v>
+        <v>0.9321321460809848</v>
       </c>
       <c r="M25">
-        <v>0.9071296912895509</v>
+        <v>0.9071296912895489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9199809470558495</v>
+        <v>0.919980947055849</v>
       </c>
       <c r="D2">
-        <v>0.9337138901131489</v>
+        <v>0.9337138901131482</v>
       </c>
       <c r="E2">
-        <v>0.937373514564194</v>
+        <v>0.9373735145641936</v>
       </c>
       <c r="F2">
-        <v>0.9173202775758723</v>
+        <v>0.9173202775758716</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.031501888485127</v>
       </c>
       <c r="J2">
-        <v>0.9448501422114552</v>
+        <v>0.9448501422114545</v>
       </c>
       <c r="K2">
-        <v>0.946181042956123</v>
+        <v>0.9461810429561225</v>
       </c>
       <c r="L2">
-        <v>0.9497802468603214</v>
+        <v>0.9497802468603209</v>
       </c>
       <c r="M2">
-        <v>0.9300657472759088</v>
+        <v>0.9300657472759084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>0.9471396271883193</v>
       </c>
       <c r="E3">
-        <v>0.9499112995641431</v>
+        <v>0.9499112995641432</v>
       </c>
       <c r="F3">
         <v>0.9333941245525383</v>
@@ -477,16 +477,16 @@
         <v>1.034730751421667</v>
       </c>
       <c r="J3">
-        <v>0.9573991337289454</v>
+        <v>0.9573991337289455</v>
       </c>
       <c r="K3">
-        <v>0.9584967381613352</v>
+        <v>0.9584967381613351</v>
       </c>
       <c r="L3">
-        <v>0.9612278976704718</v>
+        <v>0.961227897670472</v>
       </c>
       <c r="M3">
-        <v>0.9449566819118757</v>
+        <v>0.9449566819118758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.944002601254903</v>
+        <v>0.9440026012549037</v>
       </c>
       <c r="D4">
-        <v>0.9552485768027045</v>
+        <v>0.9552485768027051</v>
       </c>
       <c r="E4">
-        <v>0.957488932518357</v>
+        <v>0.9574889325183572</v>
       </c>
       <c r="F4">
-        <v>0.9431050732292805</v>
+        <v>0.9431050732292809</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036637082435553</v>
       </c>
       <c r="J4">
-        <v>0.9649559310939315</v>
+        <v>0.9649559310939322</v>
       </c>
       <c r="K4">
-        <v>0.9659189043480458</v>
+        <v>0.9659189043480464</v>
       </c>
       <c r="L4">
-        <v>0.9681290323244216</v>
+        <v>0.9681290323244219</v>
       </c>
       <c r="M4">
-        <v>0.9539423993780165</v>
+        <v>0.9539423993780172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9476646449902735</v>
+        <v>0.94766464499027</v>
       </c>
       <c r="D5">
-        <v>0.958535705579891</v>
+        <v>0.9585357055798878</v>
       </c>
       <c r="E5">
-        <v>0.9605617515920315</v>
+        <v>0.9605617515920286</v>
       </c>
       <c r="F5">
-        <v>0.947042661888861</v>
+        <v>0.9470426618888576</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.037398847264476</v>
       </c>
       <c r="J5">
-        <v>0.9680139331295953</v>
+        <v>0.9680139331295918</v>
       </c>
       <c r="K5">
-        <v>0.9689238176626641</v>
+        <v>0.9689238176626606</v>
       </c>
       <c r="L5">
-        <v>0.9709234430971143</v>
+        <v>0.9709234430971114</v>
       </c>
       <c r="M5">
-        <v>0.9575833375219392</v>
+        <v>0.9575833375219357</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9482719063249053</v>
+        <v>0.9482719063249028</v>
       </c>
       <c r="D6">
-        <v>0.9590809009931881</v>
+        <v>0.9590809009931859</v>
       </c>
       <c r="E6">
-        <v>0.9610714618917059</v>
+        <v>0.9610714618917036</v>
       </c>
       <c r="F6">
-        <v>0.947695814462153</v>
+        <v>0.9476958144621507</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037524530388247</v>
       </c>
       <c r="J6">
-        <v>0.9685208169859388</v>
+        <v>0.9685208169859364</v>
       </c>
       <c r="K6">
-        <v>0.9694219834711655</v>
+        <v>0.9694219834711632</v>
       </c>
       <c r="L6">
-        <v>0.9713867353199773</v>
+        <v>0.971386735319975</v>
       </c>
       <c r="M6">
-        <v>0.9581871294278991</v>
+        <v>0.9581871294278969</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9440520536544015</v>
+        <v>0.9440520536544017</v>
       </c>
       <c r="D7">
         <v>0.9552929590912024</v>
       </c>
       <c r="E7">
-        <v>0.957530417115822</v>
+        <v>0.9575304171158222</v>
       </c>
       <c r="F7">
         <v>0.9431582331901767</v>
@@ -629,16 +629,16 @@
         <v>1.036647412145124</v>
       </c>
       <c r="J7">
-        <v>0.9649972407377075</v>
+        <v>0.9649972407377077</v>
       </c>
       <c r="K7">
         <v>0.9659594912902677</v>
       </c>
       <c r="L7">
-        <v>0.9681667743573559</v>
+        <v>0.968166774357356</v>
       </c>
       <c r="M7">
-        <v>0.9539915647235184</v>
+        <v>0.9539915647235186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9251929887472946</v>
+        <v>0.9251929887472949</v>
       </c>
       <c r="D8">
-        <v>0.9383821497733258</v>
+        <v>0.9383821497733261</v>
       </c>
       <c r="E8">
-        <v>0.9417318527730704</v>
+        <v>0.9417318527730707</v>
       </c>
       <c r="F8">
-        <v>0.9229090617799773</v>
+        <v>0.9229090617799777</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.032633770511551</v>
       </c>
       <c r="J8">
-        <v>0.9492185367407411</v>
+        <v>0.9492185367407415</v>
       </c>
       <c r="K8">
-        <v>0.9504669443192894</v>
+        <v>0.9504669443192897</v>
       </c>
       <c r="L8">
-        <v>0.9537635643179343</v>
+        <v>0.9537635643179345</v>
       </c>
       <c r="M8">
-        <v>0.9352454985174147</v>
+        <v>0.9352454985174151</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8857769057127709</v>
+        <v>0.8857769057127711</v>
       </c>
       <c r="D9">
-        <v>0.9031398240376431</v>
+        <v>0.9031398240376435</v>
       </c>
       <c r="E9">
-        <v>0.9088606447908067</v>
+        <v>0.9088606447908066</v>
       </c>
       <c r="F9">
-        <v>0.8807018391708582</v>
+        <v>0.8807018391708583</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.023909412183011</v>
       </c>
       <c r="J9">
-        <v>0.9161257043118864</v>
+        <v>0.9161257043118866</v>
       </c>
       <c r="K9">
-        <v>0.9180276606443015</v>
+        <v>0.9180276606443019</v>
       </c>
       <c r="L9">
         <v>0.9236284273429829</v>
       </c>
       <c r="M9">
-        <v>0.8960806402705447</v>
+        <v>0.8960806402705448</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8528653299685739</v>
+        <v>0.8528653299685713</v>
       </c>
       <c r="D10">
-        <v>0.8738309737498411</v>
+        <v>0.8738309737498388</v>
       </c>
       <c r="E10">
-        <v>0.8815810622839308</v>
+        <v>0.8815810622839285</v>
       </c>
       <c r="F10">
-        <v>0.8455247181082264</v>
+        <v>0.8455247181082237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016458227607324</v>
+        <v>1.016458227607323</v>
       </c>
       <c r="J10">
-        <v>0.8884356863174178</v>
+        <v>0.8884356863174152</v>
       </c>
       <c r="K10">
-        <v>0.890924888767727</v>
+        <v>0.8909248887677246</v>
       </c>
       <c r="L10">
-        <v>0.8984772152099837</v>
+        <v>0.8984772152099813</v>
       </c>
       <c r="M10">
-        <v>0.8633831086272524</v>
+        <v>0.8633831086272499</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8360081510694055</v>
+        <v>0.8360081510694067</v>
       </c>
       <c r="D11">
-        <v>0.8588655728625136</v>
+        <v>0.8588655728625147</v>
       </c>
       <c r="E11">
-        <v>0.8676733397132681</v>
+        <v>0.8676733397132689</v>
       </c>
       <c r="F11">
-        <v>0.8275142021147772</v>
+        <v>0.8275142021147782</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.012630667353118</v>
       </c>
       <c r="J11">
-        <v>0.8742495936093687</v>
+        <v>0.8742495936093696</v>
       </c>
       <c r="K11">
-        <v>0.8770500188449515</v>
+        <v>0.8770500188449527</v>
       </c>
       <c r="L11">
-        <v>0.8856117580871249</v>
+        <v>0.8856117580871256</v>
       </c>
       <c r="M11">
-        <v>0.8466332776397366</v>
+        <v>0.8466332776397375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8291921915105518</v>
+        <v>0.8291921915105511</v>
       </c>
       <c r="D12">
-        <v>0.8528241704451335</v>
+        <v>0.8528241704451334</v>
       </c>
       <c r="E12">
-        <v>0.8620632601228271</v>
+        <v>0.8620632601228265</v>
       </c>
       <c r="F12">
-        <v>0.8202314383059831</v>
+        <v>0.8202314383059824</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.011085669026194</v>
       </c>
       <c r="J12">
-        <v>0.8685148619314474</v>
+        <v>0.8685148619314469</v>
       </c>
       <c r="K12">
-        <v>0.8714427055606724</v>
+        <v>0.8714427055606722</v>
       </c>
       <c r="L12">
-        <v>0.8804145178407691</v>
+        <v>0.8804145178407683</v>
       </c>
       <c r="M12">
-        <v>0.839859791810601</v>
+        <v>0.8398597918106006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8306831986956578</v>
+        <v>0.8306831986956585</v>
       </c>
       <c r="D13">
-        <v>0.8541452521058744</v>
+        <v>0.8541452521058754</v>
       </c>
       <c r="E13">
-        <v>0.8632898052705242</v>
+        <v>0.8632898052705251</v>
       </c>
       <c r="F13">
-        <v>0.8218246184108502</v>
+        <v>0.8218246184108507</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011423428627777</v>
       </c>
       <c r="J13">
-        <v>0.8697692538200859</v>
+        <v>0.8697692538200866</v>
       </c>
       <c r="K13">
-        <v>0.8726691542708407</v>
+        <v>0.8726691542708415</v>
       </c>
       <c r="L13">
-        <v>0.88155116599738</v>
+        <v>0.8815511659973809</v>
       </c>
       <c r="M13">
-        <v>0.841341563714063</v>
+        <v>0.8413415637140637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8354573954815844</v>
+        <v>0.8354573954815849</v>
       </c>
       <c r="D14">
-        <v>0.8583771932092008</v>
+        <v>0.8583771932092014</v>
       </c>
       <c r="E14">
-        <v>0.8672197331030034</v>
+        <v>0.8672197331030039</v>
       </c>
       <c r="F14">
-        <v>0.8269257490139463</v>
+        <v>0.8269257490139471</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.012505740865368</v>
       </c>
       <c r="J14">
-        <v>0.8737861676470516</v>
+        <v>0.8737861676470522</v>
       </c>
       <c r="K14">
-        <v>0.8765968576075164</v>
+        <v>0.8765968576075169</v>
       </c>
       <c r="L14">
-        <v>0.8851916906569188</v>
+        <v>0.8851916906569195</v>
       </c>
       <c r="M14">
-        <v>0.8460859774326244</v>
+        <v>0.8460859774326249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8383187488806877</v>
+        <v>0.8383187488806891</v>
       </c>
       <c r="D15">
-        <v>0.860914883054386</v>
+        <v>0.8609148830543875</v>
       </c>
       <c r="E15">
-        <v>0.8695769169073617</v>
+        <v>0.8695769169073632</v>
       </c>
       <c r="F15">
-        <v>0.8299829230600652</v>
+        <v>0.8299829230600668</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.013154908537476</v>
       </c>
       <c r="J15">
-        <v>0.8761938759133797</v>
+        <v>0.876193875913381</v>
       </c>
       <c r="K15">
-        <v>0.8789512996130411</v>
+        <v>0.8789512996130423</v>
       </c>
       <c r="L15">
-        <v>0.8873742790695007</v>
+        <v>0.8873742790695018</v>
       </c>
       <c r="M15">
-        <v>0.8489293378136324</v>
+        <v>0.8489293378136339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8539174788528915</v>
+        <v>0.8539174788528923</v>
       </c>
       <c r="D16">
-        <v>0.8747661348448612</v>
+        <v>0.8747661348448619</v>
       </c>
       <c r="E16">
-        <v>0.8824506278159568</v>
+        <v>0.8824506278159575</v>
       </c>
       <c r="F16">
-        <v>0.8466488912809456</v>
+        <v>0.8466488912809464</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016697203717404</v>
       </c>
       <c r="J16">
-        <v>0.8893211671687908</v>
+        <v>0.8893211671687916</v>
       </c>
       <c r="K16">
-        <v>0.891791149782902</v>
+        <v>0.8917911497829026</v>
       </c>
       <c r="L16">
-        <v>0.8992806962662531</v>
+        <v>0.8992806962662535</v>
       </c>
       <c r="M16">
-        <v>0.8644284745950299</v>
+        <v>0.8644284745950308</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8629173593920288</v>
+        <v>0.8629173593920273</v>
       </c>
       <c r="D17">
-        <v>0.8827703626584447</v>
+        <v>0.8827703626584434</v>
       </c>
       <c r="E17">
-        <v>0.8898957408055577</v>
+        <v>0.8898957408055563</v>
       </c>
       <c r="F17">
-        <v>0.8562655223776307</v>
+        <v>0.8562655223776292</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.018740464007565</v>
       </c>
       <c r="J17">
-        <v>0.896895141858877</v>
+        <v>0.8968951418588753</v>
       </c>
       <c r="K17">
-        <v>0.8992018209503134</v>
+        <v>0.8992018209503121</v>
       </c>
       <c r="L17">
-        <v>0.9061554196967525</v>
+        <v>0.9061554196967513</v>
       </c>
       <c r="M17">
-        <v>0.8733700681718592</v>
+        <v>0.8733700681718579</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.867929634186155</v>
+        <v>0.867929634186154</v>
       </c>
       <c r="D18">
-        <v>0.8872319659398854</v>
+        <v>0.8872319659398845</v>
       </c>
       <c r="E18">
-        <v>0.8940474774536891</v>
+        <v>0.8940474774536886</v>
       </c>
       <c r="F18">
-        <v>0.8616220133200619</v>
+        <v>0.8616220133200614</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.019877132424336</v>
       </c>
       <c r="J18">
-        <v>0.9011128687712804</v>
+        <v>0.9011128687712798</v>
       </c>
       <c r="K18">
-        <v>0.9033295050973099</v>
+        <v>0.9033295050973092</v>
       </c>
       <c r="L18">
-        <v>0.90998543952424</v>
+        <v>0.9099854395242395</v>
       </c>
       <c r="M18">
-        <v>0.8783497286874252</v>
+        <v>0.8783497286874244</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8696019435232558</v>
+        <v>0.8696019435232563</v>
       </c>
       <c r="D19">
-        <v>0.8887211454837249</v>
+        <v>0.8887211454837251</v>
       </c>
       <c r="E19">
-        <v>0.8954335116337353</v>
+        <v>0.8954335116337355</v>
       </c>
       <c r="F19">
-        <v>0.8634093196874406</v>
+        <v>0.8634093196874407</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020256070508644</v>
+        <v>1.020256070508643</v>
       </c>
       <c r="J19">
-        <v>0.902519978326459</v>
+        <v>0.9025199783264591</v>
       </c>
       <c r="K19">
-        <v>0.9047067254910125</v>
+        <v>0.9047067254910126</v>
       </c>
       <c r="L19">
         <v>0.9112634762751225</v>
       </c>
       <c r="M19">
-        <v>0.8800111411477247</v>
+        <v>0.8800111411477251</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8619771647137302</v>
+        <v>0.8619771647137334</v>
       </c>
       <c r="D20">
-        <v>0.8819337643576902</v>
+        <v>0.8819337643576929</v>
       </c>
       <c r="E20">
-        <v>0.8891173872355961</v>
+        <v>0.8891173872355987</v>
       </c>
       <c r="F20">
-        <v>0.8552608275159229</v>
+        <v>0.8552608275159258</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018527122410384</v>
+        <v>1.018527122410385</v>
       </c>
       <c r="J20">
-        <v>0.8961039440259226</v>
+        <v>0.8961039440259251</v>
       </c>
       <c r="K20">
-        <v>0.8984275875889386</v>
+        <v>0.898427587588941</v>
       </c>
       <c r="L20">
-        <v>0.9054370868926885</v>
+        <v>0.9054370868926911</v>
       </c>
       <c r="M20">
-        <v>0.8724359813755462</v>
+        <v>0.8724359813755491</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8340686868205583</v>
+        <v>0.8340686868205615</v>
       </c>
       <c r="D21">
-        <v>0.8571459267829534</v>
+        <v>0.8571459267829563</v>
       </c>
       <c r="E21">
-        <v>0.8660762073388598</v>
+        <v>0.8660762073388625</v>
       </c>
       <c r="F21">
-        <v>0.8254419729796699</v>
+        <v>0.8254419729796735</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012190803650926</v>
+        <v>1.012190803650927</v>
       </c>
       <c r="J21">
-        <v>0.8726176841070508</v>
+        <v>0.8726176841070535</v>
       </c>
       <c r="K21">
-        <v>0.8754542810581187</v>
+        <v>0.8754542810581213</v>
       </c>
       <c r="L21">
-        <v>0.8841325912804998</v>
+        <v>0.8841325912805025</v>
       </c>
       <c r="M21">
-        <v>0.8447059639323536</v>
+        <v>0.8447059639323569</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8131258796982884</v>
+        <v>0.8131258796982912</v>
       </c>
       <c r="D22">
-        <v>0.838606849778917</v>
+        <v>0.8386068497789195</v>
       </c>
       <c r="E22">
-        <v>0.8488712700140615</v>
+        <v>0.8488712700140638</v>
       </c>
       <c r="F22">
-        <v>0.8030607720322701</v>
+        <v>0.8030607720322729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007456583649472</v>
+        <v>1.007456583649473</v>
       </c>
       <c r="J22">
-        <v>0.855002782425862</v>
+        <v>0.8550027824258646</v>
       </c>
       <c r="K22">
-        <v>0.8582339492680752</v>
+        <v>0.8582339492680776</v>
       </c>
       <c r="L22">
-        <v>0.86817686707328</v>
+        <v>0.8681768670732823</v>
       </c>
       <c r="M22">
-        <v>0.8238906102302873</v>
+        <v>0.8238906102302902</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8246403306108808</v>
+        <v>0.8246403306108829</v>
       </c>
       <c r="D23">
-        <v>0.8487927939294614</v>
+        <v>0.8487927939294635</v>
       </c>
       <c r="E23">
-        <v>0.8583211342592051</v>
+        <v>0.8583211342592066</v>
       </c>
       <c r="F23">
-        <v>0.8153673903918606</v>
+        <v>0.8153673903918625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010055408645086</v>
+        <v>1.010055408645087</v>
       </c>
       <c r="J23">
-        <v>0.8646857450144532</v>
+        <v>0.8646857450144551</v>
       </c>
       <c r="K23">
-        <v>0.8676991254505865</v>
+        <v>0.8676991254505884</v>
       </c>
       <c r="L23">
-        <v>0.8769454228883965</v>
+        <v>0.8769454228883984</v>
       </c>
       <c r="M23">
-        <v>0.8353359124391788</v>
+        <v>0.8353359124391809</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8624027205865039</v>
+        <v>0.8624027205865027</v>
       </c>
       <c r="D24">
-        <v>0.8823124179767722</v>
+        <v>0.8823124179767714</v>
       </c>
       <c r="E24">
-        <v>0.8894696730878915</v>
+        <v>0.8894696730878905</v>
       </c>
       <c r="F24">
-        <v>0.8557155754108678</v>
+        <v>0.8557155754108671</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.018623690493965</v>
       </c>
       <c r="J24">
-        <v>0.896462061593792</v>
+        <v>0.8964620615937907</v>
       </c>
       <c r="K24">
-        <v>0.8987780237583233</v>
+        <v>0.8987780237583222</v>
       </c>
       <c r="L24">
-        <v>0.9057622185041528</v>
+        <v>0.9057622185041516</v>
       </c>
       <c r="M24">
-        <v>0.8728587731138689</v>
+        <v>0.8728587731138678</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8968981011609066</v>
+        <v>0.8968981011609085</v>
       </c>
       <c r="D25">
-        <v>0.9130686736719875</v>
+        <v>0.9130686736719894</v>
       </c>
       <c r="E25">
-        <v>0.9181140713130862</v>
+        <v>0.9181140713130879</v>
       </c>
       <c r="F25">
-        <v>0.8925988386303649</v>
+        <v>0.892598838630367</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026403085318715</v>
+        <v>1.026403085318716</v>
       </c>
       <c r="J25">
-        <v>0.9254739821281127</v>
+        <v>0.9254739821281146</v>
       </c>
       <c r="K25">
-        <v>0.9271851616876723</v>
+        <v>0.9271851616876742</v>
       </c>
       <c r="L25">
-        <v>0.9321321460809848</v>
+        <v>0.9321321460809865</v>
       </c>
       <c r="M25">
-        <v>0.9071296912895489</v>
+        <v>0.9071296912895509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.919980947055849</v>
+        <v>0.920045019688321</v>
       </c>
       <c r="D2">
-        <v>0.9337138901131482</v>
+        <v>0.9337733823865494</v>
       </c>
       <c r="E2">
-        <v>0.9373735145641936</v>
+        <v>0.9374290403457776</v>
       </c>
       <c r="F2">
-        <v>0.9173202775758716</v>
+        <v>0.9173844596601106</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031501888485127</v>
+        <v>1.031511386924423</v>
       </c>
       <c r="J2">
-        <v>0.9448501422114545</v>
+        <v>0.9449117977249649</v>
       </c>
       <c r="K2">
-        <v>0.9461810429561225</v>
+        <v>0.9462395481340705</v>
       </c>
       <c r="L2">
-        <v>0.9497802468603209</v>
+        <v>0.9498348605813525</v>
       </c>
       <c r="M2">
-        <v>0.9300657472759084</v>
+        <v>0.9301288146285789</v>
+      </c>
+      <c r="N2">
+        <v>0.9653117148478582</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9349635466235872</v>
+        <v>0.9350143919495407</v>
       </c>
       <c r="D3">
-        <v>0.9471396271883193</v>
+        <v>0.9471869531302397</v>
       </c>
       <c r="E3">
-        <v>0.9499112995641432</v>
+        <v>0.9499554996202363</v>
       </c>
       <c r="F3">
-        <v>0.9333941245525383</v>
+        <v>0.933444940866348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034730751421667</v>
+        <v>1.034738224011959</v>
       </c>
       <c r="J3">
-        <v>0.9573991337289455</v>
+        <v>0.9574483114488156</v>
       </c>
       <c r="K3">
-        <v>0.9584967381613351</v>
+        <v>0.958543369825706</v>
       </c>
       <c r="L3">
-        <v>0.961227897670472</v>
+        <v>0.9612714540940351</v>
       </c>
       <c r="M3">
-        <v>0.9449566819118758</v>
+        <v>0.9450067244979606</v>
+      </c>
+      <c r="N3">
+        <v>0.9737854974175795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9440026012549037</v>
+        <v>0.9440459268010215</v>
       </c>
       <c r="D4">
-        <v>0.9552485768027051</v>
+        <v>0.9552889631692201</v>
       </c>
       <c r="E4">
-        <v>0.9574889325183572</v>
+        <v>0.9575266685677084</v>
       </c>
       <c r="F4">
-        <v>0.9431050732292809</v>
+        <v>0.9431483185599749</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036637082435553</v>
+        <v>1.036643419380334</v>
       </c>
       <c r="J4">
-        <v>0.9649559310939322</v>
+        <v>0.9649979597979593</v>
       </c>
       <c r="K4">
-        <v>0.9659189043480464</v>
+        <v>0.9659587442279108</v>
       </c>
       <c r="L4">
-        <v>0.9681290323244219</v>
+        <v>0.9681662607470749</v>
       </c>
       <c r="M4">
-        <v>0.9539423993780172</v>
+        <v>0.9539850403640051</v>
+      </c>
+      <c r="N4">
+        <v>0.9788879514769029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.94766464499027</v>
+        <v>0.9477050124897303</v>
       </c>
       <c r="D5">
-        <v>0.9585357055798878</v>
+        <v>0.9585733575629205</v>
       </c>
       <c r="E5">
-        <v>0.9605617515920286</v>
+        <v>0.9605969399066947</v>
       </c>
       <c r="F5">
-        <v>0.9470426618888576</v>
+        <v>0.9470829346290703</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037398847264476</v>
+        <v>1.037404740673818</v>
       </c>
       <c r="J5">
-        <v>0.9680139331295918</v>
+        <v>0.9680531382865837</v>
       </c>
       <c r="K5">
-        <v>0.9689238176626606</v>
+        <v>0.968960977370448</v>
       </c>
       <c r="L5">
-        <v>0.9709234430971114</v>
+        <v>0.9709581737727342</v>
       </c>
       <c r="M5">
-        <v>0.9575833375219357</v>
+        <v>0.9576230675385149</v>
+      </c>
+      <c r="N5">
+        <v>0.9809526405669318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9482719063249028</v>
+        <v>0.9483117879893648</v>
       </c>
       <c r="D6">
-        <v>0.9590809009931859</v>
+        <v>0.9591181036297729</v>
       </c>
       <c r="E6">
-        <v>0.9610714618917036</v>
+        <v>0.9611062314935983</v>
       </c>
       <c r="F6">
-        <v>0.9476958144621507</v>
+        <v>0.9477355992840631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037524530388247</v>
+        <v>1.037530351121775</v>
       </c>
       <c r="J6">
-        <v>0.9685208169859364</v>
+        <v>0.9685595577775712</v>
       </c>
       <c r="K6">
-        <v>0.9694219834711632</v>
+        <v>0.9694587025189764</v>
       </c>
       <c r="L6">
-        <v>0.971386735319975</v>
+        <v>0.9714210552977572</v>
       </c>
       <c r="M6">
-        <v>0.9581871294278969</v>
+        <v>0.958226381373021</v>
+      </c>
+      <c r="N6">
+        <v>0.9812948684561706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9440520536544017</v>
+        <v>0.9440953389268263</v>
       </c>
       <c r="D7">
-        <v>0.9552929590912024</v>
+        <v>0.955333308246503</v>
       </c>
       <c r="E7">
-        <v>0.9575304171158222</v>
+        <v>0.9575681184967365</v>
       </c>
       <c r="F7">
-        <v>0.9431582331901767</v>
+        <v>0.9432014380277839</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036647412145124</v>
+        <v>1.036653743039127</v>
       </c>
       <c r="J7">
-        <v>0.9649972407377077</v>
+        <v>0.965039231042675</v>
       </c>
       <c r="K7">
-        <v>0.9659594912902677</v>
+        <v>0.9659992947121475</v>
       </c>
       <c r="L7">
-        <v>0.968166774357356</v>
+        <v>0.9682039688057358</v>
       </c>
       <c r="M7">
-        <v>0.9539915647235186</v>
+        <v>0.9540341660745499</v>
+      </c>
+      <c r="N7">
+        <v>0.978915843260392</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9251929887472949</v>
+        <v>0.9252523438893016</v>
       </c>
       <c r="D8">
-        <v>0.9383821497733261</v>
+        <v>0.9384373088347181</v>
       </c>
       <c r="E8">
-        <v>0.9417318527730707</v>
+        <v>0.9417833457662711</v>
       </c>
       <c r="F8">
-        <v>0.9229090617799777</v>
+        <v>0.9229684700291167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032633770511551</v>
+        <v>1.032642542331838</v>
       </c>
       <c r="J8">
-        <v>0.9492185367407415</v>
+        <v>0.9492757559913214</v>
       </c>
       <c r="K8">
-        <v>0.9504669443192897</v>
+        <v>0.950521225338639</v>
       </c>
       <c r="L8">
-        <v>0.9537635643179345</v>
+        <v>0.9538142450700561</v>
       </c>
       <c r="M8">
-        <v>0.9352454985174151</v>
+        <v>0.9353039198212653</v>
+      </c>
+      <c r="N8">
+        <v>0.9682615407523397</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8857769057127711</v>
+        <v>0.8858757064532191</v>
       </c>
       <c r="D9">
-        <v>0.9031398240376435</v>
+        <v>0.9032310211260759</v>
       </c>
       <c r="E9">
-        <v>0.9088606447908066</v>
+        <v>0.9089456409581071</v>
       </c>
       <c r="F9">
-        <v>0.8807018391708583</v>
+        <v>0.8808013890254007</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023909412183011</v>
+        <v>1.023924391959535</v>
       </c>
       <c r="J9">
-        <v>0.9161257043118866</v>
+        <v>0.9162195783035522</v>
       </c>
       <c r="K9">
-        <v>0.9180276606443019</v>
+        <v>0.9181169281284188</v>
       </c>
       <c r="L9">
-        <v>0.9236284273429829</v>
+        <v>0.9237116548796194</v>
       </c>
       <c r="M9">
-        <v>0.8960806402705448</v>
+        <v>0.8961779381748507</v>
+      </c>
+      <c r="N9">
+        <v>0.9459161467977319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8528653299685713</v>
+        <v>0.8530060766478772</v>
       </c>
       <c r="D10">
-        <v>0.8738309737498388</v>
+        <v>0.8739600482746983</v>
       </c>
       <c r="E10">
-        <v>0.8815810622839285</v>
+        <v>0.8817011821202547</v>
       </c>
       <c r="F10">
-        <v>0.8455247181082237</v>
+        <v>0.8456674619769339</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016458227607323</v>
+        <v>1.016480093963553</v>
       </c>
       <c r="J10">
-        <v>0.8884356863174152</v>
+        <v>0.888567587172121</v>
       </c>
       <c r="K10">
-        <v>0.8909248887677246</v>
+        <v>0.8910506307636452</v>
       </c>
       <c r="L10">
-        <v>0.8984772152099813</v>
+        <v>0.8985943068322203</v>
       </c>
       <c r="M10">
-        <v>0.8633831086272499</v>
+        <v>0.8635218217462242</v>
+      </c>
+      <c r="N10">
+        <v>0.9272255960815402</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8360081510694067</v>
+        <v>0.836175161534685</v>
       </c>
       <c r="D11">
-        <v>0.8588655728625147</v>
+        <v>0.859018164326666</v>
       </c>
       <c r="E11">
-        <v>0.8676733397132689</v>
+        <v>0.8678152232526105</v>
       </c>
       <c r="F11">
-        <v>0.8275142021147782</v>
+        <v>0.8276842195135451</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012630667353118</v>
+        <v>1.012656960611692</v>
       </c>
       <c r="J11">
-        <v>0.8742495936093696</v>
+        <v>0.8744049046344718</v>
       </c>
       <c r="K11">
-        <v>0.8770500188449527</v>
+        <v>0.8771982892324076</v>
       </c>
       <c r="L11">
-        <v>0.8856117580871256</v>
+        <v>0.8857497340937223</v>
       </c>
       <c r="M11">
-        <v>0.8466332776397375</v>
+        <v>0.8467979623474471</v>
+      </c>
+      <c r="N11">
+        <v>0.9176547354778664</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8291921915105511</v>
+        <v>0.8293710425145696</v>
       </c>
       <c r="D12">
-        <v>0.8528241704451334</v>
+        <v>0.8529873203536521</v>
       </c>
       <c r="E12">
-        <v>0.8620632601228265</v>
+        <v>0.8622149049774739</v>
       </c>
       <c r="F12">
-        <v>0.8202314383059824</v>
+        <v>0.8204138022309106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011085669026194</v>
+        <v>1.011113981153865</v>
       </c>
       <c r="J12">
-        <v>0.8685148619314469</v>
+        <v>0.8686806426083163</v>
       </c>
       <c r="K12">
-        <v>0.8714427055606722</v>
+        <v>0.871601066759452</v>
       </c>
       <c r="L12">
-        <v>0.8804145178407683</v>
+        <v>0.8805618411228858</v>
       </c>
       <c r="M12">
-        <v>0.8398597918106006</v>
+        <v>0.8400361953085672</v>
+      </c>
+      <c r="N12">
+        <v>0.9137869180143671</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8306831986956585</v>
+        <v>0.8308593918373046</v>
       </c>
       <c r="D13">
-        <v>0.8541452521058754</v>
+        <v>0.8543060341630254</v>
       </c>
       <c r="E13">
-        <v>0.8632898052705251</v>
+        <v>0.863439261553666</v>
       </c>
       <c r="F13">
-        <v>0.8218246184108507</v>
+        <v>0.8220042082985078</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011423428627777</v>
+        <v>1.011451286452579</v>
       </c>
       <c r="J13">
-        <v>0.8697692538200866</v>
+        <v>0.8699326885768088</v>
       </c>
       <c r="K13">
-        <v>0.8726691542708415</v>
+        <v>0.8728252536605755</v>
       </c>
       <c r="L13">
-        <v>0.8815511659973809</v>
+        <v>0.8816963944981652</v>
       </c>
       <c r="M13">
-        <v>0.8413415637140637</v>
+        <v>0.841515336145541</v>
+      </c>
+      <c r="N13">
+        <v>0.9146328825468608</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8354573954815849</v>
+        <v>0.8356253340591125</v>
       </c>
       <c r="D14">
-        <v>0.8583771932092014</v>
+        <v>0.8585306132236885</v>
       </c>
       <c r="E14">
-        <v>0.8672197331030039</v>
+        <v>0.8673623828559373</v>
       </c>
       <c r="F14">
-        <v>0.8269257490139471</v>
+        <v>0.8270967330953113</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012505740865368</v>
+        <v>1.012532191893537</v>
       </c>
       <c r="J14">
-        <v>0.8737861676470522</v>
+        <v>0.8739423011106034</v>
       </c>
       <c r="K14">
-        <v>0.8765968576075169</v>
+        <v>0.8767459203456401</v>
       </c>
       <c r="L14">
-        <v>0.8851916906569195</v>
+        <v>0.885330400784919</v>
       </c>
       <c r="M14">
-        <v>0.8460859774326249</v>
+        <v>0.8462515804873869</v>
+      </c>
+      <c r="N14">
+        <v>0.9173421475271856</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8383187488806891</v>
+        <v>0.8384819177610101</v>
       </c>
       <c r="D15">
-        <v>0.8609148830543875</v>
+        <v>0.8610640432954999</v>
       </c>
       <c r="E15">
-        <v>0.8695769169073632</v>
+        <v>0.8697156269751571</v>
       </c>
       <c r="F15">
-        <v>0.8299829230600668</v>
+        <v>0.8301489412493008</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013154908537476</v>
+        <v>1.013180549670892</v>
       </c>
       <c r="J15">
-        <v>0.876193875913381</v>
+        <v>0.8763457794148497</v>
       </c>
       <c r="K15">
-        <v>0.8789512996130423</v>
+        <v>0.879096287751665</v>
       </c>
       <c r="L15">
-        <v>0.8873742790695018</v>
+        <v>0.8875092137506815</v>
       </c>
       <c r="M15">
-        <v>0.8489293378136339</v>
+        <v>0.8490902217600717</v>
+      </c>
+      <c r="N15">
+        <v>0.9189662352373349</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8539174788528923</v>
+        <v>0.8540567110232024</v>
       </c>
       <c r="D16">
-        <v>0.8747661348448619</v>
+        <v>0.8748938488867493</v>
       </c>
       <c r="E16">
-        <v>0.8824506278159575</v>
+        <v>0.8825694876141964</v>
       </c>
       <c r="F16">
-        <v>0.8466488912809464</v>
+        <v>0.846790067447843</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016697203717404</v>
+        <v>1.016718817202702</v>
       </c>
       <c r="J16">
-        <v>0.8893211671687916</v>
+        <v>0.8894517094908125</v>
       </c>
       <c r="K16">
-        <v>0.8917911497829026</v>
+        <v>0.8919155860095792</v>
       </c>
       <c r="L16">
-        <v>0.8992806962662535</v>
+        <v>0.8993965766968418</v>
       </c>
       <c r="M16">
-        <v>0.8644284745950308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8645656909954397</v>
+      </c>
+      <c r="N16">
+        <v>0.9278231228859855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8629173593920273</v>
+        <v>0.86304415741281</v>
       </c>
       <c r="D17">
-        <v>0.8827703626584434</v>
+        <v>0.8828868878140995</v>
       </c>
       <c r="E17">
-        <v>0.8898957408055563</v>
+        <v>0.8900042335536013</v>
       </c>
       <c r="F17">
-        <v>0.8562655223776292</v>
+        <v>0.8563938497507891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018740464007565</v>
+        <v>1.018760012502879</v>
       </c>
       <c r="J17">
-        <v>0.8968951418588753</v>
+        <v>0.8970144920337474</v>
       </c>
       <c r="K17">
-        <v>0.8992018209503121</v>
+        <v>0.8993155069072646</v>
       </c>
       <c r="L17">
-        <v>0.9061554196967513</v>
+        <v>0.9062613254100804</v>
       </c>
       <c r="M17">
-        <v>0.8733700681718579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8734950003799301</v>
+      </c>
+      <c r="N17">
+        <v>0.9329345905221741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.867929634186154</v>
+        <v>0.8680498825306729</v>
       </c>
       <c r="D18">
-        <v>0.8872319659398845</v>
+        <v>0.887342583057645</v>
       </c>
       <c r="E18">
-        <v>0.8940474774536886</v>
+        <v>0.8941504930084498</v>
       </c>
       <c r="F18">
-        <v>0.8616220133200614</v>
+        <v>0.8617435889218793</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019877132424336</v>
+        <v>1.019895601585741</v>
       </c>
       <c r="J18">
-        <v>0.9011128687712798</v>
+        <v>0.9012262946015085</v>
       </c>
       <c r="K18">
-        <v>0.9033295050973092</v>
+        <v>0.9034375060105027</v>
       </c>
       <c r="L18">
-        <v>0.9099854395242395</v>
+        <v>0.9100860680502534</v>
       </c>
       <c r="M18">
-        <v>0.8783497286874244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8784681930015021</v>
+      </c>
+      <c r="N18">
+        <v>0.9357813828344134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8696019435232563</v>
+        <v>0.8697200619080222</v>
       </c>
       <c r="D19">
-        <v>0.8887211454837251</v>
+        <v>0.888829839104154</v>
       </c>
       <c r="E19">
-        <v>0.8954335116337355</v>
+        <v>0.8955347434913804</v>
       </c>
       <c r="F19">
-        <v>0.8634093196874407</v>
+        <v>0.8635287021113686</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020256070508643</v>
+        <v>1.02027418998905</v>
       </c>
       <c r="J19">
-        <v>0.9025199783264591</v>
+        <v>0.9026314730637615</v>
       </c>
       <c r="K19">
-        <v>0.9047067254910126</v>
+        <v>0.9048128741547276</v>
       </c>
       <c r="L19">
-        <v>0.9112634762751225</v>
+        <v>0.9113623850888641</v>
       </c>
       <c r="M19">
-        <v>0.8800111411477251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8801275025119807</v>
+      </c>
+      <c r="N19">
+        <v>0.9367311764604502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8619771647137334</v>
+        <v>0.8621052200313147</v>
       </c>
       <c r="D20">
-        <v>0.8819337643576929</v>
+        <v>0.8820514224897567</v>
       </c>
       <c r="E20">
-        <v>0.8891173872355987</v>
+        <v>0.8892269300899018</v>
       </c>
       <c r="F20">
-        <v>0.8552608275159258</v>
+        <v>0.8553904522904688</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018527122410385</v>
+        <v>1.018546878780684</v>
       </c>
       <c r="J20">
-        <v>0.8961039440259251</v>
+        <v>0.8962244291217296</v>
       </c>
       <c r="K20">
-        <v>0.898427587588941</v>
+        <v>0.89854236306013</v>
       </c>
       <c r="L20">
-        <v>0.9054370868926911</v>
+        <v>0.9055440037745103</v>
       </c>
       <c r="M20">
-        <v>0.8724359813755491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8725621554015073</v>
+      </c>
+      <c r="N20">
+        <v>0.9324005921087821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8340686868205615</v>
+        <v>0.8342389873467281</v>
       </c>
       <c r="D21">
-        <v>0.8571459267829563</v>
+        <v>0.8573014546435173</v>
       </c>
       <c r="E21">
-        <v>0.8660762073388625</v>
+        <v>0.8662208061843615</v>
       </c>
       <c r="F21">
-        <v>0.8254419729796735</v>
+        <v>0.825615418015712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012190803650927</v>
+        <v>1.012217656562163</v>
       </c>
       <c r="J21">
-        <v>0.8726176841070535</v>
+        <v>0.8727759091972331</v>
       </c>
       <c r="K21">
-        <v>0.8754542810581213</v>
+        <v>0.8756053591600317</v>
       </c>
       <c r="L21">
-        <v>0.8841325912805025</v>
+        <v>0.8842731685445537</v>
       </c>
       <c r="M21">
-        <v>0.8447059639323569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8448739042553102</v>
+      </c>
+      <c r="N21">
+        <v>0.9165540087625278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8131258796982912</v>
+        <v>0.8133361253258721</v>
       </c>
       <c r="D22">
-        <v>0.8386068497789195</v>
+        <v>0.8387978789398307</v>
       </c>
       <c r="E22">
-        <v>0.8488712700140638</v>
+        <v>0.8490486621415013</v>
       </c>
       <c r="F22">
-        <v>0.8030607720322729</v>
+        <v>0.8032760090230351</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007456583649473</v>
+        <v>1.007490305450505</v>
       </c>
       <c r="J22">
-        <v>0.8550027824258646</v>
+        <v>0.8551961049030783</v>
       </c>
       <c r="K22">
-        <v>0.8582339492680776</v>
+        <v>0.8584188954845473</v>
       </c>
       <c r="L22">
-        <v>0.8681768670732823</v>
+        <v>0.868348797159277</v>
       </c>
       <c r="M22">
-        <v>0.8238906102302902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8240981146869816</v>
+      </c>
+      <c r="N22">
+        <v>0.9046769757098674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8246403306108829</v>
+        <v>0.8248275461158083</v>
       </c>
       <c r="D23">
-        <v>0.8487927939294635</v>
+        <v>0.8489633875795479</v>
       </c>
       <c r="E23">
-        <v>0.8583211342592066</v>
+        <v>0.8584796573715816</v>
       </c>
       <c r="F23">
-        <v>0.8153673903918625</v>
+        <v>0.8155584939230874</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010055408645087</v>
+        <v>1.010085154502642</v>
       </c>
       <c r="J23">
-        <v>0.8646857450144551</v>
+        <v>0.8648588932480727</v>
       </c>
       <c r="K23">
-        <v>0.8676991254505884</v>
+        <v>0.8678645928422472</v>
       </c>
       <c r="L23">
-        <v>0.8769454228883984</v>
+        <v>0.8770993262487243</v>
       </c>
       <c r="M23">
-        <v>0.8353359124391809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8355205981045557</v>
+      </c>
+      <c r="N23">
+        <v>0.9112047957681116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8624027205865027</v>
+        <v>0.8625302056654962</v>
       </c>
       <c r="D24">
-        <v>0.8823124179767714</v>
+        <v>0.8824295623002866</v>
       </c>
       <c r="E24">
-        <v>0.8894696730878905</v>
+        <v>0.8895787397253523</v>
       </c>
       <c r="F24">
-        <v>0.8557155754108671</v>
+        <v>0.8558446117059368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018623690493965</v>
+        <v>1.018643352557218</v>
       </c>
       <c r="J24">
-        <v>0.8964620615937907</v>
+        <v>0.89658203204555</v>
       </c>
       <c r="K24">
-        <v>0.8987780237583222</v>
+        <v>0.8988923051585685</v>
       </c>
       <c r="L24">
-        <v>0.9057622185041516</v>
+        <v>0.9058686768503137</v>
       </c>
       <c r="M24">
-        <v>0.8728587731138678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8729843839127971</v>
+      </c>
+      <c r="N24">
+        <v>0.932642293135571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8968981011609085</v>
+        <v>0.8969848046121811</v>
       </c>
       <c r="D25">
-        <v>0.9130686736719894</v>
+        <v>0.9131488645203701</v>
       </c>
       <c r="E25">
-        <v>0.9181140713130879</v>
+        <v>0.9181888442625636</v>
       </c>
       <c r="F25">
-        <v>0.892598838630367</v>
+        <v>0.8926860249135643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026403085318716</v>
+        <v>1.026416130402827</v>
       </c>
       <c r="J25">
-        <v>0.9254739821281146</v>
+        <v>0.9255567167068917</v>
       </c>
       <c r="K25">
-        <v>0.9271851616876742</v>
+        <v>0.9272637772049627</v>
       </c>
       <c r="L25">
-        <v>0.9321321460809865</v>
+        <v>0.932205471201309</v>
       </c>
       <c r="M25">
-        <v>0.9071296912895509</v>
+        <v>0.907215059421532</v>
+      </c>
+      <c r="N25">
+        <v>0.9522279494582888</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.920045019688321</v>
+        <v>0.9447528123924478</v>
       </c>
       <c r="D2">
-        <v>0.9337733823865494</v>
+        <v>0.9537596616232866</v>
       </c>
       <c r="E2">
-        <v>0.9374290403457776</v>
+        <v>0.9638898883493529</v>
       </c>
       <c r="F2">
-        <v>0.9173844596601106</v>
+        <v>0.9709938713491439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031511386924423</v>
+        <v>1.035019791309594</v>
       </c>
       <c r="J2">
-        <v>0.9449117977249649</v>
+        <v>0.968721600252601</v>
       </c>
       <c r="K2">
-        <v>0.9462395481340705</v>
+        <v>0.9659031343361087</v>
       </c>
       <c r="L2">
-        <v>0.9498348605813525</v>
+        <v>0.9758763209898199</v>
       </c>
       <c r="M2">
-        <v>0.9301288146285789</v>
+        <v>0.9828726653627465</v>
       </c>
       <c r="N2">
-        <v>0.9653117148478582</v>
+        <v>0.9700972960388803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9350143919495407</v>
+        <v>0.9656347115122064</v>
       </c>
       <c r="D3">
-        <v>0.9471869531302397</v>
+        <v>0.9737431484313651</v>
       </c>
       <c r="E3">
-        <v>0.9499554996202363</v>
+        <v>0.9821444560199141</v>
       </c>
       <c r="F3">
-        <v>0.933444940866348</v>
+        <v>0.9894045753889135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034738224011959</v>
+        <v>1.038249251555502</v>
       </c>
       <c r="J3">
-        <v>0.9574483114488156</v>
+        <v>0.9871081625741475</v>
       </c>
       <c r="K3">
-        <v>0.958543369825706</v>
+        <v>0.984723392508037</v>
       </c>
       <c r="L3">
-        <v>0.9612714540940351</v>
+        <v>0.9930110175064923</v>
       </c>
       <c r="M3">
-        <v>0.9450067244979606</v>
+        <v>1.000174846141746</v>
       </c>
       <c r="N3">
-        <v>0.9737854974175795</v>
+        <v>0.9885099693878916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9440459268010215</v>
+        <v>0.9780794241197538</v>
       </c>
       <c r="D4">
-        <v>0.9552889631692201</v>
+        <v>0.9856639499570349</v>
       </c>
       <c r="E4">
-        <v>0.9575266685677084</v>
+        <v>0.993035648028143</v>
       </c>
       <c r="F4">
-        <v>0.9431483185599749</v>
+        <v>1.000392392191146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036643419380334</v>
+        <v>1.040154790642367</v>
       </c>
       <c r="J4">
-        <v>0.9649979597979593</v>
+        <v>0.9980609821600298</v>
       </c>
       <c r="K4">
-        <v>0.9659587442279108</v>
+        <v>0.9959385343769603</v>
       </c>
       <c r="L4">
-        <v>0.9681662607470749</v>
+        <v>1.003218859795209</v>
       </c>
       <c r="M4">
-        <v>0.9539850403640051</v>
+        <v>1.010486083690859</v>
       </c>
       <c r="N4">
-        <v>0.9788879514769029</v>
+        <v>0.9994783432338918</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9477050124897303</v>
+        <v>0.9830943782414318</v>
       </c>
       <c r="D5">
-        <v>0.9585733575629205</v>
+        <v>0.9904700658342548</v>
       </c>
       <c r="E5">
-        <v>0.9605969399066947</v>
+        <v>0.9974267768753916</v>
       </c>
       <c r="F5">
-        <v>0.9470829346290703</v>
+        <v>1.004823120701927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037404740673818</v>
+        <v>1.040917688153745</v>
       </c>
       <c r="J5">
-        <v>0.9680531382865837</v>
+        <v>1.002473186539893</v>
       </c>
       <c r="K5">
-        <v>0.968960977370448</v>
+        <v>1.00045735987505</v>
       </c>
       <c r="L5">
-        <v>0.9709581737727342</v>
+        <v>1.007330975318602</v>
       </c>
       <c r="M5">
-        <v>0.9576230675385149</v>
+        <v>1.014640532888968</v>
       </c>
       <c r="N5">
-        <v>0.9809526405669318</v>
+        <v>1.003896813450061</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9483117879893648</v>
+        <v>0.9839246362341011</v>
       </c>
       <c r="D6">
-        <v>0.9591181036297729</v>
+        <v>0.9912658724005162</v>
       </c>
       <c r="E6">
-        <v>0.9611062314935983</v>
+        <v>0.9981538689112708</v>
       </c>
       <c r="F6">
-        <v>0.9477355992840631</v>
+        <v>1.005556802834463</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037530351121775</v>
+        <v>1.041043685858884</v>
       </c>
       <c r="J6">
-        <v>0.9685595577775712</v>
+        <v>1.003203554377042</v>
       </c>
       <c r="K6">
-        <v>0.9694587025189764</v>
+        <v>1.00120543280994</v>
       </c>
       <c r="L6">
-        <v>0.9714210552977572</v>
+        <v>1.008011665287311</v>
       </c>
       <c r="M6">
-        <v>0.958226381373021</v>
+        <v>1.015328266002911</v>
       </c>
       <c r="N6">
-        <v>0.9812948684561706</v>
+        <v>1.004628218493313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9440953389268263</v>
+        <v>0.9781472424476356</v>
       </c>
       <c r="D7">
-        <v>0.955333308246503</v>
+        <v>0.9857289355304869</v>
       </c>
       <c r="E7">
-        <v>0.9575681184967365</v>
+        <v>0.9930950222391127</v>
       </c>
       <c r="F7">
-        <v>0.9432014380277839</v>
+        <v>1.000452299501353</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036653743039127</v>
+        <v>1.040165127918672</v>
       </c>
       <c r="J7">
-        <v>0.965039231042675</v>
+        <v>0.9981206560166502</v>
       </c>
       <c r="K7">
-        <v>0.9659992947121475</v>
+        <v>0.9959996464738513</v>
       </c>
       <c r="L7">
-        <v>0.9682039688057358</v>
+        <v>1.003274475158094</v>
       </c>
       <c r="M7">
-        <v>0.9540341660745499</v>
+        <v>1.01054226909909</v>
       </c>
       <c r="N7">
-        <v>0.978915843260392</v>
+        <v>0.9995381018342331</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9252523438893016</v>
+        <v>0.952057928935932</v>
       </c>
       <c r="D8">
-        <v>0.9384373088347181</v>
+        <v>0.9607476238117802</v>
       </c>
       <c r="E8">
-        <v>0.9417833457662711</v>
+        <v>0.9702726682252982</v>
       </c>
       <c r="F8">
-        <v>0.9229684700291167</v>
+        <v>0.9774303488921794</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032642542331838</v>
+        <v>1.036153427313432</v>
       </c>
       <c r="J8">
-        <v>0.9492757559913214</v>
+        <v>0.9751545205241933</v>
       </c>
       <c r="K8">
-        <v>0.950521225338639</v>
+        <v>0.9724869204925355</v>
       </c>
       <c r="L8">
-        <v>0.9538142450700561</v>
+        <v>0.9818709622332691</v>
       </c>
       <c r="M8">
-        <v>0.9353039198212653</v>
+        <v>0.9889249755320052</v>
       </c>
       <c r="N8">
-        <v>0.9682615407523397</v>
+        <v>0.9765393517951245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8858757064532191</v>
+        <v>0.8952769887381106</v>
       </c>
       <c r="D9">
-        <v>0.9032310211260759</v>
+        <v>0.9065221508357327</v>
       </c>
       <c r="E9">
-        <v>0.9089456409581071</v>
+        <v>0.9207737244829745</v>
       </c>
       <c r="F9">
-        <v>0.8808013890254007</v>
+        <v>0.9275451136850277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023924391959535</v>
+        <v>1.027276401182036</v>
       </c>
       <c r="J9">
-        <v>0.9162195783035522</v>
+        <v>0.9251592271138899</v>
       </c>
       <c r="K9">
-        <v>0.9181169281284188</v>
+        <v>0.9213387656359453</v>
       </c>
       <c r="L9">
-        <v>0.9237116548796194</v>
+        <v>0.9352978059620823</v>
       </c>
       <c r="M9">
-        <v>0.8961779381748507</v>
+        <v>0.9419343395887939</v>
       </c>
       <c r="N9">
-        <v>0.9459161467977319</v>
+        <v>0.9264730593336382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8530060766478772</v>
+        <v>0.8432554881349048</v>
       </c>
       <c r="D10">
-        <v>0.8739600482746983</v>
+        <v>0.8570544375263111</v>
       </c>
       <c r="E10">
-        <v>0.8817011821202547</v>
+        <v>0.8757168889940332</v>
       </c>
       <c r="F10">
-        <v>0.8456674619769339</v>
+        <v>0.8822106398660775</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016480093963553</v>
+        <v>1.01911341427884</v>
       </c>
       <c r="J10">
-        <v>0.888567587172121</v>
+        <v>0.8794401594709389</v>
       </c>
       <c r="K10">
-        <v>0.8910506307636452</v>
+        <v>0.874593141811345</v>
       </c>
       <c r="L10">
-        <v>0.8985943068322203</v>
+        <v>0.8927622443787178</v>
       </c>
       <c r="M10">
-        <v>0.8635218217462242</v>
+        <v>0.899090933549421</v>
       </c>
       <c r="N10">
-        <v>0.9272255960815402</v>
+        <v>0.8806890653705839</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.836175161534685</v>
+        <v>0.8131603837079479</v>
       </c>
       <c r="D11">
-        <v>0.859018164326666</v>
+        <v>0.8285510092183798</v>
       </c>
       <c r="E11">
-        <v>0.8678152232526105</v>
+        <v>0.8498214396968842</v>
       </c>
       <c r="F11">
-        <v>0.8276842195135451</v>
+        <v>0.856196016612475</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012656960611692</v>
+        <v>1.014426968439432</v>
       </c>
       <c r="J11">
-        <v>0.8744049046344718</v>
+        <v>0.8530704447745691</v>
       </c>
       <c r="K11">
-        <v>0.8771982892324076</v>
+        <v>0.8476376117180128</v>
       </c>
       <c r="L11">
-        <v>0.8857497340937223</v>
+        <v>0.8682658007730065</v>
       </c>
       <c r="M11">
-        <v>0.8467979623474471</v>
+        <v>0.8744564000338908</v>
       </c>
       <c r="N11">
-        <v>0.9176547354778664</v>
+        <v>0.8542819026546966</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8293710425145696</v>
+        <v>0.7997703367358777</v>
       </c>
       <c r="D12">
-        <v>0.8529873203536521</v>
+        <v>0.8159003068381955</v>
       </c>
       <c r="E12">
-        <v>0.8622149049774739</v>
+        <v>0.8383479308880589</v>
       </c>
       <c r="F12">
-        <v>0.8204138022309106</v>
+        <v>0.8446806306044576</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011113981153865</v>
+        <v>1.012356658722663</v>
       </c>
       <c r="J12">
-        <v>0.8686806426083163</v>
+        <v>0.8413635112958935</v>
       </c>
       <c r="K12">
-        <v>0.871601066759452</v>
+        <v>0.835671309424273</v>
       </c>
       <c r="L12">
-        <v>0.8805618411228858</v>
+        <v>0.857401612894338</v>
       </c>
       <c r="M12">
-        <v>0.8400361953085672</v>
+        <v>0.86354142908026</v>
       </c>
       <c r="N12">
-        <v>0.9137869180143671</v>
+        <v>0.8425583439876774</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8308593918373046</v>
+        <v>0.8027803685510386</v>
       </c>
       <c r="D13">
-        <v>0.8543060341630254</v>
+        <v>0.8187423545279039</v>
       </c>
       <c r="E13">
-        <v>0.863439261553666</v>
+        <v>0.840924360323817</v>
       </c>
       <c r="F13">
-        <v>0.8220042082985078</v>
+        <v>0.8472658426425204</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011451286452579</v>
+        <v>1.012821133885164</v>
       </c>
       <c r="J13">
-        <v>0.8699326885768088</v>
+        <v>0.8439936488923079</v>
       </c>
       <c r="K13">
-        <v>0.8728252536605755</v>
+        <v>0.8383596961239594</v>
       </c>
       <c r="L13">
-        <v>0.8816963944981652</v>
+        <v>0.8598417617207036</v>
       </c>
       <c r="M13">
-        <v>0.841515336145541</v>
+        <v>0.865992392745638</v>
       </c>
       <c r="N13">
-        <v>0.9146328825468608</v>
+        <v>0.8451922166811596</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8356253340591125</v>
+        <v>0.8121110811144945</v>
       </c>
       <c r="D14">
-        <v>0.8585306132236885</v>
+        <v>0.8275589172070951</v>
       </c>
       <c r="E14">
-        <v>0.8673623828559373</v>
+        <v>0.848921195959</v>
       </c>
       <c r="F14">
-        <v>0.8270967330953113</v>
+        <v>0.855292232814741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012532191893537</v>
+        <v>1.01426435937075</v>
       </c>
       <c r="J14">
-        <v>0.8739423011106034</v>
+        <v>0.8521524173040892</v>
       </c>
       <c r="K14">
-        <v>0.8767459203456401</v>
+        <v>0.846699234625221</v>
       </c>
       <c r="L14">
-        <v>0.885330400784919</v>
+        <v>0.8674135939631453</v>
       </c>
       <c r="M14">
-        <v>0.8462515804873869</v>
+        <v>0.87359996739264</v>
       </c>
       <c r="N14">
-        <v>0.9173421475271856</v>
+        <v>0.8533625714799096</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8384819177610101</v>
+        <v>0.8175080213776926</v>
       </c>
       <c r="D15">
-        <v>0.8610640432954999</v>
+        <v>0.8326628845010949</v>
       </c>
       <c r="E15">
-        <v>0.8697156269751571</v>
+        <v>0.8535534539839944</v>
       </c>
       <c r="F15">
-        <v>0.8301489412493008</v>
+        <v>0.8599431557994833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013180549670892</v>
+        <v>1.01510134628935</v>
       </c>
       <c r="J15">
-        <v>0.8763457794148497</v>
+        <v>0.8568752335251296</v>
       </c>
       <c r="K15">
-        <v>0.879096287751665</v>
+        <v>0.8515267643611369</v>
       </c>
       <c r="L15">
-        <v>0.8875092137506815</v>
+        <v>0.8717982556465339</v>
       </c>
       <c r="M15">
-        <v>0.8490902217600717</v>
+        <v>0.8780068005570113</v>
       </c>
       <c r="N15">
-        <v>0.9189662352373349</v>
+        <v>0.8580920946416987</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8540567110232024</v>
+        <v>0.8450304292762644</v>
       </c>
       <c r="D16">
-        <v>0.8748938488867493</v>
+        <v>0.8587383242930046</v>
       </c>
       <c r="E16">
-        <v>0.8825694876141964</v>
+        <v>0.8772484295043237</v>
       </c>
       <c r="F16">
-        <v>0.846790067447843</v>
+        <v>0.8837502266017421</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016718817202702</v>
+        <v>1.019390975864571</v>
       </c>
       <c r="J16">
-        <v>0.8894517094908125</v>
+        <v>0.8809975491262444</v>
       </c>
       <c r="K16">
-        <v>0.8919155860095792</v>
+        <v>0.8761852320156778</v>
       </c>
       <c r="L16">
-        <v>0.8993965766968418</v>
+        <v>0.8942099667869468</v>
       </c>
       <c r="M16">
-        <v>0.8645656909954397</v>
+        <v>0.9005477776987878</v>
       </c>
       <c r="N16">
-        <v>0.9278231228859855</v>
+        <v>0.8822486666978351</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.86304415741281</v>
+        <v>0.8598462622535673</v>
       </c>
       <c r="D17">
-        <v>0.8828868878140995</v>
+        <v>0.8728054959869995</v>
       </c>
       <c r="E17">
-        <v>0.8900042335536013</v>
+        <v>0.890049569892598</v>
       </c>
       <c r="F17">
-        <v>0.8563938497507891</v>
+        <v>0.8966226700113723</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018760012502879</v>
+        <v>1.02171159383899</v>
       </c>
       <c r="J17">
-        <v>0.8970144920337474</v>
+        <v>0.8940054197604412</v>
       </c>
       <c r="K17">
-        <v>0.8993155069072646</v>
+        <v>0.8894835399523361</v>
       </c>
       <c r="L17">
-        <v>0.9062613254100804</v>
+        <v>0.9063055809442594</v>
       </c>
       <c r="M17">
-        <v>0.8734950003799301</v>
+        <v>0.9127235285285591</v>
       </c>
       <c r="N17">
-        <v>0.9329345905221741</v>
+        <v>0.895275010000356</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8680498825306729</v>
+        <v>0.8678516444033366</v>
       </c>
       <c r="D18">
-        <v>0.887342583057645</v>
+        <v>0.8804145102916174</v>
       </c>
       <c r="E18">
-        <v>0.8941504930084498</v>
+        <v>0.8969784235825133</v>
       </c>
       <c r="F18">
-        <v>0.8617435889218793</v>
+        <v>0.903593019230969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019895601585741</v>
+        <v>1.022967716864549</v>
       </c>
       <c r="J18">
-        <v>0.9012262946015085</v>
+        <v>0.9010393053626312</v>
       </c>
       <c r="K18">
-        <v>0.9034375060105027</v>
+        <v>0.8966749942609348</v>
       </c>
       <c r="L18">
-        <v>0.9100860680502534</v>
+        <v>0.912848757198733</v>
       </c>
       <c r="M18">
-        <v>0.8784681930015021</v>
+        <v>0.9193128772601556</v>
       </c>
       <c r="N18">
-        <v>0.9357813828344134</v>
+        <v>0.9023188845268991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8697200619080222</v>
+        <v>0.870488842083477</v>
       </c>
       <c r="D19">
-        <v>0.888829839104154</v>
+        <v>0.8829223380120799</v>
       </c>
       <c r="E19">
-        <v>0.8955347434913804</v>
+        <v>0.8992627437143443</v>
       </c>
       <c r="F19">
-        <v>0.8635287021113686</v>
+        <v>0.9058914482276943</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02027418998905</v>
+        <v>1.023381770488438</v>
       </c>
       <c r="J19">
-        <v>0.9026314730637615</v>
+        <v>0.9033572070053181</v>
       </c>
       <c r="K19">
-        <v>0.9048128741547276</v>
+        <v>0.8990449105756628</v>
       </c>
       <c r="L19">
-        <v>0.9113623850888641</v>
+        <v>0.9150053220979235</v>
       </c>
       <c r="M19">
-        <v>0.8801275025119807</v>
+        <v>0.9214850786301662</v>
       </c>
       <c r="N19">
-        <v>0.9367311764604502</v>
+        <v>0.9046400778557857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8621052200313147</v>
+        <v>0.8583265237781467</v>
       </c>
       <c r="D20">
-        <v>0.8820514224897567</v>
+        <v>0.871361636762312</v>
       </c>
       <c r="E20">
-        <v>0.8892269300899018</v>
+        <v>0.8887351298856456</v>
       </c>
       <c r="F20">
-        <v>0.8553904522904688</v>
+        <v>0.8953005831358298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018546878780684</v>
+        <v>1.021473284615629</v>
       </c>
       <c r="J20">
-        <v>0.8962244291217296</v>
+        <v>0.892670513819774</v>
       </c>
       <c r="K20">
-        <v>0.89854236306013</v>
+        <v>0.8881187741856476</v>
       </c>
       <c r="L20">
-        <v>0.9055440037745103</v>
+        <v>0.9050639998638246</v>
       </c>
       <c r="M20">
-        <v>0.8725621554015073</v>
+        <v>0.9114734055487478</v>
       </c>
       <c r="N20">
-        <v>0.9324005921087821</v>
+        <v>0.893938208340137</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8342389873467281</v>
+        <v>0.8094416914953715</v>
       </c>
       <c r="D21">
-        <v>0.8573014546435173</v>
+        <v>0.8250356185437757</v>
       </c>
       <c r="E21">
-        <v>0.8662208061843615</v>
+        <v>0.8466318574893011</v>
       </c>
       <c r="F21">
-        <v>0.825615418015712</v>
+        <v>0.8529940840665868</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012217656562163</v>
+        <v>1.013850962102369</v>
       </c>
       <c r="J21">
-        <v>0.8727759091972331</v>
+        <v>0.8498174505652036</v>
       </c>
       <c r="K21">
-        <v>0.8756053591600317</v>
+        <v>0.8443125187203778</v>
       </c>
       <c r="L21">
-        <v>0.8842731685445537</v>
+        <v>0.8652462383399958</v>
       </c>
       <c r="M21">
-        <v>0.8448739042553102</v>
+        <v>0.8714220479237528</v>
       </c>
       <c r="N21">
-        <v>0.9165540087625278</v>
+        <v>0.8510242888204304</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8133361253258721</v>
+        <v>0.7628309722054341</v>
       </c>
       <c r="D22">
-        <v>0.8387978789398307</v>
+        <v>0.781113914925201</v>
       </c>
       <c r="E22">
-        <v>0.8490486621415013</v>
+        <v>0.8068733092148554</v>
       </c>
       <c r="F22">
-        <v>0.8032760090230351</v>
+        <v>0.813130113453589</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007490305450505</v>
+        <v>1.006707080051345</v>
       </c>
       <c r="J22">
-        <v>0.8551961049030783</v>
+        <v>0.80916893201503</v>
       </c>
       <c r="K22">
-        <v>0.8584188954845473</v>
+        <v>0.8027638932737026</v>
       </c>
       <c r="L22">
-        <v>0.868348797159277</v>
+        <v>0.8275670341075388</v>
       </c>
       <c r="M22">
-        <v>0.8240981146869816</v>
+        <v>0.8336043225062694</v>
       </c>
       <c r="N22">
-        <v>0.9046769757098674</v>
+        <v>0.8103180447114651</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8248275461158083</v>
+        <v>0.790242224283035</v>
       </c>
       <c r="D23">
-        <v>0.8489633875795479</v>
+        <v>0.8069110117200208</v>
       </c>
       <c r="E23">
-        <v>0.8584796573715816</v>
+        <v>0.8302034144058299</v>
       </c>
       <c r="F23">
-        <v>0.8155584939230874</v>
+        <v>0.8365108013758178</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010085154502642</v>
+        <v>1.010890174394232</v>
       </c>
       <c r="J23">
-        <v>0.8648588932480727</v>
+        <v>0.8330441766217891</v>
       </c>
       <c r="K23">
-        <v>0.8678645928422472</v>
+        <v>0.8271677794146837</v>
       </c>
       <c r="L23">
-        <v>0.8770993262487243</v>
+        <v>0.8496858549083212</v>
       </c>
       <c r="M23">
-        <v>0.8355205981045557</v>
+        <v>0.8557938004924243</v>
       </c>
       <c r="N23">
-        <v>0.9112047957681116</v>
+        <v>0.8342271949040945</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8625302056654962</v>
+        <v>0.8590151409400137</v>
       </c>
       <c r="D24">
-        <v>0.8824295623002866</v>
+        <v>0.8720158464921599</v>
       </c>
       <c r="E24">
-        <v>0.8895787397253523</v>
+        <v>0.8893306856667713</v>
       </c>
       <c r="F24">
-        <v>0.8558446117059368</v>
+        <v>0.895899594593773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018643352557218</v>
+        <v>1.021581259549763</v>
       </c>
       <c r="J24">
-        <v>0.89658203204555</v>
+        <v>0.8932753638984966</v>
       </c>
       <c r="K24">
-        <v>0.8988923051585685</v>
+        <v>0.8887371521875409</v>
       </c>
       <c r="L24">
-        <v>0.9058686768503137</v>
+        <v>0.9056265561640517</v>
       </c>
       <c r="M24">
-        <v>0.8729843839127971</v>
+        <v>0.9120398233729554</v>
       </c>
       <c r="N24">
-        <v>0.932642293135571</v>
+        <v>0.8945439173753488</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8969848046121811</v>
+        <v>0.9117172112400223</v>
       </c>
       <c r="D25">
-        <v>0.9131488645203701</v>
+        <v>0.9222000740089684</v>
       </c>
       <c r="E25">
-        <v>0.9181888442625636</v>
+        <v>0.935076454420672</v>
       </c>
       <c r="F25">
-        <v>0.8926860249135643</v>
+        <v>0.94195182140717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026416130402827</v>
+        <v>1.029857728626779</v>
       </c>
       <c r="J25">
-        <v>0.9255567167068917</v>
+        <v>0.9396303798750499</v>
       </c>
       <c r="K25">
-        <v>0.9272637772049627</v>
+        <v>0.9361394818624452</v>
       </c>
       <c r="L25">
-        <v>0.932205471201309</v>
+        <v>0.9487738170924347</v>
       </c>
       <c r="M25">
-        <v>0.907215059421532</v>
+        <v>0.9555234679752403</v>
       </c>
       <c r="N25">
-        <v>0.9522279494582888</v>
+        <v>0.9409647627915833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9447528123924478</v>
+        <v>0.9986585126768469</v>
       </c>
       <c r="D2">
-        <v>0.9537596616232866</v>
+        <v>1.006694413214066</v>
       </c>
       <c r="E2">
-        <v>0.9638898883493529</v>
+        <v>1.011481807801906</v>
       </c>
       <c r="F2">
-        <v>0.9709938713491439</v>
+        <v>1.013807297130847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035019791309594</v>
+        <v>1.042716881991129</v>
       </c>
       <c r="J2">
-        <v>0.968721600252601</v>
+        <v>1.020879421566203</v>
       </c>
       <c r="K2">
-        <v>0.9659031343361087</v>
+        <v>1.018061265474106</v>
       </c>
       <c r="L2">
-        <v>0.9758763209898199</v>
+        <v>1.022783467196181</v>
       </c>
       <c r="M2">
-        <v>0.9828726653627465</v>
+        <v>1.025077568222166</v>
       </c>
       <c r="N2">
-        <v>0.9700972960388803</v>
+        <v>1.022329187441332</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9656347115122064</v>
+        <v>1.003308888824844</v>
       </c>
       <c r="D3">
-        <v>0.9737431484313651</v>
+        <v>1.010487031048785</v>
       </c>
       <c r="E3">
-        <v>0.9821444560199141</v>
+        <v>1.01551100985808</v>
       </c>
       <c r="F3">
-        <v>0.9894045753889135</v>
+        <v>1.01850661862532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038249251555502</v>
+        <v>1.04355380841894</v>
       </c>
       <c r="J3">
-        <v>0.9871081625741475</v>
+        <v>1.023709754840714</v>
       </c>
       <c r="K3">
-        <v>0.984723392508037</v>
+        <v>1.0209874640331</v>
       </c>
       <c r="L3">
-        <v>0.9930110175064923</v>
+        <v>1.025949197845488</v>
       </c>
       <c r="M3">
-        <v>1.000174846141746</v>
+        <v>1.028908055652344</v>
       </c>
       <c r="N3">
-        <v>0.9885099693878916</v>
+        <v>1.025163540113738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9780794241197538</v>
+        <v>1.006255262939227</v>
       </c>
       <c r="D4">
-        <v>0.9856639499570349</v>
+        <v>1.01289534598932</v>
       </c>
       <c r="E4">
-        <v>0.993035648028143</v>
+        <v>1.018069993775549</v>
       </c>
       <c r="F4">
-        <v>1.000392392191146</v>
+        <v>1.021491845440225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040154790642367</v>
+        <v>1.044071931615031</v>
       </c>
       <c r="J4">
-        <v>0.9980609821600298</v>
+        <v>1.025500300728715</v>
       </c>
       <c r="K4">
-        <v>0.9959385343769603</v>
+        <v>1.022840587537631</v>
       </c>
       <c r="L4">
-        <v>1.003218859795209</v>
+        <v>1.027955114018173</v>
       </c>
       <c r="M4">
-        <v>1.010486083690859</v>
+        <v>1.031337622113509</v>
       </c>
       <c r="N4">
-        <v>0.9994783432338918</v>
+        <v>1.026956628782279</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9830943782414318</v>
+        <v>1.00747944426138</v>
       </c>
       <c r="D5">
-        <v>0.9904700658342548</v>
+        <v>1.013897220323329</v>
       </c>
       <c r="E5">
-        <v>0.9974267768753916</v>
+        <v>1.019134661574012</v>
       </c>
       <c r="F5">
-        <v>1.004823120701927</v>
+        <v>1.022734028457336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040917688153745</v>
+        <v>1.044284247750347</v>
       </c>
       <c r="J5">
-        <v>1.002473186539893</v>
+        <v>1.026243566665892</v>
       </c>
       <c r="K5">
-        <v>1.00045735987505</v>
+        <v>1.023610293754708</v>
       </c>
       <c r="L5">
-        <v>1.007330975318602</v>
+        <v>1.028788553888388</v>
       </c>
       <c r="M5">
-        <v>1.014640532888968</v>
+        <v>1.032347681689536</v>
       </c>
       <c r="N5">
-        <v>1.003896813450061</v>
+        <v>1.02770095024234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9839246362341011</v>
+        <v>1.007684156189584</v>
       </c>
       <c r="D6">
-        <v>0.9912658724005162</v>
+        <v>1.014064829484254</v>
       </c>
       <c r="E6">
-        <v>0.9981538689112708</v>
+        <v>1.019312782779892</v>
       </c>
       <c r="F6">
-        <v>1.005556802834463</v>
+        <v>1.022941859335974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041043685858884</v>
+        <v>1.044319576818736</v>
       </c>
       <c r="J6">
-        <v>1.003203554377042</v>
+        <v>1.026367816970582</v>
       </c>
       <c r="K6">
-        <v>1.00120543280994</v>
+        <v>1.023738991331717</v>
       </c>
       <c r="L6">
-        <v>1.008011665287311</v>
+        <v>1.028927924028853</v>
       </c>
       <c r="M6">
-        <v>1.015328266002911</v>
+        <v>1.032516622106809</v>
       </c>
       <c r="N6">
-        <v>1.004628218493313</v>
+        <v>1.027825376996714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9781472424476356</v>
+        <v>1.006271676684885</v>
       </c>
       <c r="D7">
-        <v>0.9857289355304869</v>
+        <v>1.012908774177571</v>
       </c>
       <c r="E7">
-        <v>0.9930950222391127</v>
+        <v>1.018084263125879</v>
       </c>
       <c r="F7">
-        <v>1.000452299501353</v>
+        <v>1.021508493236521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040165127918672</v>
+        <v>1.044074790080725</v>
       </c>
       <c r="J7">
-        <v>0.9981206560166502</v>
+        <v>1.025510269140174</v>
       </c>
       <c r="K7">
-        <v>0.9959996464738513</v>
+        <v>1.022850908721714</v>
       </c>
       <c r="L7">
-        <v>1.003274475158094</v>
+        <v>1.027966288746547</v>
       </c>
       <c r="M7">
-        <v>1.01054226909909</v>
+        <v>1.03135116257792</v>
       </c>
       <c r="N7">
-        <v>0.9995381018342331</v>
+        <v>1.026966611350025</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.952057928935932</v>
+        <v>1.000243453988621</v>
       </c>
       <c r="D8">
-        <v>0.9607476238117802</v>
+        <v>1.007985852934364</v>
       </c>
       <c r="E8">
-        <v>0.9702726682252982</v>
+        <v>1.012853721743941</v>
       </c>
       <c r="F8">
-        <v>0.9774303488921794</v>
+        <v>1.015407260685243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036153427313432</v>
+        <v>1.043004640350403</v>
       </c>
       <c r="J8">
-        <v>0.9751545205241933</v>
+        <v>1.021844596519922</v>
       </c>
       <c r="K8">
-        <v>0.9724869204925355</v>
+        <v>1.019058726524167</v>
       </c>
       <c r="L8">
-        <v>0.9818709622332691</v>
+        <v>1.023862351222278</v>
       </c>
       <c r="M8">
-        <v>0.9889249755320052</v>
+        <v>1.026382498130049</v>
       </c>
       <c r="N8">
-        <v>0.9765393517951245</v>
+        <v>1.023295733054194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8952769887381106</v>
+        <v>0.9891146007941718</v>
       </c>
       <c r="D9">
-        <v>0.9065221508357327</v>
+        <v>0.9989427485904493</v>
       </c>
       <c r="E9">
-        <v>0.9207737244829745</v>
+        <v>1.00324857410837</v>
       </c>
       <c r="F9">
-        <v>0.9275451136850277</v>
+        <v>1.004207259217387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027276401182036</v>
+        <v>1.040934477131734</v>
       </c>
       <c r="J9">
-        <v>0.9251592271138899</v>
+        <v>1.015057694411137</v>
       </c>
       <c r="K9">
-        <v>0.9213387656359453</v>
+        <v>1.012053002282238</v>
       </c>
       <c r="L9">
-        <v>0.9352978059620823</v>
+        <v>1.01628916442826</v>
       </c>
       <c r="M9">
-        <v>0.9419343395887939</v>
+        <v>1.017232443395559</v>
       </c>
       <c r="N9">
-        <v>0.9264730593336382</v>
+        <v>1.016499192765946</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8432554881349048</v>
+        <v>0.9813162136384336</v>
       </c>
       <c r="D10">
-        <v>0.8570544375263111</v>
+        <v>0.9926398952900555</v>
       </c>
       <c r="E10">
-        <v>0.8757168889940332</v>
+        <v>0.9965554060574489</v>
       </c>
       <c r="F10">
-        <v>0.8822106398660775</v>
+        <v>0.9964039261110446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01911341427884</v>
+        <v>1.039422851827798</v>
       </c>
       <c r="J10">
-        <v>0.8794401594709389</v>
+        <v>1.010291245009246</v>
       </c>
       <c r="K10">
-        <v>0.874593141811345</v>
+        <v>1.007143322550471</v>
       </c>
       <c r="L10">
-        <v>0.8927622443787178</v>
+        <v>1.01098713347938</v>
       </c>
       <c r="M10">
-        <v>0.899090933549421</v>
+        <v>1.010838413757732</v>
       </c>
       <c r="N10">
-        <v>0.8806890653705839</v>
+        <v>1.011725974459185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8131603837079479</v>
+        <v>0.9778400735458546</v>
       </c>
       <c r="D11">
-        <v>0.8285510092183798</v>
+        <v>0.9898392518203032</v>
       </c>
       <c r="E11">
-        <v>0.8498214396968842</v>
+        <v>0.9935815157079735</v>
       </c>
       <c r="F11">
-        <v>0.856196016612475</v>
+        <v>0.9929366808880948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014426968439432</v>
+        <v>1.038735272390217</v>
       </c>
       <c r="J11">
-        <v>0.8530704447745691</v>
+        <v>1.008164699466503</v>
       </c>
       <c r="K11">
-        <v>0.8476376117180128</v>
+        <v>1.004955362978938</v>
       </c>
       <c r="L11">
-        <v>0.8682658007730065</v>
+        <v>1.008625498902516</v>
       </c>
       <c r="M11">
-        <v>0.8744564000338908</v>
+        <v>1.007993041791667</v>
       </c>
       <c r="N11">
-        <v>0.8542819026546966</v>
+        <v>1.009596408977853</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7997703367358777</v>
+        <v>0.9765330772220983</v>
       </c>
       <c r="D12">
-        <v>0.8159003068381955</v>
+        <v>0.9887876395415439</v>
       </c>
       <c r="E12">
-        <v>0.8383479308880589</v>
+        <v>0.9924648660148321</v>
       </c>
       <c r="F12">
-        <v>0.8446806306044576</v>
+        <v>0.9916347374772838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012356658722663</v>
+        <v>1.03847474156503</v>
       </c>
       <c r="J12">
-        <v>0.8413635112958935</v>
+        <v>1.007364909326261</v>
       </c>
       <c r="K12">
-        <v>0.835671309424273</v>
+        <v>1.004132850125269</v>
       </c>
       <c r="L12">
-        <v>0.857401612894338</v>
+        <v>1.007737865276706</v>
       </c>
       <c r="M12">
-        <v>0.86354142908026</v>
+        <v>1.006923976923434</v>
       </c>
       <c r="N12">
-        <v>0.8425583439876774</v>
+        <v>1.008795483043875</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8027803685510386</v>
+        <v>0.9768141621999972</v>
       </c>
       <c r="D13">
-        <v>0.8187423545279039</v>
+        <v>0.9890137365503359</v>
       </c>
       <c r="E13">
-        <v>0.840924360323817</v>
+        <v>0.9927049456325294</v>
       </c>
       <c r="F13">
-        <v>0.8472658426425204</v>
+        <v>0.9919146578917102</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012821133885164</v>
+        <v>1.038530861466766</v>
       </c>
       <c r="J13">
-        <v>0.8439936488923079</v>
+        <v>1.007536923040484</v>
       </c>
       <c r="K13">
-        <v>0.8383596961239594</v>
+        <v>1.004309733930652</v>
       </c>
       <c r="L13">
-        <v>0.8598417617207036</v>
+        <v>1.007928746019445</v>
       </c>
       <c r="M13">
-        <v>0.865992392745638</v>
+        <v>1.007153856360026</v>
       </c>
       <c r="N13">
-        <v>0.8451922166811596</v>
+        <v>1.008967741037302</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8121110811144945</v>
+        <v>0.9777323644688918</v>
       </c>
       <c r="D14">
-        <v>0.8275589172070951</v>
+        <v>0.9897525598906609</v>
       </c>
       <c r="E14">
-        <v>0.848921195959</v>
+        <v>0.9934894620524617</v>
       </c>
       <c r="F14">
-        <v>0.855292232814741</v>
+        <v>0.99282935325259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01426435937075</v>
+        <v>1.038713842573829</v>
       </c>
       <c r="J14">
-        <v>0.8521524173040892</v>
+        <v>1.008098793378828</v>
       </c>
       <c r="K14">
-        <v>0.846699234625221</v>
+        <v>1.00488757681533</v>
       </c>
       <c r="L14">
-        <v>0.8674135939631453</v>
+        <v>1.008552342533258</v>
       </c>
       <c r="M14">
-        <v>0.87359996739264</v>
+        <v>1.007904924632721</v>
       </c>
       <c r="N14">
-        <v>0.8533625714799096</v>
+        <v>1.009530409295974</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8175080213776926</v>
+        <v>0.9782959779661911</v>
       </c>
       <c r="D15">
-        <v>0.8326628845010949</v>
+        <v>0.9902062537813182</v>
       </c>
       <c r="E15">
-        <v>0.8535534539839944</v>
+        <v>0.993971216551089</v>
       </c>
       <c r="F15">
-        <v>0.8599431557994833</v>
+        <v>0.9933910406442993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01510134628935</v>
+        <v>1.038825897778248</v>
       </c>
       <c r="J15">
-        <v>0.8568752335251296</v>
+        <v>1.008443653755129</v>
       </c>
       <c r="K15">
-        <v>0.8515267643611369</v>
+        <v>1.005242290170798</v>
       </c>
       <c r="L15">
-        <v>0.8717982556465339</v>
+        <v>1.008935164065902</v>
       </c>
       <c r="M15">
-        <v>0.8780068005570113</v>
+        <v>1.008366050366363</v>
       </c>
       <c r="N15">
-        <v>0.8580920946416987</v>
+        <v>1.009875759413565</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8450304292762644</v>
+        <v>0.9815447467205797</v>
       </c>
       <c r="D16">
-        <v>0.8587383242930046</v>
+        <v>0.9928242095090563</v>
       </c>
       <c r="E16">
-        <v>0.8772484295043237</v>
+        <v>0.9967511247023541</v>
       </c>
       <c r="F16">
-        <v>0.8837502266017421</v>
+        <v>0.9966321089602138</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019390975864571</v>
+        <v>1.039467773959757</v>
       </c>
       <c r="J16">
-        <v>0.8809975491262444</v>
+        <v>1.010431016419167</v>
       </c>
       <c r="K16">
-        <v>0.8761852320156778</v>
+        <v>1.007287182412123</v>
       </c>
       <c r="L16">
-        <v>0.8942099667869468</v>
+        <v>1.011142436364293</v>
       </c>
       <c r="M16">
-        <v>0.9005477776987878</v>
+        <v>1.011025581713531</v>
       </c>
       <c r="N16">
-        <v>0.8822486666978351</v>
+        <v>1.011865944360539</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8598462622535673</v>
+        <v>0.9835554095881193</v>
       </c>
       <c r="D17">
-        <v>0.8728054959869995</v>
+        <v>0.99444684568175</v>
       </c>
       <c r="E17">
-        <v>0.890049569892598</v>
+        <v>0.998474181172703</v>
       </c>
       <c r="F17">
-        <v>0.8966226700113723</v>
+        <v>0.9986409578619662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02171159383899</v>
+        <v>1.03986144519054</v>
       </c>
       <c r="J17">
-        <v>0.8940054197604412</v>
+        <v>1.011660533836183</v>
       </c>
       <c r="K17">
-        <v>0.8894835399523361</v>
+        <v>1.008552947467903</v>
       </c>
       <c r="L17">
-        <v>0.9063055809442594</v>
+        <v>1.012509016515921</v>
       </c>
       <c r="M17">
-        <v>0.9127235285285591</v>
+        <v>1.012672858044489</v>
       </c>
       <c r="N17">
-        <v>0.895275010000356</v>
+        <v>1.013097207833315</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8678516444033366</v>
+        <v>0.98471866798078</v>
       </c>
       <c r="D18">
-        <v>0.8804145102916174</v>
+        <v>0.9953864485411684</v>
       </c>
       <c r="E18">
-        <v>0.8969784235825133</v>
+        <v>0.9994719520869214</v>
       </c>
       <c r="F18">
-        <v>0.903593019230969</v>
+        <v>0.9998042164888573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022967716864549</v>
+        <v>1.040087891616008</v>
       </c>
       <c r="J18">
-        <v>0.9010393053626312</v>
+        <v>1.0123716811215</v>
       </c>
       <c r="K18">
-        <v>0.8966749942609348</v>
+        <v>1.009285295941196</v>
       </c>
       <c r="L18">
-        <v>0.912848757198733</v>
+        <v>1.013299806554923</v>
       </c>
       <c r="M18">
-        <v>0.9193128772601556</v>
+        <v>1.013626330267156</v>
       </c>
       <c r="N18">
-        <v>0.9023188845268991</v>
+        <v>1.013809365029348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.870488842083477</v>
+        <v>0.9851137184633642</v>
       </c>
       <c r="D19">
-        <v>0.8829223380120799</v>
+        <v>0.9957056836717562</v>
       </c>
       <c r="E19">
-        <v>0.8992627437143443</v>
+        <v>0.9998109536895191</v>
       </c>
       <c r="F19">
-        <v>0.9058914482276943</v>
+        <v>1.000199443932874</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023381770488438</v>
+        <v>1.040164570361431</v>
       </c>
       <c r="J19">
-        <v>0.9033572070053181</v>
+        <v>1.012613158835412</v>
       </c>
       <c r="K19">
-        <v>0.8990449105756628</v>
+        <v>1.0095340126999</v>
       </c>
       <c r="L19">
-        <v>0.9150053220979235</v>
+        <v>1.013568390161494</v>
       </c>
       <c r="M19">
-        <v>0.9214850786301662</v>
+        <v>1.013950210652847</v>
       </c>
       <c r="N19">
-        <v>0.9046400778557857</v>
+        <v>1.014051185669311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8583265237781467</v>
+        <v>0.9833406760305829</v>
       </c>
       <c r="D20">
-        <v>0.871361636762312</v>
+        <v>0.9942734651954159</v>
       </c>
       <c r="E20">
-        <v>0.8887351298856456</v>
+        <v>0.9982900688150982</v>
       </c>
       <c r="F20">
-        <v>0.8953005831358298</v>
+        <v>0.9984263088322823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021473284615629</v>
+        <v>1.039819537622824</v>
       </c>
       <c r="J20">
-        <v>0.892670513819774</v>
+        <v>1.011529243232117</v>
       </c>
       <c r="K20">
-        <v>0.8881187741856476</v>
+        <v>1.008417761792035</v>
       </c>
       <c r="L20">
-        <v>0.9050639998638246</v>
+        <v>1.012363052086902</v>
       </c>
       <c r="M20">
-        <v>0.9114734055487478</v>
+        <v>1.012496886259201</v>
       </c>
       <c r="N20">
-        <v>0.893938208340137</v>
+        <v>1.012965730781533</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8094416914953715</v>
+        <v>0.9774624203539761</v>
       </c>
       <c r="D21">
-        <v>0.8250356185437757</v>
+        <v>0.989535312519026</v>
       </c>
       <c r="E21">
-        <v>0.8466318574893011</v>
+        <v>0.993258778552069</v>
       </c>
       <c r="F21">
-        <v>0.8529940840665868</v>
+        <v>0.9925603927823051</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013850962102369</v>
+        <v>1.038660102328084</v>
       </c>
       <c r="J21">
-        <v>0.8498174505652036</v>
+        <v>1.0079336138329</v>
       </c>
       <c r="K21">
-        <v>0.8443125187203778</v>
+        <v>1.004717691304569</v>
       </c>
       <c r="L21">
-        <v>0.8652462383399958</v>
+        <v>1.008369000910934</v>
       </c>
       <c r="M21">
-        <v>0.8714220479237528</v>
+        <v>1.007684095000374</v>
       </c>
       <c r="N21">
-        <v>0.8510242888204304</v>
+        <v>1.009364995176144</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7628309722054341</v>
+        <v>0.9736746157328255</v>
       </c>
       <c r="D22">
-        <v>0.781113914925201</v>
+        <v>0.9864903797566835</v>
       </c>
       <c r="E22">
-        <v>0.8068733092148554</v>
+        <v>0.9900255436341695</v>
       </c>
       <c r="F22">
-        <v>0.813130113453589</v>
+        <v>0.9887905169233184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006707080051345</v>
+        <v>1.037901326691697</v>
       </c>
       <c r="J22">
-        <v>0.80916893201503</v>
+        <v>1.005615374584196</v>
       </c>
       <c r="K22">
-        <v>0.8027638932737026</v>
+        <v>1.002334301001268</v>
       </c>
       <c r="L22">
-        <v>0.8275670341075388</v>
+        <v>1.005797220374123</v>
       </c>
       <c r="M22">
-        <v>0.8336043225062694</v>
+        <v>1.004587355228804</v>
       </c>
       <c r="N22">
-        <v>0.8103180447114651</v>
+        <v>1.007043463761801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.790242224283035</v>
+        <v>0.9756916230864748</v>
       </c>
       <c r="D23">
-        <v>0.8069110117200208</v>
+        <v>0.9881110085091436</v>
       </c>
       <c r="E23">
-        <v>0.8302034144058299</v>
+        <v>0.9917463909606029</v>
       </c>
       <c r="F23">
-        <v>0.8365108013758178</v>
+        <v>0.9907970232505779</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010890174394232</v>
+        <v>1.038306452095595</v>
       </c>
       <c r="J23">
-        <v>0.8330441766217891</v>
+        <v>1.006849941129286</v>
       </c>
       <c r="K23">
-        <v>0.8271677794146837</v>
+        <v>1.003603357097494</v>
       </c>
       <c r="L23">
-        <v>0.8496858549083212</v>
+        <v>1.007166497150079</v>
       </c>
       <c r="M23">
-        <v>0.8557938004924243</v>
+        <v>1.006235928088996</v>
       </c>
       <c r="N23">
-        <v>0.8342271949040945</v>
+        <v>1.008279783532992</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8590151409400137</v>
+        <v>0.9834377342604123</v>
       </c>
       <c r="D24">
-        <v>0.8720158464921599</v>
+        <v>0.9943518295101286</v>
       </c>
       <c r="E24">
-        <v>0.8893306856667713</v>
+        <v>0.9983732836497077</v>
       </c>
       <c r="F24">
-        <v>0.895899594593773</v>
+        <v>0.9985233256041071</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021581259549763</v>
+        <v>1.039838483649081</v>
       </c>
       <c r="J24">
-        <v>0.8932753638984966</v>
+        <v>1.011588586340298</v>
       </c>
       <c r="K24">
-        <v>0.8887371521875409</v>
+        <v>1.008478864734468</v>
       </c>
       <c r="L24">
-        <v>0.9056265561640517</v>
+        <v>1.012429026600108</v>
       </c>
       <c r="M24">
-        <v>0.9120398233729554</v>
+        <v>1.012576423020472</v>
       </c>
       <c r="N24">
-        <v>0.8945439173753488</v>
+        <v>1.013025158163734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9117172112400223</v>
+        <v>0.9920555055171967</v>
       </c>
       <c r="D25">
-        <v>0.9222000740089684</v>
+        <v>1.001326874586453</v>
       </c>
       <c r="E25">
-        <v>0.935076454420672</v>
+        <v>1.00578058543024</v>
       </c>
       <c r="F25">
-        <v>0.94195182140717</v>
+        <v>1.00715936978962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029857728626779</v>
+        <v>1.041492261323547</v>
       </c>
       <c r="J25">
-        <v>0.9396303798750499</v>
+        <v>1.016853223797507</v>
       </c>
       <c r="K25">
-        <v>0.9361394818624452</v>
+        <v>1.013904627397705</v>
       </c>
       <c r="L25">
-        <v>0.9487738170924347</v>
+        <v>1.01828982315843</v>
       </c>
       <c r="M25">
-        <v>0.9555234679752403</v>
+        <v>1.019647553172275</v>
       </c>
       <c r="N25">
-        <v>0.9409647627915833</v>
+        <v>1.018297272009995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9986585126768469</v>
+        <v>1.032788237026491</v>
       </c>
       <c r="D2">
-        <v>1.006694413214066</v>
+        <v>1.033753609314567</v>
       </c>
       <c r="E2">
-        <v>1.011481807801906</v>
+        <v>1.040933865598175</v>
       </c>
       <c r="F2">
-        <v>1.013807297130847</v>
+        <v>1.04891546687882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042716881991129</v>
+        <v>1.031739051617225</v>
       </c>
       <c r="J2">
-        <v>1.020879421566203</v>
+        <v>1.037916532413789</v>
       </c>
       <c r="K2">
-        <v>1.018061265474106</v>
+        <v>1.036555050890173</v>
       </c>
       <c r="L2">
-        <v>1.022783467196181</v>
+        <v>1.043714808676399</v>
       </c>
       <c r="M2">
-        <v>1.025077568222166</v>
+        <v>1.051673981004004</v>
       </c>
       <c r="N2">
-        <v>1.022329187441332</v>
+        <v>1.039390492940507</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003308888824844</v>
+        <v>1.033772418484684</v>
       </c>
       <c r="D3">
-        <v>1.010487031048785</v>
+        <v>1.034603428466856</v>
       </c>
       <c r="E3">
-        <v>1.01551100985808</v>
+        <v>1.041843977526422</v>
       </c>
       <c r="F3">
-        <v>1.01850661862532</v>
+        <v>1.049991585345143</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04355380841894</v>
+        <v>1.031845397144248</v>
       </c>
       <c r="J3">
-        <v>1.023709754840714</v>
+        <v>1.03854297930417</v>
       </c>
       <c r="K3">
-        <v>1.0209874640331</v>
+        <v>1.037213807026992</v>
       </c>
       <c r="L3">
-        <v>1.025949197845488</v>
+        <v>1.044435183564187</v>
       </c>
       <c r="M3">
-        <v>1.028908055652344</v>
+        <v>1.052561558337982</v>
       </c>
       <c r="N3">
-        <v>1.025163540113738</v>
+        <v>1.040017829457327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006255262939227</v>
+        <v>1.034409532870776</v>
       </c>
       <c r="D4">
-        <v>1.01289534598932</v>
+        <v>1.035153865893396</v>
       </c>
       <c r="E4">
-        <v>1.018069993775549</v>
+        <v>1.042433560019326</v>
       </c>
       <c r="F4">
-        <v>1.021491845440225</v>
+        <v>1.050688914799804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044071931615031</v>
+        <v>1.031912716451113</v>
       </c>
       <c r="J4">
-        <v>1.025500300728715</v>
+        <v>1.038948022213424</v>
       </c>
       <c r="K4">
-        <v>1.022840587537631</v>
+        <v>1.037639972262671</v>
       </c>
       <c r="L4">
-        <v>1.027955114018173</v>
+        <v>1.04490136304331</v>
       </c>
       <c r="M4">
-        <v>1.031337622113509</v>
+        <v>1.05313629161197</v>
       </c>
       <c r="N4">
-        <v>1.026956628782279</v>
+        <v>1.040423447573971</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00747944426138</v>
+        <v>1.034677442923119</v>
       </c>
       <c r="D5">
-        <v>1.013897220323329</v>
+        <v>1.035385399810697</v>
       </c>
       <c r="E5">
-        <v>1.019134661574012</v>
+        <v>1.042681582109349</v>
       </c>
       <c r="F5">
-        <v>1.022734028457336</v>
+        <v>1.050982312760457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044284247750347</v>
+        <v>1.031940659507005</v>
       </c>
       <c r="J5">
-        <v>1.026243566665892</v>
+        <v>1.039118227234224</v>
       </c>
       <c r="K5">
-        <v>1.023610293754708</v>
+        <v>1.037819108780152</v>
       </c>
       <c r="L5">
-        <v>1.028788553888388</v>
+        <v>1.045097355761279</v>
       </c>
       <c r="M5">
-        <v>1.032347681689536</v>
+        <v>1.053378007139896</v>
       </c>
       <c r="N5">
-        <v>1.02770095024234</v>
+        <v>1.040593894305423</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007684156189584</v>
+        <v>1.034722430120167</v>
       </c>
       <c r="D6">
-        <v>1.014064829484254</v>
+        <v>1.035424282967569</v>
       </c>
       <c r="E6">
-        <v>1.019312782779892</v>
+        <v>1.042723235557573</v>
       </c>
       <c r="F6">
-        <v>1.022941859335974</v>
+        <v>1.051031589656362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044319576818736</v>
+        <v>1.0319453302633</v>
       </c>
       <c r="J6">
-        <v>1.026367816970582</v>
+        <v>1.039146800984524</v>
       </c>
       <c r="K6">
-        <v>1.023738991331717</v>
+        <v>1.037849185196282</v>
       </c>
       <c r="L6">
-        <v>1.028927924028853</v>
+        <v>1.045130264414714</v>
       </c>
       <c r="M6">
-        <v>1.032516622106809</v>
+        <v>1.053418597943431</v>
       </c>
       <c r="N6">
-        <v>1.027825376996714</v>
+        <v>1.040622508633726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006271676684885</v>
+        <v>1.034413112434877</v>
       </c>
       <c r="D7">
-        <v>1.012908774177571</v>
+        <v>1.035156959151381</v>
       </c>
       <c r="E7">
-        <v>1.018084263125879</v>
+        <v>1.042436873468864</v>
       </c>
       <c r="F7">
-        <v>1.021508493236521</v>
+        <v>1.050692834253169</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044074790080725</v>
+        <v>1.031913091234797</v>
       </c>
       <c r="J7">
-        <v>1.025510269140174</v>
+        <v>1.038950296796987</v>
       </c>
       <c r="K7">
-        <v>1.022850908721714</v>
+        <v>1.037642365986376</v>
       </c>
       <c r="L7">
-        <v>1.027966288746547</v>
+        <v>1.044903981865921</v>
       </c>
       <c r="M7">
-        <v>1.03135116257792</v>
+        <v>1.053139521043984</v>
       </c>
       <c r="N7">
-        <v>1.026966611350025</v>
+        <v>1.040425725387703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000243453988621</v>
+        <v>1.033120786747304</v>
       </c>
       <c r="D8">
-        <v>1.007985852934364</v>
+        <v>1.03404069564328</v>
       </c>
       <c r="E8">
-        <v>1.012853721743941</v>
+        <v>1.041241300949814</v>
       </c>
       <c r="F8">
-        <v>1.015407260685243</v>
+        <v>1.049278936744648</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043004640350403</v>
+        <v>1.031775300515261</v>
       </c>
       <c r="J8">
-        <v>1.021844596519922</v>
+        <v>1.038128306819214</v>
       </c>
       <c r="K8">
-        <v>1.019058726524167</v>
+        <v>1.036777699579077</v>
       </c>
       <c r="L8">
-        <v>1.023862351222278</v>
+        <v>1.043958252161453</v>
       </c>
       <c r="M8">
-        <v>1.026382498130049</v>
+        <v>1.051973856240851</v>
       </c>
       <c r="N8">
-        <v>1.023295733054194</v>
+        <v>1.039602568089879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9891146007941718</v>
+        <v>1.030845740066462</v>
       </c>
       <c r="D9">
-        <v>0.9989427485904493</v>
+        <v>1.032077938098091</v>
       </c>
       <c r="E9">
-        <v>1.00324857410837</v>
+        <v>1.039139795265286</v>
       </c>
       <c r="F9">
-        <v>1.004207259217387</v>
+        <v>1.046795233225053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040934477131734</v>
+        <v>1.031521078875475</v>
       </c>
       <c r="J9">
-        <v>1.015057694411137</v>
+        <v>1.036677514414278</v>
       </c>
       <c r="K9">
-        <v>1.012053002282238</v>
+        <v>1.035253363452922</v>
       </c>
       <c r="L9">
-        <v>1.01628916442826</v>
+        <v>1.042292164531359</v>
       </c>
       <c r="M9">
-        <v>1.017232443395559</v>
+        <v>1.049922993085019</v>
       </c>
       <c r="N9">
-        <v>1.016499192765946</v>
+        <v>1.038149715393319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9813162136384336</v>
+        <v>1.029330554088519</v>
       </c>
       <c r="D10">
-        <v>0.9926398952900555</v>
+        <v>1.030772347361021</v>
       </c>
       <c r="E10">
-        <v>0.9965554060574489</v>
+        <v>1.037742376263886</v>
       </c>
       <c r="F10">
-        <v>0.9964039261110446</v>
+        <v>1.045144700768771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039422851827798</v>
+        <v>1.031343949101374</v>
       </c>
       <c r="J10">
-        <v>1.010291245009246</v>
+        <v>1.035708790305116</v>
       </c>
       <c r="K10">
-        <v>1.007143322550471</v>
+        <v>1.034236728293135</v>
       </c>
       <c r="L10">
-        <v>1.01098713347938</v>
+        <v>1.041181761062283</v>
       </c>
       <c r="M10">
-        <v>1.010838413757732</v>
+        <v>1.048557941455348</v>
       </c>
       <c r="N10">
-        <v>1.011725974459185</v>
+        <v>1.037179615584808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9778400735458546</v>
+        <v>1.028674827173846</v>
       </c>
       <c r="D11">
-        <v>0.9898392518203032</v>
+        <v>1.030207716212438</v>
       </c>
       <c r="E11">
-        <v>0.9935815157079735</v>
+        <v>1.037138140423679</v>
       </c>
       <c r="F11">
-        <v>0.9929366808880948</v>
+        <v>1.044431261809553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038735272390217</v>
+        <v>1.031265441400117</v>
       </c>
       <c r="J11">
-        <v>1.008164699466503</v>
+        <v>1.035288968441272</v>
       </c>
       <c r="K11">
-        <v>1.004955362978938</v>
+        <v>1.033796426391248</v>
       </c>
       <c r="L11">
-        <v>1.008625498902516</v>
+        <v>1.04070102982481</v>
       </c>
       <c r="M11">
-        <v>1.007993041791667</v>
+        <v>1.047967388133618</v>
       </c>
       <c r="N11">
-        <v>1.009596408977853</v>
+        <v>1.036759197525763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9765330772220983</v>
+        <v>1.028431315342692</v>
       </c>
       <c r="D12">
-        <v>0.9887876395415439</v>
+        <v>1.029998092959099</v>
       </c>
       <c r="E12">
-        <v>0.9924648660148321</v>
+        <v>1.036913829803085</v>
       </c>
       <c r="F12">
-        <v>0.9916347374772838</v>
+        <v>1.044166447718897</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03847474156503</v>
+        <v>1.031236008728759</v>
       </c>
       <c r="J12">
-        <v>1.007364909326261</v>
+        <v>1.035132974812548</v>
       </c>
       <c r="K12">
-        <v>1.004132850125269</v>
+        <v>1.033632865559378</v>
       </c>
       <c r="L12">
-        <v>1.007737865276706</v>
+        <v>1.040522477686558</v>
       </c>
       <c r="M12">
-        <v>1.006923976923434</v>
+        <v>1.047748109627683</v>
       </c>
       <c r="N12">
-        <v>1.008795483043875</v>
+        <v>1.036602982368193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9768141621999972</v>
+        <v>1.028483546990556</v>
       </c>
       <c r="D13">
-        <v>0.9890137365503359</v>
+        <v>1.030043053050633</v>
       </c>
       <c r="E13">
-        <v>0.9927049456325294</v>
+        <v>1.036961939319235</v>
       </c>
       <c r="F13">
-        <v>0.9919146578917102</v>
+        <v>1.044223242680144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038530861466766</v>
+        <v>1.031242334412101</v>
       </c>
       <c r="J13">
-        <v>1.007536923040484</v>
+        <v>1.035166438367231</v>
       </c>
       <c r="K13">
-        <v>1.004309733930652</v>
+        <v>1.033667950493901</v>
       </c>
       <c r="L13">
-        <v>1.007928746019445</v>
+        <v>1.04056077713352</v>
       </c>
       <c r="M13">
-        <v>1.007153856360026</v>
+        <v>1.047795142011989</v>
       </c>
       <c r="N13">
-        <v>1.008967741037302</v>
+        <v>1.036636493444962</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9777323644688918</v>
+        <v>1.028654697298678</v>
       </c>
       <c r="D14">
-        <v>0.9897525598906609</v>
+        <v>1.030190386522963</v>
       </c>
       <c r="E14">
-        <v>0.9934894620524617</v>
+        <v>1.037119596191376</v>
       </c>
       <c r="F14">
-        <v>0.99282935325259</v>
+        <v>1.044409368336362</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038713842573829</v>
+        <v>1.031263014020701</v>
       </c>
       <c r="J14">
-        <v>1.008098793378828</v>
+        <v>1.035276075038469</v>
       </c>
       <c r="K14">
-        <v>1.00488757681533</v>
+        <v>1.033782906664804</v>
       </c>
       <c r="L14">
-        <v>1.008552342533258</v>
+        <v>1.040686270383161</v>
       </c>
       <c r="M14">
-        <v>1.007904924632721</v>
+        <v>1.047949260882257</v>
       </c>
       <c r="N14">
-        <v>1.009530409295974</v>
+        <v>1.03674628581285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9782959779661911</v>
+        <v>1.028760155866866</v>
       </c>
       <c r="D15">
-        <v>0.9902062537813182</v>
+        <v>1.03028117759968</v>
       </c>
       <c r="E15">
-        <v>0.993971216551089</v>
+        <v>1.037216750977099</v>
       </c>
       <c r="F15">
-        <v>0.9933910406442993</v>
+        <v>1.04452407154976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038825897778248</v>
+        <v>1.031275719457367</v>
       </c>
       <c r="J15">
-        <v>1.008443653755129</v>
+        <v>1.035343618794695</v>
       </c>
       <c r="K15">
-        <v>1.005242290170798</v>
+        <v>1.033853733242042</v>
       </c>
       <c r="L15">
-        <v>1.008935164065902</v>
+        <v>1.040763592639789</v>
       </c>
       <c r="M15">
-        <v>1.008366050366363</v>
+        <v>1.048044229133084</v>
       </c>
       <c r="N15">
-        <v>1.009875759413565</v>
+        <v>1.036813925488956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9815447467205797</v>
+        <v>1.029374080119301</v>
       </c>
       <c r="D16">
-        <v>0.9928242095090563</v>
+        <v>1.030809834866776</v>
       </c>
       <c r="E16">
-        <v>0.9967511247023541</v>
+        <v>1.037782495514173</v>
       </c>
       <c r="F16">
-        <v>0.9966321089602138</v>
+        <v>1.045192075813757</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039467773959757</v>
+        <v>1.031349121313849</v>
       </c>
       <c r="J16">
-        <v>1.010431016419167</v>
+        <v>1.035736645016319</v>
       </c>
       <c r="K16">
-        <v>1.007287182412123</v>
+        <v>1.034265947802061</v>
       </c>
       <c r="L16">
-        <v>1.011142436364293</v>
+        <v>1.04121366737402</v>
       </c>
       <c r="M16">
-        <v>1.011025581713531</v>
+        <v>1.048597145614895</v>
       </c>
       <c r="N16">
-        <v>1.011865944360539</v>
+        <v>1.037207509852896</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9835554095881193</v>
+        <v>1.029759274920173</v>
       </c>
       <c r="D17">
-        <v>0.99444684568175</v>
+        <v>1.031141635245758</v>
       </c>
       <c r="E17">
-        <v>0.998474181172703</v>
+        <v>1.038137601873891</v>
       </c>
       <c r="F17">
-        <v>0.9986409578619662</v>
+        <v>1.045611433082656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03986144519054</v>
+        <v>1.03139468024203</v>
       </c>
       <c r="J17">
-        <v>1.011660533836183</v>
+        <v>1.035983084632379</v>
       </c>
       <c r="K17">
-        <v>1.008552947467903</v>
+        <v>1.034524494955547</v>
       </c>
       <c r="L17">
-        <v>1.012509016515921</v>
+        <v>1.041496009495133</v>
       </c>
       <c r="M17">
-        <v>1.012672858044489</v>
+        <v>1.048944116050536</v>
       </c>
       <c r="N17">
-        <v>1.013097207833315</v>
+        <v>1.037454299441478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.98471866798078</v>
+        <v>1.029983987100134</v>
       </c>
       <c r="D18">
-        <v>0.9953864485411684</v>
+        <v>1.031335236098392</v>
       </c>
       <c r="E18">
-        <v>0.9994719520869214</v>
+        <v>1.038344811918443</v>
       </c>
       <c r="F18">
-        <v>0.9998042164888573</v>
+        <v>1.045856157880084</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040087891616008</v>
+        <v>1.031421079390954</v>
       </c>
       <c r="J18">
-        <v>1.0123716811215</v>
+        <v>1.036126794110152</v>
       </c>
       <c r="K18">
-        <v>1.009285295941196</v>
+        <v>1.034675292192868</v>
       </c>
       <c r="L18">
-        <v>1.013299806554923</v>
+        <v>1.041660702625134</v>
       </c>
       <c r="M18">
-        <v>1.013626330267156</v>
+        <v>1.049146548453513</v>
       </c>
       <c r="N18">
-        <v>1.013809365029348</v>
+        <v>1.037598213003193</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9851137184633642</v>
+        <v>1.030060613995972</v>
       </c>
       <c r="D19">
-        <v>0.9957056836717562</v>
+        <v>1.031401260372043</v>
       </c>
       <c r="E19">
-        <v>0.9998109536895191</v>
+        <v>1.038415479157141</v>
       </c>
       <c r="F19">
-        <v>1.000199443932874</v>
+        <v>1.045939623178849</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040164570361431</v>
+        <v>1.031430051190114</v>
       </c>
       <c r="J19">
-        <v>1.012613158835412</v>
+        <v>1.036175789442124</v>
       </c>
       <c r="K19">
-        <v>1.0095340126999</v>
+        <v>1.034726708614256</v>
       </c>
       <c r="L19">
-        <v>1.013568390161494</v>
+        <v>1.041716860018967</v>
       </c>
       <c r="M19">
-        <v>1.013950210652847</v>
+        <v>1.049215581201805</v>
       </c>
       <c r="N19">
-        <v>1.014051185669311</v>
+        <v>1.037647277914156</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9833406760305829</v>
+        <v>1.029717943584365</v>
       </c>
       <c r="D20">
-        <v>0.9942734651954159</v>
+        <v>1.031106029236329</v>
       </c>
       <c r="E20">
-        <v>0.9982900688150982</v>
+        <v>1.038099493780954</v>
       </c>
       <c r="F20">
-        <v>0.9984263088322823</v>
+        <v>1.045566427516454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039819537622824</v>
+        <v>1.031389810257189</v>
       </c>
       <c r="J20">
-        <v>1.011529243232117</v>
+        <v>1.035956647565762</v>
       </c>
       <c r="K20">
-        <v>1.008417761792035</v>
+        <v>1.034496756212427</v>
       </c>
       <c r="L20">
-        <v>1.012363052086902</v>
+        <v>1.041465716051049</v>
       </c>
       <c r="M20">
-        <v>1.012496886259201</v>
+        <v>1.048906884186307</v>
       </c>
       <c r="N20">
-        <v>1.012965730781533</v>
+        <v>1.037427824831193</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9774624203539761</v>
+        <v>1.028604296294917</v>
       </c>
       <c r="D21">
-        <v>0.989535312519026</v>
+        <v>1.030146997556366</v>
       </c>
       <c r="E21">
-        <v>0.993258778552069</v>
+        <v>1.037073166590686</v>
       </c>
       <c r="F21">
-        <v>0.9925603927823051</v>
+        <v>1.044354553749071</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038660102328084</v>
+        <v>1.031256931880439</v>
       </c>
       <c r="J21">
-        <v>1.0079336138329</v>
+        <v>1.035243791231659</v>
       </c>
       <c r="K21">
-        <v>1.004717691304569</v>
+        <v>1.033749055293338</v>
       </c>
       <c r="L21">
-        <v>1.008369000910934</v>
+        <v>1.040649315388606</v>
       </c>
       <c r="M21">
-        <v>1.007684095000374</v>
+        <v>1.047903874521701</v>
       </c>
       <c r="N21">
-        <v>1.009364995176144</v>
+        <v>1.03671395615933</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9736746157328255</v>
+        <v>1.027904416677535</v>
       </c>
       <c r="D22">
-        <v>0.9864903797566835</v>
+        <v>1.029544629443886</v>
       </c>
       <c r="E22">
-        <v>0.9900255436341695</v>
+        <v>1.036428623493886</v>
       </c>
       <c r="F22">
-        <v>0.9887905169233184</v>
+        <v>1.043593693921712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037901326691697</v>
+        <v>1.031171815851079</v>
       </c>
       <c r="J22">
-        <v>1.005615374584196</v>
+        <v>1.034795283301462</v>
       </c>
       <c r="K22">
-        <v>1.002334301001268</v>
+        <v>1.033278870620364</v>
       </c>
       <c r="L22">
-        <v>1.005797220374123</v>
+        <v>1.04013608657559</v>
       </c>
       <c r="M22">
-        <v>1.004587355228804</v>
+        <v>1.047273701649892</v>
       </c>
       <c r="N22">
-        <v>1.007043463761801</v>
+        <v>1.036264811296428</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9756916230864748</v>
+        <v>1.028275406125305</v>
       </c>
       <c r="D23">
-        <v>0.9881110085091436</v>
+        <v>1.029863897725564</v>
       </c>
       <c r="E23">
-        <v>0.9917463909606029</v>
+        <v>1.036770236636432</v>
       </c>
       <c r="F23">
-        <v>0.9907970232505779</v>
+        <v>1.043996936233533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038306452095595</v>
+        <v>1.031217086158526</v>
       </c>
       <c r="J23">
-        <v>1.006849941129286</v>
+        <v>1.035033074701055</v>
       </c>
       <c r="K23">
-        <v>1.003603357097494</v>
+        <v>1.033528131312214</v>
       </c>
       <c r="L23">
-        <v>1.007166497150079</v>
+        <v>1.040408151563269</v>
       </c>
       <c r="M23">
-        <v>1.006235928088996</v>
+        <v>1.047607724455804</v>
       </c>
       <c r="N23">
-        <v>1.008279783532992</v>
+        <v>1.036502940387084</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9834377342604123</v>
+        <v>1.029736619329068</v>
       </c>
       <c r="D24">
-        <v>0.9943518295101286</v>
+        <v>1.031122117851446</v>
       </c>
       <c r="E24">
-        <v>0.9983732836497077</v>
+        <v>1.038116712932899</v>
       </c>
       <c r="F24">
-        <v>0.9985233256041071</v>
+        <v>1.045586763221334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039838483649081</v>
+        <v>1.031392011333234</v>
       </c>
       <c r="J24">
-        <v>1.011588586340298</v>
+        <v>1.035968593445063</v>
       </c>
       <c r="K24">
-        <v>1.008478864734468</v>
+        <v>1.034509290184106</v>
       </c>
       <c r="L24">
-        <v>1.012429026600108</v>
+        <v>1.041479404330546</v>
       </c>
       <c r="M24">
-        <v>1.012576423020472</v>
+        <v>1.048923707507348</v>
       </c>
       <c r="N24">
-        <v>1.013025158163734</v>
+        <v>1.037439787675014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920555055171967</v>
+        <v>1.031433630284588</v>
       </c>
       <c r="D25">
-        <v>1.001326874586453</v>
+        <v>1.032584848890243</v>
       </c>
       <c r="E25">
-        <v>1.00578058543024</v>
+        <v>1.039682457246636</v>
       </c>
       <c r="F25">
-        <v>1.00715936978962</v>
+        <v>1.047436404895603</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041492261323547</v>
+        <v>1.031588151395588</v>
       </c>
       <c r="J25">
-        <v>1.016853223797507</v>
+        <v>1.037052851835506</v>
       </c>
       <c r="K25">
-        <v>1.013904627397705</v>
+        <v>1.035647516880526</v>
       </c>
       <c r="L25">
-        <v>1.01828982315843</v>
+        <v>1.042722834852088</v>
       </c>
       <c r="M25">
-        <v>1.019647553172275</v>
+        <v>1.05045280777636</v>
       </c>
       <c r="N25">
-        <v>1.018297272009995</v>
+        <v>1.038525585836737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032788237026491</v>
+        <v>0.9986585126768474</v>
       </c>
       <c r="D2">
-        <v>1.033753609314567</v>
+        <v>1.006694413214066</v>
       </c>
       <c r="E2">
-        <v>1.040933865598175</v>
+        <v>1.011481807801907</v>
       </c>
       <c r="F2">
-        <v>1.04891546687882</v>
+        <v>1.013807297130847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031739051617225</v>
+        <v>1.042716881991129</v>
       </c>
       <c r="J2">
-        <v>1.037916532413789</v>
+        <v>1.020879421566203</v>
       </c>
       <c r="K2">
-        <v>1.036555050890173</v>
+        <v>1.018061265474106</v>
       </c>
       <c r="L2">
-        <v>1.043714808676399</v>
+        <v>1.022783467196181</v>
       </c>
       <c r="M2">
-        <v>1.051673981004004</v>
+        <v>1.025077568222166</v>
       </c>
       <c r="N2">
-        <v>1.039390492940507</v>
+        <v>1.022329187441332</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033772418484684</v>
+        <v>1.003308888824844</v>
       </c>
       <c r="D3">
-        <v>1.034603428466856</v>
+        <v>1.010487031048785</v>
       </c>
       <c r="E3">
-        <v>1.041843977526422</v>
+        <v>1.01551100985808</v>
       </c>
       <c r="F3">
-        <v>1.049991585345143</v>
+        <v>1.01850661862532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031845397144248</v>
+        <v>1.04355380841894</v>
       </c>
       <c r="J3">
-        <v>1.03854297930417</v>
+        <v>1.023709754840714</v>
       </c>
       <c r="K3">
-        <v>1.037213807026992</v>
+        <v>1.0209874640331</v>
       </c>
       <c r="L3">
-        <v>1.044435183564187</v>
+        <v>1.025949197845489</v>
       </c>
       <c r="M3">
-        <v>1.052561558337982</v>
+        <v>1.028908055652344</v>
       </c>
       <c r="N3">
-        <v>1.040017829457327</v>
+        <v>1.025163540113738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034409532870776</v>
+        <v>1.006255262939226</v>
       </c>
       <c r="D4">
-        <v>1.035153865893396</v>
+        <v>1.012895345989319</v>
       </c>
       <c r="E4">
-        <v>1.042433560019326</v>
+        <v>1.018069993775548</v>
       </c>
       <c r="F4">
-        <v>1.050688914799804</v>
+        <v>1.021491845440224</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031912716451113</v>
+        <v>1.04407193161503</v>
       </c>
       <c r="J4">
-        <v>1.038948022213424</v>
+        <v>1.025500300728714</v>
       </c>
       <c r="K4">
-        <v>1.037639972262671</v>
+        <v>1.02284058753763</v>
       </c>
       <c r="L4">
-        <v>1.04490136304331</v>
+        <v>1.027955114018172</v>
       </c>
       <c r="M4">
-        <v>1.05313629161197</v>
+        <v>1.031337622113508</v>
       </c>
       <c r="N4">
-        <v>1.040423447573971</v>
+        <v>1.026956628782278</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034677442923119</v>
+        <v>1.00747944426138</v>
       </c>
       <c r="D5">
-        <v>1.035385399810697</v>
+        <v>1.013897220323329</v>
       </c>
       <c r="E5">
-        <v>1.042681582109349</v>
+        <v>1.019134661574011</v>
       </c>
       <c r="F5">
-        <v>1.050982312760457</v>
+        <v>1.022734028457335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031940659507005</v>
+        <v>1.044284247750346</v>
       </c>
       <c r="J5">
-        <v>1.039118227234224</v>
+        <v>1.026243566665892</v>
       </c>
       <c r="K5">
-        <v>1.037819108780152</v>
+        <v>1.023610293754708</v>
       </c>
       <c r="L5">
-        <v>1.045097355761279</v>
+        <v>1.028788553888388</v>
       </c>
       <c r="M5">
-        <v>1.053378007139896</v>
+        <v>1.032347681689535</v>
       </c>
       <c r="N5">
-        <v>1.040593894305423</v>
+        <v>1.02770095024234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034722430120167</v>
+        <v>1.007684156189584</v>
       </c>
       <c r="D6">
-        <v>1.035424282967569</v>
+        <v>1.014064829484253</v>
       </c>
       <c r="E6">
-        <v>1.042723235557573</v>
+        <v>1.019312782779892</v>
       </c>
       <c r="F6">
-        <v>1.051031589656362</v>
+        <v>1.022941859335974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0319453302633</v>
+        <v>1.044319576818735</v>
       </c>
       <c r="J6">
-        <v>1.039146800984524</v>
+        <v>1.026367816970581</v>
       </c>
       <c r="K6">
-        <v>1.037849185196282</v>
+        <v>1.023738991331717</v>
       </c>
       <c r="L6">
-        <v>1.045130264414714</v>
+        <v>1.028927924028853</v>
       </c>
       <c r="M6">
-        <v>1.053418597943431</v>
+        <v>1.032516622106809</v>
       </c>
       <c r="N6">
-        <v>1.040622508633726</v>
+        <v>1.027825376996714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034413112434877</v>
+        <v>1.006271676684885</v>
       </c>
       <c r="D7">
-        <v>1.035156959151381</v>
+        <v>1.012908774177571</v>
       </c>
       <c r="E7">
-        <v>1.042436873468864</v>
+        <v>1.018084263125879</v>
       </c>
       <c r="F7">
-        <v>1.050692834253169</v>
+        <v>1.021508493236521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031913091234797</v>
+        <v>1.044074790080725</v>
       </c>
       <c r="J7">
-        <v>1.038950296796987</v>
+        <v>1.025510269140174</v>
       </c>
       <c r="K7">
-        <v>1.037642365986376</v>
+        <v>1.022850908721714</v>
       </c>
       <c r="L7">
-        <v>1.044903981865921</v>
+        <v>1.027966288746547</v>
       </c>
       <c r="M7">
-        <v>1.053139521043984</v>
+        <v>1.03135116257792</v>
       </c>
       <c r="N7">
-        <v>1.040425725387703</v>
+        <v>1.026966611350025</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033120786747304</v>
+        <v>1.000243453988622</v>
       </c>
       <c r="D8">
-        <v>1.03404069564328</v>
+        <v>1.007985852934364</v>
       </c>
       <c r="E8">
-        <v>1.041241300949814</v>
+        <v>1.012853721743942</v>
       </c>
       <c r="F8">
-        <v>1.049278936744648</v>
+        <v>1.015407260685243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031775300515261</v>
+        <v>1.043004640350403</v>
       </c>
       <c r="J8">
-        <v>1.038128306819214</v>
+        <v>1.021844596519923</v>
       </c>
       <c r="K8">
-        <v>1.036777699579077</v>
+        <v>1.019058726524168</v>
       </c>
       <c r="L8">
-        <v>1.043958252161453</v>
+        <v>1.023862351222278</v>
       </c>
       <c r="M8">
-        <v>1.051973856240851</v>
+        <v>1.026382498130049</v>
       </c>
       <c r="N8">
-        <v>1.039602568089879</v>
+        <v>1.023295733054194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030845740066462</v>
+        <v>0.9891146007941711</v>
       </c>
       <c r="D9">
-        <v>1.032077938098091</v>
+        <v>0.9989427485904485</v>
       </c>
       <c r="E9">
-        <v>1.039139795265286</v>
+        <v>1.003248574108369</v>
       </c>
       <c r="F9">
-        <v>1.046795233225053</v>
+        <v>1.004207259217386</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031521078875475</v>
+        <v>1.040934477131734</v>
       </c>
       <c r="J9">
-        <v>1.036677514414278</v>
+        <v>1.015057694411136</v>
       </c>
       <c r="K9">
-        <v>1.035253363452922</v>
+        <v>1.012053002282237</v>
       </c>
       <c r="L9">
-        <v>1.042292164531359</v>
+        <v>1.01628916442826</v>
       </c>
       <c r="M9">
-        <v>1.049922993085019</v>
+        <v>1.017232443395558</v>
       </c>
       <c r="N9">
-        <v>1.038149715393319</v>
+        <v>1.016499192765945</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029330554088519</v>
+        <v>0.9813162136384327</v>
       </c>
       <c r="D10">
-        <v>1.030772347361021</v>
+        <v>0.9926398952900543</v>
       </c>
       <c r="E10">
-        <v>1.037742376263886</v>
+        <v>0.996555406057448</v>
       </c>
       <c r="F10">
-        <v>1.045144700768771</v>
+        <v>0.9964039261110437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031343949101374</v>
+        <v>1.039422851827797</v>
       </c>
       <c r="J10">
-        <v>1.035708790305116</v>
+        <v>1.010291245009245</v>
       </c>
       <c r="K10">
-        <v>1.034236728293135</v>
+        <v>1.00714332255047</v>
       </c>
       <c r="L10">
-        <v>1.041181761062283</v>
+        <v>1.010987133479379</v>
       </c>
       <c r="M10">
-        <v>1.048557941455348</v>
+        <v>1.010838413757731</v>
       </c>
       <c r="N10">
-        <v>1.037179615584808</v>
+        <v>1.011725974459184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028674827173846</v>
+        <v>0.9778400735458541</v>
       </c>
       <c r="D11">
-        <v>1.030207716212438</v>
+        <v>0.9898392518203031</v>
       </c>
       <c r="E11">
-        <v>1.037138140423679</v>
+        <v>0.993581515707973</v>
       </c>
       <c r="F11">
-        <v>1.044431261809553</v>
+        <v>0.9929366808880942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031265441400117</v>
+        <v>1.038735272390217</v>
       </c>
       <c r="J11">
-        <v>1.035288968441272</v>
+        <v>1.008164699466503</v>
       </c>
       <c r="K11">
-        <v>1.033796426391248</v>
+        <v>1.004955362978937</v>
       </c>
       <c r="L11">
-        <v>1.04070102982481</v>
+        <v>1.008625498902515</v>
       </c>
       <c r="M11">
-        <v>1.047967388133618</v>
+        <v>1.007993041791667</v>
       </c>
       <c r="N11">
-        <v>1.036759197525763</v>
+        <v>1.009596408977852</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028431315342692</v>
+        <v>0.9765330772220983</v>
       </c>
       <c r="D12">
-        <v>1.029998092959099</v>
+        <v>0.9887876395415441</v>
       </c>
       <c r="E12">
-        <v>1.036913829803085</v>
+        <v>0.9924648660148319</v>
       </c>
       <c r="F12">
-        <v>1.044166447718897</v>
+        <v>0.9916347374772837</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031236008728759</v>
+        <v>1.03847474156503</v>
       </c>
       <c r="J12">
-        <v>1.035132974812548</v>
+        <v>1.007364909326261</v>
       </c>
       <c r="K12">
-        <v>1.033632865559378</v>
+        <v>1.004132850125269</v>
       </c>
       <c r="L12">
-        <v>1.040522477686558</v>
+        <v>1.007737865276706</v>
       </c>
       <c r="M12">
-        <v>1.047748109627683</v>
+        <v>1.006923976923434</v>
       </c>
       <c r="N12">
-        <v>1.036602982368193</v>
+        <v>1.008795483043875</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028483546990556</v>
+        <v>0.9768141621999974</v>
       </c>
       <c r="D13">
-        <v>1.030043053050633</v>
+        <v>0.989013736550336</v>
       </c>
       <c r="E13">
-        <v>1.036961939319235</v>
+        <v>0.9927049456325293</v>
       </c>
       <c r="F13">
-        <v>1.044223242680144</v>
+        <v>0.9919146578917101</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031242334412101</v>
+        <v>1.038530861466766</v>
       </c>
       <c r="J13">
-        <v>1.035166438367231</v>
+        <v>1.007536923040484</v>
       </c>
       <c r="K13">
-        <v>1.033667950493901</v>
+        <v>1.004309733930652</v>
       </c>
       <c r="L13">
-        <v>1.04056077713352</v>
+        <v>1.007928746019445</v>
       </c>
       <c r="M13">
-        <v>1.047795142011989</v>
+        <v>1.007153856360026</v>
       </c>
       <c r="N13">
-        <v>1.036636493444962</v>
+        <v>1.008967741037302</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028654697298678</v>
+        <v>0.9777323644688918</v>
       </c>
       <c r="D14">
-        <v>1.030190386522963</v>
+        <v>0.989752559890661</v>
       </c>
       <c r="E14">
-        <v>1.037119596191376</v>
+        <v>0.9934894620524615</v>
       </c>
       <c r="F14">
-        <v>1.044409368336362</v>
+        <v>0.9928293532525904</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031263014020701</v>
+        <v>1.038713842573829</v>
       </c>
       <c r="J14">
-        <v>1.035276075038469</v>
+        <v>1.008098793378828</v>
       </c>
       <c r="K14">
-        <v>1.033782906664804</v>
+        <v>1.004887576815331</v>
       </c>
       <c r="L14">
-        <v>1.040686270383161</v>
+        <v>1.008552342533258</v>
       </c>
       <c r="M14">
-        <v>1.047949260882257</v>
+        <v>1.007904924632721</v>
       </c>
       <c r="N14">
-        <v>1.03674628581285</v>
+        <v>1.009530409295974</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028760155866866</v>
+        <v>0.9782959779661906</v>
       </c>
       <c r="D15">
-        <v>1.03028117759968</v>
+        <v>0.9902062537813177</v>
       </c>
       <c r="E15">
-        <v>1.037216750977099</v>
+        <v>0.9939712165510887</v>
       </c>
       <c r="F15">
-        <v>1.04452407154976</v>
+        <v>0.9933910406442991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031275719457367</v>
+        <v>1.038825897778248</v>
       </c>
       <c r="J15">
-        <v>1.035343618794695</v>
+        <v>1.008443653755128</v>
       </c>
       <c r="K15">
-        <v>1.033853733242042</v>
+        <v>1.005242290170798</v>
       </c>
       <c r="L15">
-        <v>1.040763592639789</v>
+        <v>1.008935164065902</v>
       </c>
       <c r="M15">
-        <v>1.048044229133084</v>
+        <v>1.008366050366363</v>
       </c>
       <c r="N15">
-        <v>1.036813925488956</v>
+        <v>1.009875759413564</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029374080119301</v>
+        <v>0.9815447467205788</v>
       </c>
       <c r="D16">
-        <v>1.030809834866776</v>
+        <v>0.9928242095090555</v>
       </c>
       <c r="E16">
-        <v>1.037782495514173</v>
+        <v>0.9967511247023532</v>
       </c>
       <c r="F16">
-        <v>1.045192075813757</v>
+        <v>0.9966321089602133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031349121313849</v>
+        <v>1.039467773959757</v>
       </c>
       <c r="J16">
-        <v>1.035736645016319</v>
+        <v>1.010431016419166</v>
       </c>
       <c r="K16">
-        <v>1.034265947802061</v>
+        <v>1.007287182412122</v>
       </c>
       <c r="L16">
-        <v>1.04121366737402</v>
+        <v>1.011142436364292</v>
       </c>
       <c r="M16">
-        <v>1.048597145614895</v>
+        <v>1.01102558171353</v>
       </c>
       <c r="N16">
-        <v>1.037207509852896</v>
+        <v>1.011865944360538</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029759274920173</v>
+        <v>0.9835554095881185</v>
       </c>
       <c r="D17">
-        <v>1.031141635245758</v>
+        <v>0.9944468456817495</v>
       </c>
       <c r="E17">
-        <v>1.038137601873891</v>
+        <v>0.998474181172702</v>
       </c>
       <c r="F17">
-        <v>1.045611433082656</v>
+        <v>0.9986409578619652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03139468024203</v>
+        <v>1.03986144519054</v>
       </c>
       <c r="J17">
-        <v>1.035983084632379</v>
+        <v>1.011660533836182</v>
       </c>
       <c r="K17">
-        <v>1.034524494955547</v>
+        <v>1.008552947467903</v>
       </c>
       <c r="L17">
-        <v>1.041496009495133</v>
+        <v>1.01250901651592</v>
       </c>
       <c r="M17">
-        <v>1.048944116050536</v>
+        <v>1.012672858044488</v>
       </c>
       <c r="N17">
-        <v>1.037454299441478</v>
+        <v>1.013097207833314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029983987100134</v>
+        <v>0.9847186679807801</v>
       </c>
       <c r="D18">
-        <v>1.031335236098392</v>
+        <v>0.9953864485411685</v>
       </c>
       <c r="E18">
-        <v>1.038344811918443</v>
+        <v>0.9994719520869211</v>
       </c>
       <c r="F18">
-        <v>1.045856157880084</v>
+        <v>0.9998042164888571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031421079390954</v>
+        <v>1.040087891616008</v>
       </c>
       <c r="J18">
-        <v>1.036126794110152</v>
+        <v>1.0123716811215</v>
       </c>
       <c r="K18">
-        <v>1.034675292192868</v>
+        <v>1.009285295941197</v>
       </c>
       <c r="L18">
-        <v>1.041660702625134</v>
+        <v>1.013299806554923</v>
       </c>
       <c r="M18">
-        <v>1.049146548453513</v>
+        <v>1.013626330267155</v>
       </c>
       <c r="N18">
-        <v>1.037598213003193</v>
+        <v>1.013809365029348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030060613995972</v>
+        <v>0.9851137184633638</v>
       </c>
       <c r="D19">
-        <v>1.031401260372043</v>
+        <v>0.9957056836717557</v>
       </c>
       <c r="E19">
-        <v>1.038415479157141</v>
+        <v>0.9998109536895186</v>
       </c>
       <c r="F19">
-        <v>1.045939623178849</v>
+        <v>1.000199443932874</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031430051190114</v>
+        <v>1.040164570361431</v>
       </c>
       <c r="J19">
-        <v>1.036175789442124</v>
+        <v>1.012613158835412</v>
       </c>
       <c r="K19">
-        <v>1.034726708614256</v>
+        <v>1.009534012699899</v>
       </c>
       <c r="L19">
-        <v>1.041716860018967</v>
+        <v>1.013568390161494</v>
       </c>
       <c r="M19">
-        <v>1.049215581201805</v>
+        <v>1.013950210652846</v>
       </c>
       <c r="N19">
-        <v>1.037647277914156</v>
+        <v>1.014051185669311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029717943584365</v>
+        <v>0.9833406760305832</v>
       </c>
       <c r="D20">
-        <v>1.031106029236329</v>
+        <v>0.994273465195416</v>
       </c>
       <c r="E20">
-        <v>1.038099493780954</v>
+        <v>0.9982900688150984</v>
       </c>
       <c r="F20">
-        <v>1.045566427516454</v>
+        <v>0.9984263088322828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031389810257189</v>
+        <v>1.039819537622824</v>
       </c>
       <c r="J20">
-        <v>1.035956647565762</v>
+        <v>1.011529243232118</v>
       </c>
       <c r="K20">
-        <v>1.034496756212427</v>
+        <v>1.008417761792035</v>
       </c>
       <c r="L20">
-        <v>1.041465716051049</v>
+        <v>1.012363052086902</v>
       </c>
       <c r="M20">
-        <v>1.048906884186307</v>
+        <v>1.012496886259201</v>
       </c>
       <c r="N20">
-        <v>1.037427824831193</v>
+        <v>1.012965730781533</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028604296294917</v>
+        <v>0.9774624203539759</v>
       </c>
       <c r="D21">
-        <v>1.030146997556366</v>
+        <v>0.9895353125190258</v>
       </c>
       <c r="E21">
-        <v>1.037073166590686</v>
+        <v>0.9932587785520687</v>
       </c>
       <c r="F21">
-        <v>1.044354553749071</v>
+        <v>0.9925603927823046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031256931880439</v>
+        <v>1.038660102328084</v>
       </c>
       <c r="J21">
-        <v>1.035243791231659</v>
+        <v>1.0079336138329</v>
       </c>
       <c r="K21">
-        <v>1.033749055293338</v>
+        <v>1.004717691304569</v>
       </c>
       <c r="L21">
-        <v>1.040649315388606</v>
+        <v>1.008369000910934</v>
       </c>
       <c r="M21">
-        <v>1.047903874521701</v>
+        <v>1.007684095000374</v>
       </c>
       <c r="N21">
-        <v>1.03671395615933</v>
+        <v>1.009364995176144</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027904416677535</v>
+        <v>0.9736746157328252</v>
       </c>
       <c r="D22">
-        <v>1.029544629443886</v>
+        <v>0.9864903797566835</v>
       </c>
       <c r="E22">
-        <v>1.036428623493886</v>
+        <v>0.9900255436341693</v>
       </c>
       <c r="F22">
-        <v>1.043593693921712</v>
+        <v>0.9887905169233181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031171815851079</v>
+        <v>1.037901326691696</v>
       </c>
       <c r="J22">
-        <v>1.034795283301462</v>
+        <v>1.005615374584196</v>
       </c>
       <c r="K22">
-        <v>1.033278870620364</v>
+        <v>1.002334301001269</v>
       </c>
       <c r="L22">
-        <v>1.04013608657559</v>
+        <v>1.005797220374123</v>
       </c>
       <c r="M22">
-        <v>1.047273701649892</v>
+        <v>1.004587355228803</v>
       </c>
       <c r="N22">
-        <v>1.036264811296428</v>
+        <v>1.007043463761801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028275406125305</v>
+        <v>0.9756916230864736</v>
       </c>
       <c r="D23">
-        <v>1.029863897725564</v>
+        <v>0.9881110085091424</v>
       </c>
       <c r="E23">
-        <v>1.036770236636432</v>
+        <v>0.9917463909606016</v>
       </c>
       <c r="F23">
-        <v>1.043996936233533</v>
+        <v>0.9907970232505765</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031217086158526</v>
+        <v>1.038306452095594</v>
       </c>
       <c r="J23">
-        <v>1.035033074701055</v>
+        <v>1.006849941129285</v>
       </c>
       <c r="K23">
-        <v>1.033528131312214</v>
+        <v>1.003603357097493</v>
       </c>
       <c r="L23">
-        <v>1.040408151563269</v>
+        <v>1.007166497150078</v>
       </c>
       <c r="M23">
-        <v>1.047607724455804</v>
+        <v>1.006235928088995</v>
       </c>
       <c r="N23">
-        <v>1.036502940387084</v>
+        <v>1.008279783532991</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029736619329068</v>
+        <v>0.9834377342604116</v>
       </c>
       <c r="D24">
-        <v>1.031122117851446</v>
+        <v>0.9943518295101282</v>
       </c>
       <c r="E24">
-        <v>1.038116712932899</v>
+        <v>0.9983732836497071</v>
       </c>
       <c r="F24">
-        <v>1.045586763221334</v>
+        <v>0.9985233256041065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031392011333234</v>
+        <v>1.039838483649081</v>
       </c>
       <c r="J24">
-        <v>1.035968593445063</v>
+        <v>1.011588586340298</v>
       </c>
       <c r="K24">
-        <v>1.034509290184106</v>
+        <v>1.008478864734468</v>
       </c>
       <c r="L24">
-        <v>1.041479404330546</v>
+        <v>1.012429026600108</v>
       </c>
       <c r="M24">
-        <v>1.048923707507348</v>
+        <v>1.012576423020472</v>
       </c>
       <c r="N24">
-        <v>1.037439787675014</v>
+        <v>1.013025158163734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031433630284588</v>
+        <v>0.9920555055171966</v>
       </c>
       <c r="D25">
-        <v>1.032584848890243</v>
+        <v>1.001326874586453</v>
       </c>
       <c r="E25">
-        <v>1.039682457246636</v>
+        <v>1.005780585430239</v>
       </c>
       <c r="F25">
-        <v>1.047436404895603</v>
+        <v>1.00715936978962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031588151395588</v>
+        <v>1.041492261323547</v>
       </c>
       <c r="J25">
-        <v>1.037052851835506</v>
+        <v>1.016853223797507</v>
       </c>
       <c r="K25">
-        <v>1.035647516880526</v>
+        <v>1.013904627397705</v>
       </c>
       <c r="L25">
-        <v>1.042722834852088</v>
+        <v>1.01828982315843</v>
       </c>
       <c r="M25">
-        <v>1.05045280777636</v>
+        <v>1.019647553172275</v>
       </c>
       <c r="N25">
-        <v>1.038525585836737</v>
+        <v>1.018297272009995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9986585126768474</v>
+        <v>1.012665989999342</v>
       </c>
       <c r="D2">
-        <v>1.006694413214066</v>
+        <v>1.023088152506478</v>
       </c>
       <c r="E2">
-        <v>1.011481807801907</v>
+        <v>1.026461039994364</v>
       </c>
       <c r="F2">
-        <v>1.013807297130847</v>
+        <v>1.035576088327238</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042716881991129</v>
+        <v>1.048429400071504</v>
       </c>
       <c r="J2">
-        <v>1.020879421566203</v>
+        <v>1.034474352412003</v>
       </c>
       <c r="K2">
-        <v>1.018061265474106</v>
+        <v>1.03423493721557</v>
       </c>
       <c r="L2">
-        <v>1.022783467196181</v>
+        <v>1.037563639816666</v>
       </c>
       <c r="M2">
-        <v>1.025077568222166</v>
+        <v>1.046561080275439</v>
       </c>
       <c r="N2">
-        <v>1.022329187441332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014937289198242</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045422345822832</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035277302453279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003308888824844</v>
+        <v>1.016855932309359</v>
       </c>
       <c r="D3">
-        <v>1.010487031048785</v>
+        <v>1.026199494466445</v>
       </c>
       <c r="E3">
-        <v>1.01551100985808</v>
+        <v>1.029739849951177</v>
       </c>
       <c r="F3">
-        <v>1.01850661862532</v>
+        <v>1.038653788542277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04355380841894</v>
+        <v>1.049223688669147</v>
       </c>
       <c r="J3">
-        <v>1.023709754840714</v>
+        <v>1.036897401716417</v>
       </c>
       <c r="K3">
-        <v>1.0209874640331</v>
+        <v>1.036507773020322</v>
       </c>
       <c r="L3">
-        <v>1.025949197845489</v>
+        <v>1.040005835633028</v>
       </c>
       <c r="M3">
-        <v>1.028908055652344</v>
+        <v>1.048814868104808</v>
       </c>
       <c r="N3">
-        <v>1.025163540113738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015790206991693</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047206053541853</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036881735679545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006255262939226</v>
+        <v>1.019516826349516</v>
       </c>
       <c r="D4">
-        <v>1.012895345989319</v>
+        <v>1.028182020890875</v>
       </c>
       <c r="E4">
-        <v>1.018069993775548</v>
+        <v>1.03182801247458</v>
       </c>
       <c r="F4">
-        <v>1.021491845440224</v>
+        <v>1.04061526552889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04407193161503</v>
+        <v>1.049717086470436</v>
       </c>
       <c r="J4">
-        <v>1.025500300728714</v>
+        <v>1.038434130956365</v>
       </c>
       <c r="K4">
-        <v>1.02284058753763</v>
+        <v>1.03795180784744</v>
       </c>
       <c r="L4">
-        <v>1.027955114018172</v>
+        <v>1.041556897448424</v>
       </c>
       <c r="M4">
-        <v>1.031337622113508</v>
+        <v>1.050247018729378</v>
       </c>
       <c r="N4">
-        <v>1.026956628782278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016330727201928</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04833949345209</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037903699789895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00747944426138</v>
+        <v>1.02062938437648</v>
       </c>
       <c r="D5">
-        <v>1.013897220323329</v>
+        <v>1.029015552534455</v>
       </c>
       <c r="E5">
-        <v>1.019134661574011</v>
+        <v>1.032702833056998</v>
       </c>
       <c r="F5">
-        <v>1.022734028457335</v>
+        <v>1.041436604322836</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044284247750346</v>
+        <v>1.049921924702347</v>
       </c>
       <c r="J5">
-        <v>1.026243566665892</v>
+        <v>1.039078351917726</v>
       </c>
       <c r="K5">
-        <v>1.023610293754708</v>
+        <v>1.03855980991619</v>
       </c>
       <c r="L5">
-        <v>1.028788553888388</v>
+        <v>1.04220683736844</v>
       </c>
       <c r="M5">
-        <v>1.032347681689535</v>
+        <v>1.050846656868955</v>
       </c>
       <c r="N5">
-        <v>1.02770095024234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.0165578113386</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048814061594575</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038340798387595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007684156189584</v>
+        <v>1.020822302836162</v>
       </c>
       <c r="D6">
-        <v>1.014064829484253</v>
+        <v>1.02916387484669</v>
       </c>
       <c r="E6">
-        <v>1.019312782779892</v>
+        <v>1.032855033756611</v>
       </c>
       <c r="F6">
-        <v>1.022941859335974</v>
+        <v>1.041578627628094</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044319576818735</v>
+        <v>1.049958793302866</v>
       </c>
       <c r="J6">
-        <v>1.026367816970581</v>
+        <v>1.039192728588252</v>
       </c>
       <c r="K6">
-        <v>1.023738991331717</v>
+        <v>1.038670222751004</v>
       </c>
       <c r="L6">
-        <v>1.028927924028853</v>
+        <v>1.042321272923656</v>
       </c>
       <c r="M6">
-        <v>1.032516622106809</v>
+        <v>1.050951457647963</v>
       </c>
       <c r="N6">
-        <v>1.027825376996714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01659884372511</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048897003437447</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038427633265965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006271676684885</v>
+        <v>1.019550109546704</v>
       </c>
       <c r="D7">
-        <v>1.012908774177571</v>
+        <v>1.02821686346639</v>
       </c>
       <c r="E7">
-        <v>1.018084263125879</v>
+        <v>1.031855341154838</v>
       </c>
       <c r="F7">
-        <v>1.021508493236521</v>
+        <v>1.040638512296973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044074790080725</v>
+        <v>1.04972731489428</v>
       </c>
       <c r="J7">
-        <v>1.025510269140174</v>
+        <v>1.038460693243275</v>
       </c>
       <c r="K7">
-        <v>1.022850908721714</v>
+        <v>1.037983366580947</v>
       </c>
       <c r="L7">
-        <v>1.027966288746547</v>
+        <v>1.041581043223318</v>
       </c>
       <c r="M7">
-        <v>1.03135116257792</v>
+        <v>1.050267165856144</v>
       </c>
       <c r="N7">
-        <v>1.026966611350025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016342061768593</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048355438380955</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03794617597036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000243453988622</v>
+        <v>1.014116125434911</v>
       </c>
       <c r="D8">
-        <v>1.007985852934364</v>
+        <v>1.024176007465931</v>
       </c>
       <c r="E8">
-        <v>1.012853721743942</v>
+        <v>1.027596179115044</v>
       </c>
       <c r="F8">
-        <v>1.015407260685243</v>
+        <v>1.036638241320458</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043004640350403</v>
+        <v>1.048711717931524</v>
       </c>
       <c r="J8">
-        <v>1.021844596519923</v>
+        <v>1.035322625408406</v>
       </c>
       <c r="K8">
-        <v>1.019058726524168</v>
+        <v>1.035038162126818</v>
       </c>
       <c r="L8">
-        <v>1.023862351222278</v>
+        <v>1.038414879967967</v>
       </c>
       <c r="M8">
-        <v>1.026382498130049</v>
+        <v>1.047343781344315</v>
       </c>
       <c r="N8">
-        <v>1.023295733054194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015238575241212</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046041796786372</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035868252658348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891146007941711</v>
+        <v>1.00410716924429</v>
       </c>
       <c r="D9">
-        <v>0.9989427485904485</v>
+        <v>1.016771268363377</v>
       </c>
       <c r="E9">
-        <v>1.003248574108369</v>
+        <v>1.019797953844791</v>
       </c>
       <c r="F9">
-        <v>1.004207259217386</v>
+        <v>1.029329455246504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040934477131734</v>
+        <v>1.046748758879056</v>
       </c>
       <c r="J9">
-        <v>1.015057694411136</v>
+        <v>1.029515721792319</v>
       </c>
       <c r="K9">
-        <v>1.012053002282237</v>
+        <v>1.029597979975608</v>
       </c>
       <c r="L9">
-        <v>1.01628916442826</v>
+        <v>1.03257778655414</v>
       </c>
       <c r="M9">
-        <v>1.017232443395558</v>
+        <v>1.041963952778424</v>
       </c>
       <c r="N9">
-        <v>1.016499192765945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013190175263112</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041784043202924</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032018441741037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9813162136384327</v>
+        <v>0.9972251505889159</v>
       </c>
       <c r="D10">
-        <v>0.9926398952900543</v>
+        <v>1.011731688492905</v>
       </c>
       <c r="E10">
-        <v>0.996555406057448</v>
+        <v>1.014508347655015</v>
       </c>
       <c r="F10">
-        <v>0.9964039261110437</v>
+        <v>1.024427004937531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039422851827797</v>
+        <v>1.045368643285932</v>
       </c>
       <c r="J10">
-        <v>1.010291245009245</v>
+        <v>1.025549296319672</v>
       </c>
       <c r="K10">
-        <v>1.00714332255047</v>
+        <v>1.025892305842347</v>
       </c>
       <c r="L10">
-        <v>1.010987133479379</v>
+        <v>1.028620498888132</v>
       </c>
       <c r="M10">
-        <v>1.010838413757731</v>
+        <v>1.038368797155028</v>
       </c>
       <c r="N10">
-        <v>1.011725974459184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011798924558358</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038990124480628</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029415187052022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9778400735458541</v>
+        <v>0.9948661832398005</v>
       </c>
       <c r="D11">
-        <v>0.9898392518203031</v>
+        <v>1.010104681102969</v>
       </c>
       <c r="E11">
-        <v>0.993581515707973</v>
+        <v>1.012997363494058</v>
       </c>
       <c r="F11">
-        <v>0.9929366808880942</v>
+        <v>1.02340881970507</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038735272390217</v>
+        <v>1.045075177593382</v>
       </c>
       <c r="J11">
-        <v>1.008164699466503</v>
+        <v>1.024454105632622</v>
       </c>
       <c r="K11">
-        <v>1.004955362978937</v>
+        <v>1.024838521077186</v>
       </c>
       <c r="L11">
-        <v>1.008625498902515</v>
+        <v>1.027678261667629</v>
       </c>
       <c r="M11">
-        <v>1.007993041791667</v>
+        <v>1.037902381904829</v>
       </c>
       <c r="N11">
-        <v>1.009596408977852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011493366877796</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039056926745725</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028703219499308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9765330772220983</v>
+        <v>0.9942319770389687</v>
       </c>
       <c r="D12">
-        <v>0.9887876395415441</v>
+        <v>1.00970408894136</v>
       </c>
       <c r="E12">
-        <v>0.9924648660148319</v>
+        <v>1.01273011981793</v>
       </c>
       <c r="F12">
-        <v>0.9916347374772837</v>
+        <v>1.023442720707904</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03847474156503</v>
+        <v>1.045085661184923</v>
       </c>
       <c r="J12">
-        <v>1.007364909326261</v>
+        <v>1.024282472068172</v>
       </c>
       <c r="K12">
-        <v>1.004132850125269</v>
+        <v>1.024647705865458</v>
       </c>
       <c r="L12">
-        <v>1.007737865276706</v>
+        <v>1.027617428256305</v>
       </c>
       <c r="M12">
-        <v>1.006923976923434</v>
+        <v>1.038134167070007</v>
       </c>
       <c r="N12">
-        <v>1.008795483043875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011496258231887</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039566388795437</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028568304813515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768141621999974</v>
+        <v>0.9949090734576074</v>
       </c>
       <c r="D13">
-        <v>0.989013736550336</v>
+        <v>1.010249894899237</v>
       </c>
       <c r="E13">
-        <v>0.9927049456325293</v>
+        <v>1.013425335220053</v>
       </c>
       <c r="F13">
-        <v>0.9919146578917101</v>
+        <v>1.024317129892188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038530861466766</v>
+        <v>1.045345781381754</v>
       </c>
       <c r="J13">
-        <v>1.007536923040484</v>
+        <v>1.024837048688559</v>
       </c>
       <c r="K13">
-        <v>1.004309733930652</v>
+        <v>1.025139939318532</v>
       </c>
       <c r="L13">
-        <v>1.007928746019445</v>
+        <v>1.028256583002778</v>
       </c>
       <c r="M13">
-        <v>1.007153856360026</v>
+        <v>1.038950302460596</v>
       </c>
       <c r="N13">
-        <v>1.008967741037302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011748631657309</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040488090024193</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02891382199857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9777323644688918</v>
+        <v>0.995977854881948</v>
       </c>
       <c r="D14">
-        <v>0.989752559890661</v>
+        <v>1.011063264548118</v>
       </c>
       <c r="E14">
-        <v>0.9934894620524615</v>
+        <v>1.014347271117882</v>
       </c>
       <c r="F14">
-        <v>0.9928293532525904</v>
+        <v>1.025308615600914</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038713842573829</v>
+        <v>1.045640698130576</v>
       </c>
       <c r="J14">
-        <v>1.008098793378828</v>
+        <v>1.025554817109112</v>
       </c>
       <c r="K14">
-        <v>1.004887576815331</v>
+        <v>1.025796216153055</v>
       </c>
       <c r="L14">
-        <v>1.008552342533258</v>
+        <v>1.029020218688264</v>
       </c>
       <c r="M14">
-        <v>1.007904924632721</v>
+        <v>1.039784891175797</v>
       </c>
       <c r="N14">
-        <v>1.009530409295974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012038694293658</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041320947338919</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029379274745614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9782959779661906</v>
+        <v>0.9965323996525592</v>
       </c>
       <c r="D15">
-        <v>0.9902062537813177</v>
+        <v>1.011478027462711</v>
       </c>
       <c r="E15">
-        <v>0.9939712165510887</v>
+        <v>1.014793486636522</v>
       </c>
       <c r="F15">
-        <v>0.9933910406442991</v>
+        <v>1.025751191042134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038825897778248</v>
+        <v>1.045771430060645</v>
       </c>
       <c r="J15">
-        <v>1.008443653755128</v>
+        <v>1.025898182948149</v>
       </c>
       <c r="K15">
-        <v>1.005242290170798</v>
+        <v>1.02611593973779</v>
       </c>
       <c r="L15">
-        <v>1.008935164065902</v>
+        <v>1.029371300990767</v>
       </c>
       <c r="M15">
-        <v>1.008366050366363</v>
+        <v>1.040133961344363</v>
       </c>
       <c r="N15">
-        <v>1.009875759413564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012167921844235</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041634346146859</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029611249884034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9815447467205788</v>
+        <v>0.999319733797591</v>
       </c>
       <c r="D16">
-        <v>0.9928242095090555</v>
+        <v>1.013508039781753</v>
       </c>
       <c r="E16">
-        <v>0.9967511247023532</v>
+        <v>1.016905646823268</v>
       </c>
       <c r="F16">
-        <v>0.9966321089602133</v>
+        <v>1.027691182490583</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039467773959757</v>
+        <v>1.046322073259644</v>
       </c>
       <c r="J16">
-        <v>1.010431016419166</v>
+        <v>1.02748349587761</v>
       </c>
       <c r="K16">
-        <v>1.007287182412122</v>
+        <v>1.0276016372277</v>
       </c>
       <c r="L16">
-        <v>1.011142436364292</v>
+        <v>1.030940427332981</v>
       </c>
       <c r="M16">
-        <v>1.01102558171353</v>
+        <v>1.041542573521447</v>
       </c>
       <c r="N16">
-        <v>1.011865944360538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01271276300761</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042709048328263</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030664891024652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9835554095881185</v>
+        <v>1.000900254697829</v>
       </c>
       <c r="D17">
-        <v>0.9944468456817495</v>
+        <v>1.014642744588965</v>
       </c>
       <c r="E17">
-        <v>0.998474181172702</v>
+        <v>1.01804487212494</v>
       </c>
       <c r="F17">
-        <v>0.9986409578619652</v>
+        <v>1.028656321347269</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03986144519054</v>
+        <v>1.046587534010266</v>
       </c>
       <c r="J17">
-        <v>1.011660533836182</v>
+        <v>1.02832388135008</v>
       </c>
       <c r="K17">
-        <v>1.008552947467903</v>
+        <v>1.028398813759136</v>
       </c>
       <c r="L17">
-        <v>1.01250901651592</v>
+        <v>1.03174373775946</v>
       </c>
       <c r="M17">
-        <v>1.012672858044488</v>
+        <v>1.042179888961278</v>
       </c>
       <c r="N17">
-        <v>1.013097207833314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012978781439352</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043083970436192</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031231134168751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9847186679807801</v>
+        <v>1.001569017815809</v>
       </c>
       <c r="D18">
-        <v>0.9953864485411685</v>
+        <v>1.015084815863686</v>
       </c>
       <c r="E18">
-        <v>0.9994719520869211</v>
+        <v>1.018416870850629</v>
       </c>
       <c r="F18">
-        <v>0.9998042164888571</v>
+        <v>1.028816250990868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040087891616008</v>
+        <v>1.046621007560223</v>
       </c>
       <c r="J18">
-        <v>1.0123716811215</v>
+        <v>1.028572880314303</v>
       </c>
       <c r="K18">
-        <v>1.009285295941197</v>
+        <v>1.028648148597647</v>
       </c>
       <c r="L18">
-        <v>1.013299806554923</v>
+        <v>1.031925101091562</v>
       </c>
       <c r="M18">
-        <v>1.013626330267155</v>
+        <v>1.042155449876943</v>
       </c>
       <c r="N18">
-        <v>1.013809365029348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013017200975048</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04282738879532</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031395709342849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9851137184633638</v>
+        <v>1.001445364464412</v>
       </c>
       <c r="D19">
-        <v>0.9957056836717557</v>
+        <v>1.014940559144552</v>
       </c>
       <c r="E19">
-        <v>0.9998109536895186</v>
+        <v>1.018117655782492</v>
       </c>
       <c r="F19">
-        <v>1.000199443932874</v>
+        <v>1.028261162398835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040164570361431</v>
+        <v>1.046461460725515</v>
       </c>
       <c r="J19">
-        <v>1.012613158835412</v>
+        <v>1.02831957004565</v>
       </c>
       <c r="K19">
-        <v>1.009534012699899</v>
+        <v>1.028443100075137</v>
       </c>
       <c r="L19">
-        <v>1.013568390161494</v>
+        <v>1.031567908196955</v>
       </c>
       <c r="M19">
-        <v>1.013950210652846</v>
+        <v>1.0415472461108</v>
       </c>
       <c r="N19">
-        <v>1.014051185669311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012869131009732</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042021583539551</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031257170007634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833406760305832</v>
+        <v>0.9990632972851432</v>
       </c>
       <c r="D20">
-        <v>0.994273465195416</v>
+        <v>1.013100859475814</v>
       </c>
       <c r="E20">
-        <v>0.9982900688150984</v>
+        <v>1.015924406660134</v>
       </c>
       <c r="F20">
-        <v>0.9984263088322828</v>
+        <v>1.025735158162659</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039819537622824</v>
+        <v>1.045752901288566</v>
       </c>
       <c r="J20">
-        <v>1.011529243232118</v>
+        <v>1.026630375065145</v>
       </c>
       <c r="K20">
-        <v>1.008417761792035</v>
+        <v>1.026917192381319</v>
       </c>
       <c r="L20">
-        <v>1.012363052086902</v>
+        <v>1.029692907105414</v>
       </c>
       <c r="M20">
-        <v>1.012496886259201</v>
+        <v>1.039340092605621</v>
       </c>
       <c r="N20">
-        <v>1.012965730781533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012184693122456</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039748259534645</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030182236464809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9774624203539759</v>
+        <v>0.993754407279812</v>
       </c>
       <c r="D21">
-        <v>0.9895353125190258</v>
+        <v>1.009206269251079</v>
       </c>
       <c r="E21">
-        <v>0.9932587785520687</v>
+        <v>1.011800326884366</v>
       </c>
       <c r="F21">
-        <v>0.9925603927823046</v>
+        <v>1.021842286589605</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038660102328084</v>
+        <v>1.044632739085845</v>
       </c>
       <c r="J21">
-        <v>1.0079336138329</v>
+        <v>1.023515595095412</v>
       </c>
       <c r="K21">
-        <v>1.004717691304569</v>
+        <v>1.024015300216069</v>
       </c>
       <c r="L21">
-        <v>1.008369000910934</v>
+        <v>1.026561534832375</v>
       </c>
       <c r="M21">
-        <v>1.007684095000374</v>
+        <v>1.036421338367365</v>
       </c>
       <c r="N21">
-        <v>1.009364995176144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011076956652392</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037397429957502</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02813372786251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9736746157328252</v>
+        <v>0.9903647451403754</v>
       </c>
       <c r="D22">
-        <v>0.9864903797566835</v>
+        <v>1.006723464530545</v>
       </c>
       <c r="E22">
-        <v>0.9900255436341693</v>
+        <v>1.009192202328721</v>
       </c>
       <c r="F22">
-        <v>0.9887905169233181</v>
+        <v>1.019409017995708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037901326691696</v>
+        <v>1.043913803459396</v>
       </c>
       <c r="J22">
-        <v>1.005615374584196</v>
+        <v>1.021533742878</v>
       </c>
       <c r="K22">
-        <v>1.002334301001269</v>
+        <v>1.022162894669479</v>
       </c>
       <c r="L22">
-        <v>1.005797220374123</v>
+        <v>1.024583733139066</v>
       </c>
       <c r="M22">
-        <v>1.004587355228803</v>
+        <v>1.034605540914806</v>
       </c>
       <c r="N22">
-        <v>1.007043463761801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010373657407369</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035960340347174</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026810350479913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9756916230864736</v>
+        <v>0.9921495727781624</v>
       </c>
       <c r="D23">
-        <v>0.9881110085091424</v>
+        <v>1.008020703027688</v>
       </c>
       <c r="E23">
-        <v>0.9917463909606016</v>
+        <v>1.010563077189645</v>
       </c>
       <c r="F23">
-        <v>0.9907970232505765</v>
+        <v>1.020690148571467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038306452095594</v>
+        <v>1.044289548802492</v>
       </c>
       <c r="J23">
-        <v>1.006849941129285</v>
+        <v>1.022570242852364</v>
       </c>
       <c r="K23">
-        <v>1.003603357097493</v>
+        <v>1.023125755224947</v>
       </c>
       <c r="L23">
-        <v>1.007166497150078</v>
+        <v>1.025620108707381</v>
       </c>
       <c r="M23">
-        <v>1.006235928088995</v>
+        <v>1.035558990947827</v>
       </c>
       <c r="N23">
-        <v>1.008279783532991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010739254176386</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036714936512219</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02748141716439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834377342604116</v>
+        <v>0.9990561201691981</v>
       </c>
       <c r="D24">
-        <v>0.9943518295101282</v>
+        <v>1.013073399854583</v>
       </c>
       <c r="E24">
-        <v>0.9983732836497071</v>
+        <v>1.015888060620089</v>
       </c>
       <c r="F24">
-        <v>0.9985233256041065</v>
+        <v>1.025666909257554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039838483649081</v>
+        <v>1.04572782692857</v>
       </c>
       <c r="J24">
-        <v>1.011588586340298</v>
+        <v>1.026590552448227</v>
       </c>
       <c r="K24">
-        <v>1.008478864734468</v>
+        <v>1.026874756786583</v>
       </c>
       <c r="L24">
-        <v>1.012429026600108</v>
+        <v>1.029641792990691</v>
       </c>
       <c r="M24">
-        <v>1.012576423020472</v>
+        <v>1.039257795010716</v>
       </c>
       <c r="N24">
-        <v>1.013025158163734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012160455862832</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039642301403496</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030124616138143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9920555055171966</v>
+        <v>1.006776189179111</v>
       </c>
       <c r="D25">
-        <v>1.001326874586453</v>
+        <v>1.018754989085534</v>
       </c>
       <c r="E25">
-        <v>1.005780585430239</v>
+        <v>1.021873702044765</v>
       </c>
       <c r="F25">
-        <v>1.00715936978962</v>
+        <v>1.03126955227091</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041492261323547</v>
+        <v>1.04728851960097</v>
       </c>
       <c r="J25">
-        <v>1.016853223797507</v>
+        <v>1.031077639851886</v>
       </c>
       <c r="K25">
-        <v>1.013904627397705</v>
+        <v>1.031068970900491</v>
       </c>
       <c r="L25">
-        <v>1.01828982315843</v>
+        <v>1.034141687947659</v>
       </c>
       <c r="M25">
-        <v>1.019647553172275</v>
+        <v>1.043401094476209</v>
       </c>
       <c r="N25">
-        <v>1.018297272009995</v>
+        <v>1.013744991655428</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042921441585744</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033087292971187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012665989999342</v>
+        <v>1.012572218396898</v>
       </c>
       <c r="D2">
-        <v>1.023088152506478</v>
+        <v>1.022526563178577</v>
       </c>
       <c r="E2">
-        <v>1.026461039994364</v>
+        <v>1.026427462959488</v>
       </c>
       <c r="F2">
-        <v>1.035576088327238</v>
+        <v>1.035554687103915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048429400071504</v>
+        <v>1.048455719137449</v>
       </c>
       <c r="J2">
-        <v>1.034474352412003</v>
+        <v>1.034383290572942</v>
       </c>
       <c r="K2">
-        <v>1.03423493721557</v>
+        <v>1.033680740211041</v>
       </c>
       <c r="L2">
-        <v>1.037563639816666</v>
+        <v>1.037530500849108</v>
       </c>
       <c r="M2">
-        <v>1.046561080275439</v>
+        <v>1.046539952153829</v>
       </c>
       <c r="N2">
-        <v>1.014937289198242</v>
+        <v>1.016022726909198</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045422345822832</v>
+        <v>1.045405624444171</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035277302453279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034894246634949</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02083341600449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016855932309359</v>
+        <v>1.016476408568139</v>
       </c>
       <c r="D3">
-        <v>1.026199494466445</v>
+        <v>1.025269434441797</v>
       </c>
       <c r="E3">
-        <v>1.029739849951177</v>
+        <v>1.029472590635257</v>
       </c>
       <c r="F3">
-        <v>1.038653788542277</v>
+        <v>1.038449869854149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049223688669147</v>
+        <v>1.049147150852241</v>
       </c>
       <c r="J3">
-        <v>1.036897401716417</v>
+        <v>1.036527769854808</v>
       </c>
       <c r="K3">
-        <v>1.036507773020322</v>
+        <v>1.035588883550244</v>
       </c>
       <c r="L3">
-        <v>1.040005835633028</v>
+        <v>1.03974175639781</v>
       </c>
       <c r="M3">
-        <v>1.048814868104808</v>
+        <v>1.048613324395983</v>
       </c>
       <c r="N3">
-        <v>1.015790206991693</v>
+        <v>1.016618267155786</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047206053541853</v>
+        <v>1.04704654665826</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036881735679545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036240526381469</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021263570555281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019516826349516</v>
+        <v>1.018958302046923</v>
       </c>
       <c r="D4">
-        <v>1.028182020890875</v>
+        <v>1.027019514752329</v>
       </c>
       <c r="E4">
-        <v>1.03182801247458</v>
+        <v>1.031414258435632</v>
       </c>
       <c r="F4">
-        <v>1.04061526552889</v>
+        <v>1.040297044186895</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049717086470436</v>
+        <v>1.049575978182426</v>
       </c>
       <c r="J4">
-        <v>1.038434130956365</v>
+        <v>1.037889178127821</v>
       </c>
       <c r="K4">
-        <v>1.03795180784744</v>
+        <v>1.036802418339422</v>
       </c>
       <c r="L4">
-        <v>1.041556897448424</v>
+        <v>1.04114776713926</v>
       </c>
       <c r="M4">
-        <v>1.050247018729378</v>
+        <v>1.049932279746374</v>
       </c>
       <c r="N4">
-        <v>1.016330727201928</v>
+        <v>1.01699620222066</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04833949345209</v>
+        <v>1.048090401278776</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037903699789895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037099585608189</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021534701110134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02062938437648</v>
+        <v>1.019996293956455</v>
       </c>
       <c r="D5">
-        <v>1.029015552534455</v>
+        <v>1.027755986387425</v>
       </c>
       <c r="E5">
-        <v>1.032702833056998</v>
+        <v>1.032228010256428</v>
       </c>
       <c r="F5">
-        <v>1.041436604322836</v>
+        <v>1.041070761988374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049921924702347</v>
+        <v>1.049753858959844</v>
       </c>
       <c r="J5">
-        <v>1.039078351917726</v>
+        <v>1.038460184820785</v>
       </c>
       <c r="K5">
-        <v>1.03855980991619</v>
+        <v>1.037314075426871</v>
       </c>
       <c r="L5">
-        <v>1.04220683736844</v>
+        <v>1.041737178286436</v>
       </c>
       <c r="M5">
-        <v>1.050846656868955</v>
+        <v>1.0504847112769</v>
       </c>
       <c r="N5">
-        <v>1.0165578113386</v>
+        <v>1.017155109502435</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048814061594575</v>
+        <v>1.048527609125665</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038340798387595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037469272485557</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02164916708446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020822302836162</v>
+        <v>1.020175962769439</v>
       </c>
       <c r="D6">
-        <v>1.02916387484669</v>
+        <v>1.027887218927192</v>
       </c>
       <c r="E6">
-        <v>1.032855033756611</v>
+        <v>1.032369330222968</v>
       </c>
       <c r="F6">
-        <v>1.041578627628094</v>
+        <v>1.041204303445873</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049958793302866</v>
+        <v>1.049785897901064</v>
       </c>
       <c r="J6">
-        <v>1.039192728588252</v>
+        <v>1.03856154564561</v>
       </c>
       <c r="K6">
-        <v>1.038670222751004</v>
+        <v>1.037407521505801</v>
       </c>
       <c r="L6">
-        <v>1.042321272923656</v>
+        <v>1.041840827024479</v>
       </c>
       <c r="M6">
-        <v>1.050951457647963</v>
+        <v>1.050581102262246</v>
       </c>
       <c r="N6">
-        <v>1.01659884372511</v>
+        <v>1.017183835949663</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048897003437447</v>
+        <v>1.048603895286479</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038427633265965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037544982566094</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021670938551627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019550109546704</v>
+        <v>1.018997750868758</v>
       </c>
       <c r="D7">
-        <v>1.02821686346639</v>
+        <v>1.027058295851448</v>
       </c>
       <c r="E7">
-        <v>1.031855341154838</v>
+        <v>1.031446864889897</v>
       </c>
       <c r="F7">
-        <v>1.040638512296973</v>
+        <v>1.040324457751624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04972731489428</v>
+        <v>1.049588788743349</v>
       </c>
       <c r="J7">
-        <v>1.038460693243275</v>
+        <v>1.037921750048125</v>
       </c>
       <c r="K7">
-        <v>1.037983366580947</v>
+        <v>1.036837865642899</v>
       </c>
       <c r="L7">
-        <v>1.041581043223318</v>
+        <v>1.041177129861017</v>
       </c>
       <c r="M7">
-        <v>1.050267165856144</v>
+        <v>1.04995654672356</v>
       </c>
       <c r="N7">
-        <v>1.016342061768593</v>
+        <v>1.01703292815431</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048355438380955</v>
+        <v>1.048109606764436</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03794617597036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03714681735476</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021546013518285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014116125434911</v>
+        <v>1.013950607707216</v>
       </c>
       <c r="D8">
-        <v>1.024176007465931</v>
+        <v>1.023509136956034</v>
       </c>
       <c r="E8">
-        <v>1.027596179115044</v>
+        <v>1.027504922684238</v>
       </c>
       <c r="F8">
-        <v>1.036638241320458</v>
+        <v>1.036571918297675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048711717931524</v>
+        <v>1.048713671699901</v>
       </c>
       <c r="J8">
-        <v>1.035322625408406</v>
+        <v>1.035161729364007</v>
       </c>
       <c r="K8">
-        <v>1.035038162126818</v>
+        <v>1.03437980658391</v>
       </c>
       <c r="L8">
-        <v>1.038414879967967</v>
+        <v>1.038324778275403</v>
       </c>
       <c r="M8">
-        <v>1.047343781344315</v>
+        <v>1.047278279400152</v>
       </c>
       <c r="N8">
-        <v>1.015238575241212</v>
+        <v>1.016320748250112</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046041796786372</v>
+        <v>1.045989956782096</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035868252658348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035413815896366</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020997606084783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00410716924429</v>
+        <v>1.004645572856852</v>
       </c>
       <c r="D9">
-        <v>1.016771268363377</v>
+        <v>1.016999095555386</v>
       </c>
       <c r="E9">
-        <v>1.019797953844791</v>
+        <v>1.020281778871773</v>
       </c>
       <c r="F9">
-        <v>1.029329455246504</v>
+        <v>1.029713127552541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046748758879056</v>
+        <v>1.047003567536776</v>
       </c>
       <c r="J9">
-        <v>1.029515721792319</v>
+        <v>1.030035343807312</v>
       </c>
       <c r="K9">
-        <v>1.029597979975608</v>
+        <v>1.0298222660504</v>
       </c>
       <c r="L9">
-        <v>1.03257778655414</v>
+        <v>1.033054150761137</v>
       </c>
       <c r="M9">
-        <v>1.041963952778424</v>
+        <v>1.042341846622149</v>
       </c>
       <c r="N9">
-        <v>1.013190175263112</v>
+        <v>1.014904784548309</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P9">
-        <v>1.041784043202924</v>
+        <v>1.042083120249913</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032018441741037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03218783833365</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019954460752899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9972251505889159</v>
+        <v>0.9983012406285175</v>
       </c>
       <c r="D10">
-        <v>1.011731688492905</v>
+        <v>1.01261470034341</v>
       </c>
       <c r="E10">
-        <v>1.014508347655015</v>
+        <v>1.015431338768998</v>
       </c>
       <c r="F10">
-        <v>1.024427004937531</v>
+        <v>1.025155361620953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045368643285932</v>
+        <v>1.045817063588192</v>
       </c>
       <c r="J10">
-        <v>1.025549296319672</v>
+        <v>1.026582420218059</v>
       </c>
       <c r="K10">
-        <v>1.025892305842347</v>
+        <v>1.026759867538031</v>
       </c>
       <c r="L10">
-        <v>1.028620498888132</v>
+        <v>1.029527455313258</v>
       </c>
       <c r="M10">
-        <v>1.038368797155028</v>
+        <v>1.039084811538982</v>
       </c>
       <c r="N10">
-        <v>1.011798924558358</v>
+        <v>1.01407025523442</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038990124480628</v>
+        <v>1.039556767565988</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029415187052022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030041116543629</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019252994169171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9948661832398005</v>
+        <v>0.996154688572861</v>
       </c>
       <c r="D11">
-        <v>1.010104681102969</v>
+        <v>1.011228891570322</v>
       </c>
       <c r="E11">
-        <v>1.012997363494058</v>
+        <v>1.014090472084044</v>
       </c>
       <c r="F11">
-        <v>1.02340881970507</v>
+        <v>1.024270853549828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045075177593382</v>
+        <v>1.045595922594696</v>
       </c>
       <c r="J11">
-        <v>1.024454105632622</v>
+        <v>1.025688316599679</v>
       </c>
       <c r="K11">
-        <v>1.024838521077186</v>
+        <v>1.025942109415155</v>
       </c>
       <c r="L11">
-        <v>1.027678261667629</v>
+        <v>1.028751466521055</v>
       </c>
       <c r="M11">
-        <v>1.037902381904829</v>
+        <v>1.038749126419757</v>
       </c>
       <c r="N11">
-        <v>1.011493366877796</v>
+        <v>1.014109305909531</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039056926745725</v>
+        <v>1.039726691448758</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028703219499308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029499235355619</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019126305603265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9942319770389687</v>
+        <v>0.9955681675272089</v>
       </c>
       <c r="D12">
-        <v>1.00970408894136</v>
+        <v>1.010882532381619</v>
       </c>
       <c r="E12">
-        <v>1.01273011981793</v>
+        <v>1.013858126054948</v>
       </c>
       <c r="F12">
-        <v>1.023442720707904</v>
+        <v>1.024332103977253</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045085661184923</v>
+        <v>1.045618266851353</v>
       </c>
       <c r="J12">
-        <v>1.024282472068172</v>
+        <v>1.025561282021823</v>
       </c>
       <c r="K12">
-        <v>1.024647705865458</v>
+        <v>1.025804168499108</v>
       </c>
       <c r="L12">
-        <v>1.027617428256305</v>
+        <v>1.028724556621583</v>
       </c>
       <c r="M12">
-        <v>1.038134167070007</v>
+        <v>1.039007528794969</v>
       </c>
       <c r="N12">
-        <v>1.011496258231887</v>
+        <v>1.014219480497058</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039566388795437</v>
+        <v>1.04025697409404</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028568304813515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029401707378969</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019138566590378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9949090734576074</v>
+        <v>0.9961513617593531</v>
       </c>
       <c r="D13">
-        <v>1.010249894899237</v>
+        <v>1.011326915848949</v>
       </c>
       <c r="E13">
-        <v>1.013425335220053</v>
+        <v>1.014471584124607</v>
       </c>
       <c r="F13">
-        <v>1.024317129892188</v>
+        <v>1.025142087471882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045345781381754</v>
+        <v>1.045837563318243</v>
       </c>
       <c r="J13">
-        <v>1.024837048688559</v>
+        <v>1.026026280265628</v>
       </c>
       <c r="K13">
-        <v>1.025139939318532</v>
+        <v>1.026196964127281</v>
       </c>
       <c r="L13">
-        <v>1.028256583002778</v>
+        <v>1.029283564531758</v>
       </c>
       <c r="M13">
-        <v>1.038950302460596</v>
+        <v>1.039760480282199</v>
       </c>
       <c r="N13">
-        <v>1.011748631657309</v>
+        <v>1.014362071312318</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040488090024193</v>
+        <v>1.041128553950639</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02891382199857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029676670213139</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019264995904706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.995977854881948</v>
+        <v>0.997091098640971</v>
       </c>
       <c r="D14">
-        <v>1.011063264548118</v>
+        <v>1.011999544859848</v>
       </c>
       <c r="E14">
-        <v>1.014347271117882</v>
+        <v>1.0152844215934</v>
       </c>
       <c r="F14">
-        <v>1.025308615600914</v>
+        <v>1.026047726711973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045640698130576</v>
+        <v>1.046080730277684</v>
       </c>
       <c r="J14">
-        <v>1.025554817109112</v>
+        <v>1.026621221829436</v>
       </c>
       <c r="K14">
-        <v>1.025796216153055</v>
+        <v>1.026715337453585</v>
       </c>
       <c r="L14">
-        <v>1.029020218688264</v>
+        <v>1.029940338541068</v>
       </c>
       <c r="M14">
-        <v>1.039784891175797</v>
+        <v>1.040510937021544</v>
       </c>
       <c r="N14">
-        <v>1.012038694293658</v>
+        <v>1.014478445014257</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041320947338919</v>
+        <v>1.041894825814037</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029379274745614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030044748516768</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019406462625809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9965323996525592</v>
+        <v>0.9975836651419178</v>
       </c>
       <c r="D15">
-        <v>1.011478027462711</v>
+        <v>1.012346014359375</v>
       </c>
       <c r="E15">
-        <v>1.014793486636522</v>
+        <v>1.015679044730649</v>
       </c>
       <c r="F15">
-        <v>1.025751191042134</v>
+        <v>1.026449735426648</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045771430060645</v>
+        <v>1.046187709054401</v>
       </c>
       <c r="J15">
-        <v>1.025898182948149</v>
+        <v>1.026905613457746</v>
       </c>
       <c r="K15">
-        <v>1.02611593973779</v>
+        <v>1.026968143518438</v>
       </c>
       <c r="L15">
-        <v>1.029371300990767</v>
+        <v>1.030240893241129</v>
       </c>
       <c r="M15">
-        <v>1.040133961344363</v>
+        <v>1.040820254774275</v>
       </c>
       <c r="N15">
-        <v>1.012167921844235</v>
+        <v>1.014520175647336</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041634346146859</v>
+        <v>1.042176789452917</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029611249884034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030229974342893</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019469458145874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.999319733797591</v>
+        <v>1.000095605725907</v>
       </c>
       <c r="D16">
-        <v>1.013508039781753</v>
+        <v>1.014064806151601</v>
       </c>
       <c r="E16">
-        <v>1.016905646823268</v>
+        <v>1.017566021566685</v>
       </c>
       <c r="F16">
-        <v>1.027691182490583</v>
+        <v>1.028212826323824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046322073259644</v>
+        <v>1.046638429995734</v>
       </c>
       <c r="J16">
-        <v>1.02748349587761</v>
+        <v>1.028228657827935</v>
       </c>
       <c r="K16">
-        <v>1.0276016372277</v>
+        <v>1.028148730311397</v>
       </c>
       <c r="L16">
-        <v>1.030940427332981</v>
+        <v>1.031589429086692</v>
       </c>
       <c r="M16">
-        <v>1.041542573521447</v>
+        <v>1.042055473423085</v>
       </c>
       <c r="N16">
-        <v>1.01271276300761</v>
+        <v>1.014668012340336</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042709048328263</v>
+        <v>1.043114453791784</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030664891024652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031068179884617</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019730196548343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000900254697829</v>
+        <v>1.001543589176394</v>
       </c>
       <c r="D17">
-        <v>1.014642744588965</v>
+        <v>1.015043245888123</v>
       </c>
       <c r="E17">
-        <v>1.01804487212494</v>
+        <v>1.018598736528579</v>
       </c>
       <c r="F17">
-        <v>1.028656321347269</v>
+        <v>1.029094425779956</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046587534010266</v>
+        <v>1.046858427682009</v>
       </c>
       <c r="J17">
-        <v>1.02832388135008</v>
+        <v>1.028942578490584</v>
       </c>
       <c r="K17">
-        <v>1.028398813759136</v>
+        <v>1.028792555322392</v>
       </c>
       <c r="L17">
-        <v>1.03174373775946</v>
+        <v>1.032288336068863</v>
       </c>
       <c r="M17">
-        <v>1.042179888961278</v>
+        <v>1.042610855876629</v>
       </c>
       <c r="N17">
-        <v>1.012978781439352</v>
+        <v>1.014750677761799</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043083970436192</v>
+        <v>1.043424648436604</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031231134168751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031526240073772</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019858642619984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001569017815809</v>
+        <v>1.002178086579275</v>
       </c>
       <c r="D18">
-        <v>1.015084815863686</v>
+        <v>1.015439066497407</v>
       </c>
       <c r="E18">
-        <v>1.018416870850629</v>
+        <v>1.018946002014279</v>
       </c>
       <c r="F18">
-        <v>1.028816250990868</v>
+        <v>1.029235007823099</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046621007560223</v>
+        <v>1.046884045483199</v>
       </c>
       <c r="J18">
-        <v>1.028572880314303</v>
+        <v>1.029159060212572</v>
       </c>
       <c r="K18">
-        <v>1.028648148597647</v>
+        <v>1.028996518837915</v>
       </c>
       <c r="L18">
-        <v>1.031925101091562</v>
+        <v>1.032445524614554</v>
       </c>
       <c r="M18">
-        <v>1.042155449876943</v>
+        <v>1.042567491991389</v>
       </c>
       <c r="N18">
-        <v>1.013017200975048</v>
+        <v>1.014736321878034</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04282738879532</v>
+        <v>1.043153174441467</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031395709342849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031657602646499</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019872631120945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001445364464412</v>
+        <v>1.002094735284978</v>
       </c>
       <c r="D19">
-        <v>1.014940559144552</v>
+        <v>1.015335561262167</v>
       </c>
       <c r="E19">
-        <v>1.018117655782492</v>
+        <v>1.018683753211124</v>
       </c>
       <c r="F19">
-        <v>1.028261162398835</v>
+        <v>1.028708995854875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046461460725515</v>
+        <v>1.046744646745057</v>
       </c>
       <c r="J19">
-        <v>1.02831957004565</v>
+        <v>1.028944673030461</v>
       </c>
       <c r="K19">
-        <v>1.028443100075137</v>
+        <v>1.028831578344327</v>
       </c>
       <c r="L19">
-        <v>1.031567908196955</v>
+        <v>1.032124732829259</v>
       </c>
       <c r="M19">
-        <v>1.0415472461108</v>
+        <v>1.04198792721408</v>
       </c>
       <c r="N19">
-        <v>1.012869131009732</v>
+        <v>1.014625828606511</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042021583539551</v>
+        <v>1.042370126305426</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031257170007634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03154804532604</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019795393517903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9990632972851432</v>
+        <v>0.9999643346067235</v>
       </c>
       <c r="D20">
-        <v>1.013100859475814</v>
+        <v>1.013783267355963</v>
       </c>
       <c r="E20">
-        <v>1.015924406660134</v>
+        <v>1.016703002004139</v>
       </c>
       <c r="F20">
-        <v>1.025735158162659</v>
+        <v>1.026350024420685</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045752901288566</v>
+        <v>1.046136290102789</v>
       </c>
       <c r="J20">
-        <v>1.026630375065145</v>
+        <v>1.027496631164236</v>
       </c>
       <c r="K20">
-        <v>1.026917192381319</v>
+        <v>1.027588008374651</v>
       </c>
       <c r="L20">
-        <v>1.029692907105414</v>
+        <v>1.030458372884215</v>
       </c>
       <c r="M20">
-        <v>1.039340092605621</v>
+        <v>1.039944841675037</v>
       </c>
       <c r="N20">
-        <v>1.012184693122456</v>
+        <v>1.014226795970597</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039748259534645</v>
+        <v>1.040226854563305</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030182236464809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030673132783944</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019447602456936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.993754407279812</v>
+        <v>0.9952160789558421</v>
       </c>
       <c r="D21">
-        <v>1.009206269251079</v>
+        <v>1.010513852787625</v>
       </c>
       <c r="E21">
-        <v>1.011800326884366</v>
+        <v>1.013043852399086</v>
       </c>
       <c r="F21">
-        <v>1.021842286589605</v>
+        <v>1.022823256357331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044632739085845</v>
+        <v>1.045227979173242</v>
       </c>
       <c r="J21">
-        <v>1.023515595095412</v>
+        <v>1.024915184611481</v>
       </c>
       <c r="K21">
-        <v>1.024015300216069</v>
+        <v>1.025298737667927</v>
       </c>
       <c r="L21">
-        <v>1.026561534832375</v>
+        <v>1.027782248292912</v>
       </c>
       <c r="M21">
-        <v>1.036421338367365</v>
+        <v>1.037384762836667</v>
       </c>
       <c r="N21">
-        <v>1.011076956652392</v>
+        <v>1.013931661919944</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037397429957502</v>
+        <v>1.038159918722364</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02813372786251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029058115275162</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018923286345469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9903647451403754</v>
+        <v>0.9921872459528288</v>
       </c>
       <c r="D22">
-        <v>1.006723464530545</v>
+        <v>1.008431957813735</v>
       </c>
       <c r="E22">
-        <v>1.009192202328721</v>
+        <v>1.010735170452788</v>
       </c>
       <c r="F22">
-        <v>1.019409017995708</v>
+        <v>1.020626208734537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043913803459396</v>
+        <v>1.04464587177556</v>
       </c>
       <c r="J22">
-        <v>1.021533742878</v>
+        <v>1.023274220308667</v>
       </c>
       <c r="K22">
-        <v>1.022162894669479</v>
+        <v>1.023838206405031</v>
       </c>
       <c r="L22">
-        <v>1.024583733139066</v>
+        <v>1.026096919672944</v>
       </c>
       <c r="M22">
-        <v>1.034605540914806</v>
+        <v>1.035799839077286</v>
       </c>
       <c r="N22">
-        <v>1.010373657407369</v>
+        <v>1.013739001862705</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035960340347174</v>
+        <v>1.036905552640645</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026810350479913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028010533262766</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018587847143521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9921495727781624</v>
+        <v>0.9937666169931408</v>
       </c>
       <c r="D23">
-        <v>1.008020703027688</v>
+        <v>1.009505375138087</v>
       </c>
       <c r="E23">
-        <v>1.010563077189645</v>
+        <v>1.011934926110887</v>
       </c>
       <c r="F23">
-        <v>1.020690148571467</v>
+        <v>1.02177222090612</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044289548802492</v>
+        <v>1.044942831543529</v>
       </c>
       <c r="J23">
-        <v>1.022570242852364</v>
+        <v>1.024116692090243</v>
       </c>
       <c r="K23">
-        <v>1.023125755224947</v>
+        <v>1.024582346270265</v>
       </c>
       <c r="L23">
-        <v>1.025620108707381</v>
+        <v>1.02696617684994</v>
       </c>
       <c r="M23">
-        <v>1.035558990947827</v>
+        <v>1.036621242576924</v>
       </c>
       <c r="N23">
-        <v>1.010739254176386</v>
+        <v>1.013791119662325</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036714936512219</v>
+        <v>1.037555641403486</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02748141716439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028526012262535</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018754442533236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990561201691981</v>
+        <v>0.9999624998082279</v>
       </c>
       <c r="D24">
-        <v>1.013073399854583</v>
+        <v>1.013761000779581</v>
       </c>
       <c r="E24">
-        <v>1.015888060620089</v>
+        <v>1.016671648419729</v>
       </c>
       <c r="F24">
-        <v>1.025666909257554</v>
+        <v>1.026285698210214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04572782692857</v>
+        <v>1.046113973818931</v>
       </c>
       <c r="J24">
-        <v>1.026590552448227</v>
+        <v>1.027461993346957</v>
       </c>
       <c r="K24">
-        <v>1.026874756786583</v>
+        <v>1.027550691874509</v>
       </c>
       <c r="L24">
-        <v>1.029641792990691</v>
+        <v>1.030412182859842</v>
       </c>
       <c r="M24">
-        <v>1.039257795010716</v>
+        <v>1.03986641356893</v>
       </c>
       <c r="N24">
-        <v>1.012160455862832</v>
+        <v>1.014206185685919</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039642301403496</v>
+        <v>1.040123982598339</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030124616138143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030616470864775</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019430317287524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006776189179111</v>
+        <v>1.007110649979254</v>
       </c>
       <c r="D25">
-        <v>1.018754989085534</v>
+        <v>1.01873148299316</v>
       </c>
       <c r="E25">
-        <v>1.021873702044765</v>
+        <v>1.022190457266114</v>
       </c>
       <c r="F25">
-        <v>1.03126955227091</v>
+        <v>1.031522316178984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04728851960097</v>
+        <v>1.047469363409799</v>
       </c>
       <c r="J25">
-        <v>1.031077639851886</v>
+        <v>1.031401059345459</v>
       </c>
       <c r="K25">
-        <v>1.031068970900491</v>
+        <v>1.031045812843338</v>
       </c>
       <c r="L25">
-        <v>1.034141687947659</v>
+        <v>1.034453791481107</v>
       </c>
       <c r="M25">
-        <v>1.043401094476209</v>
+        <v>1.043650231299042</v>
       </c>
       <c r="N25">
-        <v>1.013744991655428</v>
+        <v>1.015253619108451</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042921441585744</v>
+        <v>1.043118615990678</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033087292971187</v>
+        <v>1.033084522750002</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020239517993205</v>
       </c>
     </row>
   </sheetData>
